--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5B4C1AC0-0FDE-4ECF-A2C7-30EB0A398692}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{38325EE4-FEE0-4AAD-9EC6-024D66B36CBB}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="writing" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,20 +34,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Document Total</t>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>Acknowledgments</t>
+  </si>
+  <si>
+    <t>Conventions</t>
+  </si>
+  <si>
+    <t>1: Introduction</t>
+  </si>
+  <si>
+    <t>2: Background</t>
+  </si>
+  <si>
+    <t>3: Data &amp; Methods</t>
+  </si>
+  <si>
+    <t>4: Results</t>
+  </si>
+  <si>
+    <t>5: Conclusion</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -75,9 +107,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,44 +424,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C901B606-0F9C-499E-AEEF-27251EE97F61}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.9296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>44097</v>
+        <v>44130</v>
       </c>
       <c r="B2">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
-        <v>44098</v>
-      </c>
-      <c r="B3">
-        <v>2724</v>
+        <v>243</v>
+      </c>
+      <c r="C2">
+        <v>87</v>
+      </c>
+      <c r="D2">
+        <v>535</v>
+      </c>
+      <c r="E2">
+        <v>1360</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>SUM(B2:I2)</f>
+        <v>2225</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{38325EE4-FEE0-4AAD-9EC6-024D66B36CBB}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4624B8B6-CEFC-45DC-A381-E30850252DE2}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
-    <sheet name="writing" sheetId="2" r:id="rId1"/>
+    <sheet name="dashboard" sheetId="3" r:id="rId1"/>
+    <sheet name="writing" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -64,6 +65,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Daily</t>
   </si>
 </sst>
 </file>
@@ -115,7 +119,29 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -126,6 +152,1203 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>Writing Progress</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>writing!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Daily</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>writing!$A$2:$A$3</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44130</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44131</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>writing!$K$2:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-43CA-48CC-BAB2-BC0740F4C54B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="582038031"/>
+        <c:axId val="592963871"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>writing!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>writing!$A$2:$A$3</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44130</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44131</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>writing!$J$2:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2225</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-43CA-48CC-BAB2-BC0740F4C54B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="716951423"/>
+        <c:axId val="714939423"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="582038031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="592963871"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="592963871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:t>words per day</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="582038031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="714939423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:t>total words</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="716951423"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dateAx>
+        <c:axId val="716951423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="714939423"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:dateAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC058E7F-7E39-412B-87BB-BD9ABB4BB559}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K3" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:K3" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{BEA871B4-EEE2-4F93-9DBC-4AFC40E06E5F}" name="Date" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{3081B1F4-64BE-4187-A6E1-DC702177CD85}" name="Abstract"/>
+    <tableColumn id="3" xr3:uid="{DA2DA13C-A841-40A2-B853-0B35F6A9B823}" name="Acknowledgments"/>
+    <tableColumn id="4" xr3:uid="{0BA49765-B7D9-4DB5-A1E4-08F5207B6352}" name="Conventions"/>
+    <tableColumn id="5" xr3:uid="{F82E0ACF-23BB-415C-9848-D5BB5407AF8D}" name="1: Introduction"/>
+    <tableColumn id="6" xr3:uid="{A97AC310-0335-4D8A-AE01-93B6C8297A5D}" name="2: Background"/>
+    <tableColumn id="7" xr3:uid="{DBDA4A9C-3B12-453F-B457-620D99362FF4}" name="3: Data &amp; Methods"/>
+    <tableColumn id="8" xr3:uid="{C2A4C48B-7471-4014-9277-4A1B1EF3B40B}" name="4: Results"/>
+    <tableColumn id="9" xr3:uid="{58756D61-0637-4214-BD00-EE98CC70539C}" name="5: Conclusion"/>
+    <tableColumn id="10" xr3:uid="{457CFC5C-BE64-406D-A9FB-BB2DBEA65B42}" name="Total">
+      <calculatedColumnFormula>SUM(B2:I2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{778E3DE4-F274-4416-84BC-FF498402E770}" name="Daily">
+      <calculatedColumnFormula>J2-J1</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -424,28 +1647,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.9296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.9296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -476,8 +1715,11 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>44130</v>
       </c>
@@ -508,10 +1750,53 @@
       <c r="J2">
         <f>SUM(B2:I2)</f>
         <v>2225</v>
+      </c>
+      <c r="K2">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>44131</v>
+      </c>
+      <c r="B3">
+        <v>243</v>
+      </c>
+      <c r="C3">
+        <v>87</v>
+      </c>
+      <c r="D3">
+        <v>535</v>
+      </c>
+      <c r="E3">
+        <v>2374</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>SUM(B3:I3)</f>
+        <v>3239</v>
+      </c>
+      <c r="K3">
+        <f>J3-J2</f>
+        <v>1014</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4624B8B6-CEFC-45DC-A381-E30850252DE2}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AFB294AE-77D2-4C56-8D0D-04E98C9EED2F}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
@@ -331,6 +331,63 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>writing!$A$2:$A$3</c:f>
@@ -552,7 +609,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -584,7 +641,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -1651,7 +1708,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AFB294AE-77D2-4C56-8D0D-04E98C9EED2F}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6E07DF96-5E3D-4C6B-B940-F39BC3E8D846}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
     <sheet name="writing" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -256,30 +256,36 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$3</c:f>
+              <c:f>writing!$A$2:$A$4</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>44131</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>44132</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$K$2:$K$3</c:f>
+              <c:f>writing!$K$2:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -361,6 +367,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -390,30 +397,36 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$3</c:f>
+              <c:f>writing!$A$2:$A$4</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>44131</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>44132</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$J$2:$J$3</c:f>
+              <c:f>writing!$J$2:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>2225</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3239</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4040</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1385,8 +1398,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K3" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:K3" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K4" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:K4" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{BEA871B4-EEE2-4F93-9DBC-4AFC40E06E5F}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{3081B1F4-64BE-4187-A6E1-DC702177CD85}" name="Abstract"/>
@@ -1708,7 +1721,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1720,10 +1733,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1849,6 +1862,43 @@
         <v>1014</v>
       </c>
     </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B4">
+        <v>243</v>
+      </c>
+      <c r="C4">
+        <v>87</v>
+      </c>
+      <c r="D4">
+        <v>535</v>
+      </c>
+      <c r="E4">
+        <v>3175</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>SUM(B4:I4)</f>
+        <v>4040</v>
+      </c>
+      <c r="K4">
+        <f>J4-J3</f>
+        <v>801</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6E07DF96-5E3D-4C6B-B940-F39BC3E8D846}"/>
+  <xr:revisionPtr revIDLastSave="147" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DC207A2A-4427-45B1-AA5D-98387D94CB92}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
     <sheet name="writing" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -246,7 +246,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -254,12 +254,67 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$4</c:f>
+              <c:f>writing!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -269,15 +324,18 @@
                 <c:pt idx="2">
                   <c:v>44132</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>44133</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$K$2:$K$4</c:f>
+              <c:f>writing!$K$2:$K$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -286,6 +344,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -304,7 +365,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="5"/>
         <c:axId val="582038031"/>
         <c:axId val="592963871"/>
       </c:barChart>
@@ -328,7 +389,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -397,10 +458,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$4</c:f>
+              <c:f>writing!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -410,15 +471,18 @@
                 <c:pt idx="2">
                   <c:v>44132</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>44133</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$J$2:$J$4</c:f>
+              <c:f>writing!$J$2:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2225</c:v>
                 </c:pt>
@@ -427,6 +491,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4040</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4578</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -812,13 +879,10 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -1398,8 +1462,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K4" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:K4" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K5" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:K5" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{BEA871B4-EEE2-4F93-9DBC-4AFC40E06E5F}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{3081B1F4-64BE-4187-A6E1-DC702177CD85}" name="Abstract"/>
@@ -1720,8 +1784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1733,10 +1797,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1899,9 +1963,50 @@
         <v>801</v>
       </c>
     </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B5">
+        <v>243</v>
+      </c>
+      <c r="C5">
+        <v>87</v>
+      </c>
+      <c r="D5">
+        <v>535</v>
+      </c>
+      <c r="E5">
+        <v>3713</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f>SUM(B5:I5)</f>
+        <v>4578</v>
+      </c>
+      <c r="K5">
+        <f>J5-J4</f>
+        <v>538</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="J2:J3 J4:J5" formulaRange="1"/>
+    <ignoredError sqref="K2" calculatedColumn="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DC207A2A-4427-45B1-AA5D-98387D94CB92}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D75BC947-A62D-472E-8CA1-43F056B23AD7}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
@@ -346,7 +346,7 @@
                   <c:v>801</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>538</c:v>
+                  <c:v>1241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -493,7 +493,7 @@
                   <c:v>4040</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4578</c:v>
+                  <c:v>5281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1784,7 +1784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
@@ -1799,8 +1799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1977,7 +1977,7 @@
         <v>535</v>
       </c>
       <c r="E5">
-        <v>3713</v>
+        <v>4416</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1993,11 +1993,11 @@
       </c>
       <c r="J5">
         <f>SUM(B5:I5)</f>
-        <v>4578</v>
+        <v>5281</v>
       </c>
       <c r="K5">
         <f>J5-J4</f>
-        <v>538</v>
+        <v>1241</v>
       </c>
     </row>
   </sheetData>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D75BC947-A62D-472E-8CA1-43F056B23AD7}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{060F41E7-798B-44B8-9FDC-A4C8C8D1A3FD}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
@@ -311,10 +311,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$5</c:f>
+              <c:f>writing!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -326,16 +326,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$K$2:$K$5</c:f>
+              <c:f>writing!$K$2:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -347,6 +350,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1241</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>763</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -458,10 +464,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$5</c:f>
+              <c:f>writing!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -473,16 +479,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$J$2:$J$5</c:f>
+              <c:f>writing!$J$2:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2225</c:v>
                 </c:pt>
@@ -494,6 +503,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5281</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1462,8 +1474,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K5" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:K5" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K6" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:K6" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{BEA871B4-EEE2-4F93-9DBC-4AFC40E06E5F}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{3081B1F4-64BE-4187-A6E1-DC702177CD85}" name="Abstract"/>
@@ -1797,10 +1809,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2000,11 +2012,48 @@
         <v>1241</v>
       </c>
     </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B6">
+        <v>243</v>
+      </c>
+      <c r="C6">
+        <v>87</v>
+      </c>
+      <c r="D6">
+        <v>535</v>
+      </c>
+      <c r="E6">
+        <v>5179</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f>SUM(B6:I6)</f>
+        <v>6044</v>
+      </c>
+      <c r="K6">
+        <f>J6-J5</f>
+        <v>763</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="J2:J3 J4:J5" formulaRange="1"/>
+    <ignoredError sqref="J2:J6" formulaRange="1"/>
     <ignoredError sqref="K2" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{060F41E7-798B-44B8-9FDC-A4C8C8D1A3FD}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0C78AC2A-6C58-4F28-A7B7-A7A22E4E2C1B}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
@@ -311,10 +311,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$6</c:f>
+              <c:f>writing!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -329,16 +329,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$K$2:$K$6</c:f>
+              <c:f>writing!$K$2:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -353,6 +356,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>763</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -464,10 +470,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$6</c:f>
+              <c:f>writing!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -482,16 +488,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$J$2:$J$6</c:f>
+              <c:f>writing!$J$2:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2225</c:v>
                 </c:pt>
@@ -506,6 +515,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6044</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7533</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1474,8 +1486,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K6" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:K6" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K7" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:K7" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{BEA871B4-EEE2-4F93-9DBC-4AFC40E06E5F}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{3081B1F4-64BE-4187-A6E1-DC702177CD85}" name="Abstract"/>
@@ -1809,10 +1821,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2049,11 +2061,48 @@
         <v>763</v>
       </c>
     </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B7">
+        <v>239</v>
+      </c>
+      <c r="C7">
+        <v>87</v>
+      </c>
+      <c r="D7">
+        <v>528</v>
+      </c>
+      <c r="E7">
+        <v>6658</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <f>SUM(B7:I7)</f>
+        <v>7533</v>
+      </c>
+      <c r="K7">
+        <f>J7-J6</f>
+        <v>1489</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="J2:J6" formulaRange="1"/>
+    <ignoredError sqref="J2:J7" formulaRange="1"/>
     <ignoredError sqref="K2" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0C78AC2A-6C58-4F28-A7B7-A7A22E4E2C1B}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B056D31E-F26A-41BA-BBE1-53CC5FCD5CAA}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
@@ -311,10 +311,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$7</c:f>
+              <c:f>writing!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -332,16 +332,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$K$2:$K$7</c:f>
+              <c:f>writing!$K$2:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -359,6 +362,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1489</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>621</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -470,10 +476,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$7</c:f>
+              <c:f>writing!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -491,16 +497,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$J$2:$J$7</c:f>
+              <c:f>writing!$J$2:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2225</c:v>
                 </c:pt>
@@ -517,6 +526,9 @@
                   <c:v>6044</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>7533</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>7533</c:v>
                 </c:pt>
               </c:numCache>
@@ -1486,8 +1498,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K7" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:K7" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K8" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:K8" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{BEA871B4-EEE2-4F93-9DBC-4AFC40E06E5F}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{3081B1F4-64BE-4187-A6E1-DC702177CD85}" name="Abstract"/>
@@ -1821,10 +1833,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1906,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <f>SUM(B2:I2)</f>
+        <f t="shared" ref="J2:J7" si="0">SUM(B2:I2)</f>
         <v>2225</v>
       </c>
       <c r="K2">
@@ -1942,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <f>SUM(B3:I3)</f>
+        <f t="shared" si="0"/>
         <v>3239</v>
       </c>
       <c r="K3">
@@ -1979,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <f>SUM(B4:I4)</f>
+        <f t="shared" si="0"/>
         <v>4040</v>
       </c>
       <c r="K4">
@@ -2016,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <f>SUM(B5:I5)</f>
+        <f t="shared" si="0"/>
         <v>5281</v>
       </c>
       <c r="K5">
@@ -2053,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <f>SUM(B6:I6)</f>
+        <f t="shared" si="0"/>
         <v>6044</v>
       </c>
       <c r="K6">
@@ -2090,20 +2102,56 @@
         <v>5</v>
       </c>
       <c r="J7">
-        <f>SUM(B7:I7)</f>
+        <f t="shared" si="0"/>
         <v>7533</v>
       </c>
       <c r="K7">
         <f>J7-J6</f>
         <v>1489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B8">
+        <v>239</v>
+      </c>
+      <c r="C8">
+        <v>87</v>
+      </c>
+      <c r="D8">
+        <v>528</v>
+      </c>
+      <c r="E8">
+        <v>6658</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <f>SUM(B8:I8)</f>
+        <v>7533</v>
+      </c>
+      <c r="K8">
+        <v>621</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="J2:J7" formulaRange="1"/>
-    <ignoredError sqref="K2" calculatedColumn="1"/>
+    <ignoredError sqref="J2:J8" formulaRange="1"/>
+    <ignoredError sqref="K2 K8" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B056D31E-F26A-41BA-BBE1-53CC5FCD5CAA}"/>
+  <xr:revisionPtr revIDLastSave="179" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EA6E347A-D688-43FA-A3F2-1A989AA6A322}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
@@ -311,10 +311,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$8</c:f>
+              <c:f>writing!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -335,16 +335,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$K$2:$K$8</c:f>
+              <c:f>writing!$K$2:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -365,6 +368,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -476,10 +482,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$8</c:f>
+              <c:f>writing!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -500,16 +506,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$J$2:$J$8</c:f>
+              <c:f>writing!$J$2:$J$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2225</c:v>
                 </c:pt>
@@ -530,6 +539,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7533</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1498,8 +1510,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K8" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:K8" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K9" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:K9" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{BEA871B4-EEE2-4F93-9DBC-4AFC40E06E5F}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{3081B1F4-64BE-4187-A6E1-DC702177CD85}" name="Abstract"/>
@@ -1833,10 +1845,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2146,11 +2158,48 @@
         <v>621</v>
       </c>
     </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B9">
+        <v>239</v>
+      </c>
+      <c r="C9">
+        <v>87</v>
+      </c>
+      <c r="D9">
+        <v>528</v>
+      </c>
+      <c r="E9">
+        <v>7469</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <f>SUM(B9:I9)</f>
+        <v>8344</v>
+      </c>
+      <c r="K9">
+        <f>J9-J8</f>
+        <v>811</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="J2:J8" formulaRange="1"/>
+    <ignoredError sqref="J2:J9" formulaRange="1"/>
     <ignoredError sqref="K2 K8" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="179" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EA6E347A-D688-43FA-A3F2-1A989AA6A322}"/>
+  <xr:revisionPtr revIDLastSave="184" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{04495D7C-FA63-4364-B117-E75A85002285}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
@@ -311,10 +311,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$9</c:f>
+              <c:f>writing!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -338,16 +338,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$K$2:$K$9</c:f>
+              <c:f>writing!$K$2:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -371,6 +374,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>811</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>210</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -482,10 +488,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$9</c:f>
+              <c:f>writing!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -509,16 +515,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$J$2:$J$9</c:f>
+              <c:f>writing!$J$2:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2225</c:v>
                 </c:pt>
@@ -542,6 +551,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8344</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1510,8 +1522,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K9" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:K9" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K10" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:K10" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{BEA871B4-EEE2-4F93-9DBC-4AFC40E06E5F}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{3081B1F4-64BE-4187-A6E1-DC702177CD85}" name="Abstract"/>
@@ -1832,7 +1844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
@@ -1845,10 +1857,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2195,11 +2207,48 @@
         <v>811</v>
       </c>
     </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B10">
+        <v>239</v>
+      </c>
+      <c r="C10">
+        <v>87</v>
+      </c>
+      <c r="D10">
+        <v>528</v>
+      </c>
+      <c r="E10">
+        <v>7638</v>
+      </c>
+      <c r="F10">
+        <v>46</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <f>SUM(B10:I10)</f>
+        <v>8554</v>
+      </c>
+      <c r="K10">
+        <f>J10-J9</f>
+        <v>210</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="J2:J9" formulaRange="1"/>
+    <ignoredError sqref="J2:J10" formulaRange="1"/>
     <ignoredError sqref="K2 K8" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5B4C1AC0-0FDE-4ECF-A2C7-30EB0A398692}"/>
+  <xr:revisionPtr revIDLastSave="184" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{04495D7C-FA63-4364-B117-E75A85002285}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="dashboard" sheetId="3" r:id="rId1"/>
+    <sheet name="writing" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,20 +35,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Document Total</t>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>Acknowledgments</t>
+  </si>
+  <si>
+    <t>Conventions</t>
+  </si>
+  <si>
+    <t>1: Introduction</t>
+  </si>
+  <si>
+    <t>2: Background</t>
+  </si>
+  <si>
+    <t>3: Data &amp; Methods</t>
+  </si>
+  <si>
+    <t>4: Results</t>
+  </si>
+  <si>
+    <t>5: Conclusion</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Daily</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -75,14 +111,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -93,6 +152,1397 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>Writing Progress</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>writing!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Daily</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>writing!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>44130</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44131</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44132</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44138</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>writing!$K$2:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1241</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>763</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1489</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>811</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>210</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-43CA-48CC-BAB2-BC0740F4C54B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="5"/>
+        <c:axId val="582038031"/>
+        <c:axId val="592963871"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>writing!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>writing!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>44130</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44131</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44132</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44138</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>writing!$J$2:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2225</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3239</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4040</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5281</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6044</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7533</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7533</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8344</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8554</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-43CA-48CC-BAB2-BC0740F4C54B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="716951423"/>
+        <c:axId val="714939423"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="582038031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="592963871"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="592963871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:t>words per day</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="582038031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="714939423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:t>total words</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="716951423"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dateAx>
+        <c:axId val="716951423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="714939423"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:dateAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC058E7F-7E39-412B-87BB-BD9ABB4BB559}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K10" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:K10" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{BEA871B4-EEE2-4F93-9DBC-4AFC40E06E5F}" name="Date" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{3081B1F4-64BE-4187-A6E1-DC702177CD85}" name="Abstract"/>
+    <tableColumn id="3" xr3:uid="{DA2DA13C-A841-40A2-B853-0B35F6A9B823}" name="Acknowledgments"/>
+    <tableColumn id="4" xr3:uid="{0BA49765-B7D9-4DB5-A1E4-08F5207B6352}" name="Conventions"/>
+    <tableColumn id="5" xr3:uid="{F82E0ACF-23BB-415C-9848-D5BB5407AF8D}" name="1: Introduction"/>
+    <tableColumn id="6" xr3:uid="{A97AC310-0335-4D8A-AE01-93B6C8297A5D}" name="2: Background"/>
+    <tableColumn id="7" xr3:uid="{DBDA4A9C-3B12-453F-B457-620D99362FF4}" name="3: Data &amp; Methods"/>
+    <tableColumn id="8" xr3:uid="{C2A4C48B-7471-4014-9277-4A1B1EF3B40B}" name="4: Results"/>
+    <tableColumn id="9" xr3:uid="{58756D61-0637-4214-BD00-EE98CC70539C}" name="5: Conclusion"/>
+    <tableColumn id="10" xr3:uid="{457CFC5C-BE64-406D-A9FB-BB2DBEA65B42}" name="Total">
+      <calculatedColumnFormula>SUM(B2:I2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{778E3DE4-F274-4416-84BC-FF498402E770}" name="Daily">
+      <calculatedColumnFormula>J2-J1</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -391,44 +1841,418 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C901B606-0F9C-499E-AEEF-27251EE97F61}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>44097</v>
+        <v>44130</v>
       </c>
       <c r="B2">
-        <v>970</v>
+        <v>243</v>
+      </c>
+      <c r="C2">
+        <v>87</v>
+      </c>
+      <c r="D2">
+        <v>535</v>
+      </c>
+      <c r="E2">
+        <v>1360</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J7" si="0">SUM(B2:I2)</f>
+        <v>2225</v>
+      </c>
+      <c r="K2">
+        <v>1360</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>44098</v>
+        <v>44131</v>
       </c>
       <c r="B3">
-        <v>2724</v>
+        <v>243</v>
+      </c>
+      <c r="C3">
+        <v>87</v>
+      </c>
+      <c r="D3">
+        <v>535</v>
+      </c>
+      <c r="E3">
+        <v>2374</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>3239</v>
+      </c>
+      <c r="K3">
+        <f>J3-J2</f>
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B4">
+        <v>243</v>
+      </c>
+      <c r="C4">
+        <v>87</v>
+      </c>
+      <c r="D4">
+        <v>535</v>
+      </c>
+      <c r="E4">
+        <v>3175</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>4040</v>
+      </c>
+      <c r="K4">
+        <f>J4-J3</f>
+        <v>801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B5">
+        <v>243</v>
+      </c>
+      <c r="C5">
+        <v>87</v>
+      </c>
+      <c r="D5">
+        <v>535</v>
+      </c>
+      <c r="E5">
+        <v>4416</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>5281</v>
+      </c>
+      <c r="K5">
+        <f>J5-J4</f>
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B6">
+        <v>243</v>
+      </c>
+      <c r="C6">
+        <v>87</v>
+      </c>
+      <c r="D6">
+        <v>535</v>
+      </c>
+      <c r="E6">
+        <v>5179</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>6044</v>
+      </c>
+      <c r="K6">
+        <f>J6-J5</f>
+        <v>763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B7">
+        <v>239</v>
+      </c>
+      <c r="C7">
+        <v>87</v>
+      </c>
+      <c r="D7">
+        <v>528</v>
+      </c>
+      <c r="E7">
+        <v>6658</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>7533</v>
+      </c>
+      <c r="K7">
+        <f>J7-J6</f>
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B8">
+        <v>239</v>
+      </c>
+      <c r="C8">
+        <v>87</v>
+      </c>
+      <c r="D8">
+        <v>528</v>
+      </c>
+      <c r="E8">
+        <v>6658</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <f>SUM(B8:I8)</f>
+        <v>7533</v>
+      </c>
+      <c r="K8">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B9">
+        <v>239</v>
+      </c>
+      <c r="C9">
+        <v>87</v>
+      </c>
+      <c r="D9">
+        <v>528</v>
+      </c>
+      <c r="E9">
+        <v>7469</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <f>SUM(B9:I9)</f>
+        <v>8344</v>
+      </c>
+      <c r="K9">
+        <f>J9-J8</f>
+        <v>811</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B10">
+        <v>239</v>
+      </c>
+      <c r="C10">
+        <v>87</v>
+      </c>
+      <c r="D10">
+        <v>528</v>
+      </c>
+      <c r="E10">
+        <v>7638</v>
+      </c>
+      <c r="F10">
+        <v>46</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <f>SUM(B10:I10)</f>
+        <v>8554</v>
+      </c>
+      <c r="K10">
+        <f>J10-J9</f>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="J2:J10" formulaRange="1"/>
+    <ignoredError sqref="K2 K8" calculatedColumn="1"/>
+  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="184" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{04495D7C-FA63-4364-B117-E75A85002285}"/>
+  <xr:revisionPtr revIDLastSave="205" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9634BD7F-F19B-4E7F-8A55-9222A57316F7}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
@@ -32,6 +32,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -311,10 +333,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$10</c:f>
+              <c:f>writing!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -341,16 +363,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>44138</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$K$2:$K$10</c:f>
+              <c:f>writing!$K$2:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -377,6 +402,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -488,10 +516,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$10</c:f>
+              <c:f>writing!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -518,16 +546,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>44138</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$J$2:$J$10</c:f>
+              <c:f>writing!$J$2:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2225</c:v>
                 </c:pt>
@@ -554,6 +585,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>8554</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1522,8 +1556,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K10" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:K10" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K11" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:K11" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{BEA871B4-EEE2-4F93-9DBC-4AFC40E06E5F}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{3081B1F4-64BE-4187-A6E1-DC702177CD85}" name="Abstract"/>
@@ -1844,7 +1878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
@@ -1857,10 +1891,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2244,12 +2278,50 @@
         <v>210</v>
       </c>
     </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B11">
+        <v>239</v>
+      </c>
+      <c r="C11">
+        <v>87</v>
+      </c>
+      <c r="D11">
+        <v>541</v>
+      </c>
+      <c r="E11">
+        <v>7595</v>
+      </c>
+      <c r="F11">
+        <v>46</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <f>SUM(B11:I11)</f>
+        <v>8524</v>
+      </c>
+      <c r="K11" cm="1">
+        <f t="array" ref="K11">SUM(ABS(B11:I11-B10:I10))</f>
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="J2:J10" formulaRange="1"/>
+    <ignoredError sqref="J2:J11" formulaRange="1"/>
     <ignoredError sqref="K2 K8" calculatedColumn="1"/>
+    <ignoredError sqref="K11" formulaRange="1" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="205" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9634BD7F-F19B-4E7F-8A55-9222A57316F7}"/>
+  <xr:revisionPtr revIDLastSave="213" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6465B0AF-6C3F-4759-8BD2-C845926F2907}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
@@ -333,10 +333,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$11</c:f>
+              <c:f>writing!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -366,16 +366,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>44139</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$K$2:$K$11</c:f>
+              <c:f>writing!$K$2:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -405,6 +408,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -516,10 +522,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$11</c:f>
+              <c:f>writing!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -549,16 +555,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>44139</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$J$2:$J$11</c:f>
+              <c:f>writing!$J$2:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2225</c:v>
                 </c:pt>
@@ -588,6 +597,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>8524</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1556,8 +1568,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K11" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:K11" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K12" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:K12" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{BEA871B4-EEE2-4F93-9DBC-4AFC40E06E5F}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{3081B1F4-64BE-4187-A6E1-DC702177CD85}" name="Abstract"/>
@@ -1891,10 +1903,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2315,11 +2327,48 @@
         <v>56</v>
       </c>
     </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B12">
+        <v>239</v>
+      </c>
+      <c r="C12">
+        <v>87</v>
+      </c>
+      <c r="D12">
+        <v>547</v>
+      </c>
+      <c r="E12">
+        <v>7413</v>
+      </c>
+      <c r="F12">
+        <v>297</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <f>SUM(B12:I12)</f>
+        <v>8599</v>
+      </c>
+      <c r="K12">
+        <f>J12-J11</f>
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="J2:J11" formulaRange="1"/>
+    <ignoredError sqref="J2:J12" formulaRange="1"/>
     <ignoredError sqref="K2 K8" calculatedColumn="1"/>
     <ignoredError sqref="K11" formulaRange="1" calculatedColumn="1"/>
   </ignoredErrors>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="213" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6465B0AF-6C3F-4759-8BD2-C845926F2907}"/>
+  <xr:revisionPtr revIDLastSave="222" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D0924E07-EAD0-4B7A-AF4E-272106E2F367}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
@@ -333,10 +333,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$12</c:f>
+              <c:f>writing!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -369,16 +369,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>44142</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$K$2:$K$12</c:f>
+              <c:f>writing!$K$2:$K$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -411,6 +414,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>511</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -522,10 +528,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$12</c:f>
+              <c:f>writing!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -558,16 +564,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>44142</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$J$2:$J$12</c:f>
+              <c:f>writing!$J$2:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2225</c:v>
                 </c:pt>
@@ -600,6 +609,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>8599</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1568,8 +1580,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K12" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:K12" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K13" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:K13" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{BEA871B4-EEE2-4F93-9DBC-4AFC40E06E5F}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{3081B1F4-64BE-4187-A6E1-DC702177CD85}" name="Abstract"/>
@@ -1890,7 +1902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
@@ -1903,10 +1915,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2364,11 +2376,48 @@
         <v>75</v>
       </c>
     </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B13">
+        <v>239</v>
+      </c>
+      <c r="C13">
+        <v>87</v>
+      </c>
+      <c r="D13">
+        <v>547</v>
+      </c>
+      <c r="E13">
+        <v>7413</v>
+      </c>
+      <c r="F13">
+        <v>401</v>
+      </c>
+      <c r="G13">
+        <v>120</v>
+      </c>
+      <c r="H13">
+        <v>117</v>
+      </c>
+      <c r="I13">
+        <v>186</v>
+      </c>
+      <c r="J13">
+        <f>SUM(B13:I13)</f>
+        <v>9110</v>
+      </c>
+      <c r="K13">
+        <f>J13-J12</f>
+        <v>511</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="J2:J12" formulaRange="1"/>
+    <ignoredError sqref="J2:J13" formulaRange="1"/>
     <ignoredError sqref="K2 K8" calculatedColumn="1"/>
     <ignoredError sqref="K11" formulaRange="1" calculatedColumn="1"/>
   </ignoredErrors>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="222" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D0924E07-EAD0-4B7A-AF4E-272106E2F367}"/>
+  <xr:revisionPtr revIDLastSave="226" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{670F7B08-B672-4022-9063-0423C8DA43BD}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
@@ -333,10 +333,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$13</c:f>
+              <c:f>writing!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -372,16 +372,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>44144</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$K$2:$K$13</c:f>
+              <c:f>writing!$K$2:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -417,6 +420,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -528,10 +534,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$13</c:f>
+              <c:f>writing!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -567,16 +573,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>44144</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$J$2:$J$13</c:f>
+              <c:f>writing!$J$2:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2225</c:v>
                 </c:pt>
@@ -611,6 +620,9 @@
                   <c:v>8599</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>9110</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>9110</c:v>
                 </c:pt>
               </c:numCache>
@@ -1580,8 +1592,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K13" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:K13" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K14" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:K14" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{BEA871B4-EEE2-4F93-9DBC-4AFC40E06E5F}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{3081B1F4-64BE-4187-A6E1-DC702177CD85}" name="Abstract"/>
@@ -1902,7 +1914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
@@ -1915,10 +1927,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2221,7 +2233,7 @@
         <v>5</v>
       </c>
       <c r="J8">
-        <f>SUM(B8:I8)</f>
+        <f t="shared" ref="J8:J13" si="1">SUM(B8:I8)</f>
         <v>7533</v>
       </c>
       <c r="K8">
@@ -2257,7 +2269,7 @@
         <v>5</v>
       </c>
       <c r="J9">
-        <f>SUM(B9:I9)</f>
+        <f t="shared" si="1"/>
         <v>8344</v>
       </c>
       <c r="K9">
@@ -2294,7 +2306,7 @@
         <v>5</v>
       </c>
       <c r="J10">
-        <f>SUM(B10:I10)</f>
+        <f t="shared" si="1"/>
         <v>8554</v>
       </c>
       <c r="K10">
@@ -2331,7 +2343,7 @@
         <v>5</v>
       </c>
       <c r="J11">
-        <f>SUM(B11:I11)</f>
+        <f t="shared" si="1"/>
         <v>8524</v>
       </c>
       <c r="K11" cm="1">
@@ -2368,7 +2380,7 @@
         <v>5</v>
       </c>
       <c r="J12">
-        <f>SUM(B12:I12)</f>
+        <f t="shared" si="1"/>
         <v>8599</v>
       </c>
       <c r="K12">
@@ -2405,20 +2417,56 @@
         <v>186</v>
       </c>
       <c r="J13">
-        <f>SUM(B13:I13)</f>
+        <f t="shared" si="1"/>
         <v>9110</v>
       </c>
       <c r="K13">
         <f>J13-J12</f>
         <v>511</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B14">
+        <v>239</v>
+      </c>
+      <c r="C14">
+        <v>87</v>
+      </c>
+      <c r="D14">
+        <v>547</v>
+      </c>
+      <c r="E14">
+        <v>7413</v>
+      </c>
+      <c r="F14">
+        <v>401</v>
+      </c>
+      <c r="G14">
+        <v>120</v>
+      </c>
+      <c r="H14">
+        <v>117</v>
+      </c>
+      <c r="I14">
+        <v>186</v>
+      </c>
+      <c r="J14">
+        <f>SUM(B14:I14)</f>
+        <v>9110</v>
+      </c>
+      <c r="K14">
+        <v>2671</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="J2:J13" formulaRange="1"/>
-    <ignoredError sqref="K2 K8" calculatedColumn="1"/>
+    <ignoredError sqref="J2:J14" formulaRange="1"/>
+    <ignoredError sqref="K2 K8 K14" calculatedColumn="1"/>
     <ignoredError sqref="K11" formulaRange="1" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="226" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{670F7B08-B672-4022-9063-0423C8DA43BD}"/>
+  <xr:revisionPtr revIDLastSave="235" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CE209FE3-A1E1-4FAF-AEC3-FE4A073046ED}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
@@ -333,10 +333,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$14</c:f>
+              <c:f>writing!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -375,16 +375,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44146</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$K$2:$K$14</c:f>
+              <c:f>writing!$K$2:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -423,6 +426,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2671</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -534,10 +540,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$14</c:f>
+              <c:f>writing!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -576,16 +582,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44146</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$J$2:$J$14</c:f>
+              <c:f>writing!$J$2:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>2225</c:v>
                 </c:pt>
@@ -624,6 +633,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>9110</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1592,8 +1604,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K14" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:K14" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K15" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:K15" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{BEA871B4-EEE2-4F93-9DBC-4AFC40E06E5F}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{3081B1F4-64BE-4187-A6E1-DC702177CD85}" name="Abstract"/>
@@ -1914,7 +1926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
@@ -1927,10 +1939,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2461,6 +2473,43 @@
         <v>2671</v>
       </c>
     </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>44150</v>
+      </c>
+      <c r="B15">
+        <v>239</v>
+      </c>
+      <c r="C15">
+        <v>87</v>
+      </c>
+      <c r="D15">
+        <v>547</v>
+      </c>
+      <c r="E15">
+        <v>7413</v>
+      </c>
+      <c r="F15">
+        <v>577</v>
+      </c>
+      <c r="G15">
+        <v>120</v>
+      </c>
+      <c r="H15">
+        <v>117</v>
+      </c>
+      <c r="I15">
+        <v>186</v>
+      </c>
+      <c r="J15">
+        <f>SUM(B15:I15)</f>
+        <v>9286</v>
+      </c>
+      <c r="K15">
+        <f>J15-J14</f>
+        <v>176</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="235" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CE209FE3-A1E1-4FAF-AEC3-FE4A073046ED}"/>
+  <xr:revisionPtr revIDLastSave="236" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{333D3BAD-AA71-407D-AEAF-D5722F016E44}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
@@ -428,7 +428,7 @@
                   <c:v>2671</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>176</c:v>
+                  <c:v>577</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1926,7 +1926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
@@ -1941,8 +1941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2506,16 +2506,15 @@
         <v>9286</v>
       </c>
       <c r="K15">
-        <f>J15-J14</f>
-        <v>176</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="J2:J14" formulaRange="1"/>
-    <ignoredError sqref="K2 K8 K14" calculatedColumn="1"/>
+    <ignoredError sqref="J2:J15" formulaRange="1"/>
+    <ignoredError sqref="K2 K8 K14:K15" calculatedColumn="1"/>
     <ignoredError sqref="K11" formulaRange="1" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="236" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{333D3BAD-AA71-407D-AEAF-D5722F016E44}"/>
+  <xr:revisionPtr revIDLastSave="245" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{19145016-7AFC-4876-BE6D-82E6B686283D}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
@@ -333,10 +333,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$15</c:f>
+              <c:f>writing!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -378,16 +378,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$K$2:$K$15</c:f>
+              <c:f>writing!$K$2:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -429,6 +432,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -540,10 +546,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$15</c:f>
+              <c:f>writing!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -585,16 +591,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$J$2:$J$15</c:f>
+              <c:f>writing!$J$2:$J$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>2225</c:v>
                 </c:pt>
@@ -636,6 +645,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>9286</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1604,8 +1616,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K15" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:K15" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K16" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:K16" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{BEA871B4-EEE2-4F93-9DBC-4AFC40E06E5F}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{3081B1F4-64BE-4187-A6E1-DC702177CD85}" name="Abstract"/>
@@ -1939,10 +1951,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2509,11 +2521,48 @@
         <v>577</v>
       </c>
     </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B16">
+        <v>236</v>
+      </c>
+      <c r="C16">
+        <v>87</v>
+      </c>
+      <c r="D16">
+        <v>516</v>
+      </c>
+      <c r="E16">
+        <v>7413</v>
+      </c>
+      <c r="F16">
+        <v>1949</v>
+      </c>
+      <c r="G16">
+        <v>120</v>
+      </c>
+      <c r="H16">
+        <v>117</v>
+      </c>
+      <c r="I16">
+        <v>186</v>
+      </c>
+      <c r="J16">
+        <f>SUM(B16:I16)</f>
+        <v>10624</v>
+      </c>
+      <c r="K16">
+        <f>J16-J15</f>
+        <v>1338</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="J2:J15" formulaRange="1"/>
+    <ignoredError sqref="J2:J16" formulaRange="1"/>
     <ignoredError sqref="K2 K8 K14:K15" calculatedColumn="1"/>
     <ignoredError sqref="K11" formulaRange="1" calculatedColumn="1"/>
   </ignoredErrors>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="245" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{19145016-7AFC-4876-BE6D-82E6B686283D}"/>
+  <xr:revisionPtr revIDLastSave="260" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C99FD499-BA1A-4BA1-A912-A75C361B8E51}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
@@ -333,10 +333,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$16</c:f>
+              <c:f>writing!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -371,15 +371,21 @@
                   <c:v>44142</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>44143</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>44144</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
+                  <c:v>44145</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44146</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>44150</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>44151</c:v>
                 </c:pt>
               </c:numCache>
@@ -387,10 +393,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$K$2:$K$16</c:f>
+              <c:f>writing!$K$2:$K$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -425,15 +431,21 @@
                   <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>843</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>511</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>2671</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>577</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>1338</c:v>
                 </c:pt>
               </c:numCache>
@@ -546,10 +558,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$16</c:f>
+              <c:f>writing!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -584,15 +596,21 @@
                   <c:v>44142</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>44143</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>44144</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
+                  <c:v>44145</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44146</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>44150</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>44151</c:v>
                 </c:pt>
               </c:numCache>
@@ -600,10 +618,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$J$2:$J$16</c:f>
+              <c:f>writing!$J$2:$J$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2225</c:v>
                 </c:pt>
@@ -638,15 +656,21 @@
                   <c:v>8599</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9110</c:v>
+                  <c:v>8599</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>9110</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>9110</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9110</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>9286</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>10624</c:v>
                 </c:pt>
               </c:numCache>
@@ -1616,8 +1640,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K16" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:K16" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K18" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:K18" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K18">
+    <sortCondition ref="A1:A18"/>
+  </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{BEA871B4-EEE2-4F93-9DBC-4AFC40E06E5F}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{3081B1F4-64BE-4187-A6E1-DC702177CD85}" name="Abstract"/>
@@ -1951,10 +1978,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2036,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J7" si="0">SUM(B2:I2)</f>
+        <f>SUM(B2:I2)</f>
         <v>2225</v>
       </c>
       <c r="K2">
@@ -2072,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" si="0"/>
+        <f>SUM(B3:I3)</f>
         <v>3239</v>
       </c>
       <c r="K3">
@@ -2109,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
+        <f>SUM(B4:I4)</f>
         <v>4040</v>
       </c>
       <c r="K4">
@@ -2146,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
+        <f>SUM(B5:I5)</f>
         <v>5281</v>
       </c>
       <c r="K5">
@@ -2183,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
+        <f>SUM(B6:I6)</f>
         <v>6044</v>
       </c>
       <c r="K6">
@@ -2220,7 +2247,7 @@
         <v>5</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
+        <f>SUM(B7:I7)</f>
         <v>7533</v>
       </c>
       <c r="K7">
@@ -2257,7 +2284,7 @@
         <v>5</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:J13" si="1">SUM(B8:I8)</f>
+        <f>SUM(B8:I8)</f>
         <v>7533</v>
       </c>
       <c r="K8">
@@ -2293,7 +2320,7 @@
         <v>5</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
+        <f>SUM(B9:I9)</f>
         <v>8344</v>
       </c>
       <c r="K9">
@@ -2330,7 +2357,7 @@
         <v>5</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
+        <f>SUM(B10:I10)</f>
         <v>8554</v>
       </c>
       <c r="K10">
@@ -2367,7 +2394,7 @@
         <v>5</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f>SUM(B11:I11)</f>
         <v>8524</v>
       </c>
       <c r="K11" cm="1">
@@ -2404,7 +2431,7 @@
         <v>5</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
+        <f>SUM(B12:I12)</f>
         <v>8599</v>
       </c>
       <c r="K12">
@@ -2414,7 +2441,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>44144</v>
+        <v>44143</v>
       </c>
       <c r="B13">
         <v>239</v>
@@ -2429,29 +2456,28 @@
         <v>7413</v>
       </c>
       <c r="F13">
-        <v>401</v>
+        <v>297</v>
       </c>
       <c r="G13">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="H13">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="I13">
-        <v>186</v>
+        <v>5</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
-        <v>9110</v>
+        <f>SUM(B13:I13)</f>
+        <v>8599</v>
       </c>
       <c r="K13">
-        <f>J13-J12</f>
-        <v>511</v>
+        <v>584</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>44146</v>
+        <v>44144</v>
       </c>
       <c r="B14">
         <v>239</v>
@@ -2482,27 +2508,27 @@
         <v>9110</v>
       </c>
       <c r="K14">
-        <v>2671</v>
+        <v>843</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>44150</v>
+        <v>44145</v>
       </c>
       <c r="B15">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C15">
         <v>87</v>
       </c>
       <c r="D15">
-        <v>547</v>
+        <v>516</v>
       </c>
       <c r="E15">
         <v>7413</v>
       </c>
       <c r="F15">
-        <v>577</v>
+        <v>1949</v>
       </c>
       <c r="G15">
         <v>120</v>
@@ -2514,31 +2540,30 @@
         <v>186</v>
       </c>
       <c r="J15">
-        <f>SUM(B15:I15)</f>
-        <v>9286</v>
+        <v>9110</v>
       </c>
       <c r="K15">
-        <v>577</v>
+        <v>511</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>44151</v>
+        <v>44146</v>
       </c>
       <c r="B16">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C16">
         <v>87</v>
       </c>
       <c r="D16">
-        <v>516</v>
+        <v>547</v>
       </c>
       <c r="E16">
         <v>7413</v>
       </c>
       <c r="F16">
-        <v>1949</v>
+        <v>401</v>
       </c>
       <c r="G16">
         <v>120</v>
@@ -2551,21 +2576,88 @@
       </c>
       <c r="J16">
         <f>SUM(B16:I16)</f>
+        <v>9110</v>
+      </c>
+      <c r="K16">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>44150</v>
+      </c>
+      <c r="B17">
+        <v>239</v>
+      </c>
+      <c r="C17">
+        <v>87</v>
+      </c>
+      <c r="D17">
+        <v>547</v>
+      </c>
+      <c r="E17">
+        <v>7413</v>
+      </c>
+      <c r="F17">
+        <v>577</v>
+      </c>
+      <c r="G17">
+        <v>120</v>
+      </c>
+      <c r="H17">
+        <v>117</v>
+      </c>
+      <c r="I17">
+        <v>186</v>
+      </c>
+      <c r="J17">
+        <f>SUM(B17:I17)</f>
+        <v>9286</v>
+      </c>
+      <c r="K17">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B18">
+        <v>236</v>
+      </c>
+      <c r="C18">
+        <v>87</v>
+      </c>
+      <c r="D18">
+        <v>516</v>
+      </c>
+      <c r="E18">
+        <v>7413</v>
+      </c>
+      <c r="F18">
+        <v>1949</v>
+      </c>
+      <c r="G18">
+        <v>120</v>
+      </c>
+      <c r="H18">
+        <v>117</v>
+      </c>
+      <c r="I18">
+        <v>186</v>
+      </c>
+      <c r="J18">
+        <f>SUM(B18:I18)</f>
         <v>10624</v>
       </c>
-      <c r="K16">
-        <f>J16-J15</f>
+      <c r="K18">
+        <f>J18-J17</f>
         <v>1338</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="J2:J16" formulaRange="1"/>
-    <ignoredError sqref="K2 K8 K14:K15" calculatedColumn="1"/>
-    <ignoredError sqref="K11" formulaRange="1" calculatedColumn="1"/>
-  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="260" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C99FD499-BA1A-4BA1-A912-A75C361B8E51}"/>
+  <xr:revisionPtr revIDLastSave="267" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F52D5DCD-C9F1-4259-AABC-CA860BA63E15}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
     <sheet name="writing" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -333,10 +333,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$18</c:f>
+              <c:f>writing!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -387,16 +387,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$K$2:$K$18</c:f>
+              <c:f>writing!$K$2:$K$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -447,6 +450,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1338</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -558,10 +564,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$18</c:f>
+              <c:f>writing!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -612,16 +618,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$J$2:$J$18</c:f>
+              <c:f>writing!$J$2:$J$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2225</c:v>
                 </c:pt>
@@ -672,6 +681,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>10624</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1640,8 +1652,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K18" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:K18" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K19" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:K19" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -1965,7 +1977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
@@ -1978,10 +1990,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2063,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <f>SUM(B2:I2)</f>
+        <f t="shared" ref="J2:J14" si="0">SUM(B2:I2)</f>
         <v>2225</v>
       </c>
       <c r="K2">
@@ -2099,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <f>SUM(B3:I3)</f>
+        <f t="shared" si="0"/>
         <v>3239</v>
       </c>
       <c r="K3">
@@ -2136,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <f>SUM(B4:I4)</f>
+        <f t="shared" si="0"/>
         <v>4040</v>
       </c>
       <c r="K4">
@@ -2173,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <f>SUM(B5:I5)</f>
+        <f t="shared" si="0"/>
         <v>5281</v>
       </c>
       <c r="K5">
@@ -2210,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <f>SUM(B6:I6)</f>
+        <f t="shared" si="0"/>
         <v>6044</v>
       </c>
       <c r="K6">
@@ -2247,7 +2259,7 @@
         <v>5</v>
       </c>
       <c r="J7">
-        <f>SUM(B7:I7)</f>
+        <f t="shared" si="0"/>
         <v>7533</v>
       </c>
       <c r="K7">
@@ -2284,7 +2296,7 @@
         <v>5</v>
       </c>
       <c r="J8">
-        <f>SUM(B8:I8)</f>
+        <f t="shared" si="0"/>
         <v>7533</v>
       </c>
       <c r="K8">
@@ -2320,7 +2332,7 @@
         <v>5</v>
       </c>
       <c r="J9">
-        <f>SUM(B9:I9)</f>
+        <f t="shared" si="0"/>
         <v>8344</v>
       </c>
       <c r="K9">
@@ -2357,7 +2369,7 @@
         <v>5</v>
       </c>
       <c r="J10">
-        <f>SUM(B10:I10)</f>
+        <f t="shared" si="0"/>
         <v>8554</v>
       </c>
       <c r="K10">
@@ -2394,7 +2406,7 @@
         <v>5</v>
       </c>
       <c r="J11">
-        <f>SUM(B11:I11)</f>
+        <f t="shared" si="0"/>
         <v>8524</v>
       </c>
       <c r="K11" cm="1">
@@ -2431,7 +2443,7 @@
         <v>5</v>
       </c>
       <c r="J12">
-        <f>SUM(B12:I12)</f>
+        <f t="shared" si="0"/>
         <v>8599</v>
       </c>
       <c r="K12">
@@ -2468,7 +2480,7 @@
         <v>5</v>
       </c>
       <c r="J13">
-        <f>SUM(B13:I13)</f>
+        <f t="shared" si="0"/>
         <v>8599</v>
       </c>
       <c r="K13">
@@ -2504,7 +2516,7 @@
         <v>186</v>
       </c>
       <c r="J14">
-        <f>SUM(B14:I14)</f>
+        <f t="shared" si="0"/>
         <v>9110</v>
       </c>
       <c r="K14">
@@ -2653,6 +2665,43 @@
       <c r="K18">
         <f>J18-J17</f>
         <v>1338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B19">
+        <v>236</v>
+      </c>
+      <c r="C19">
+        <v>87</v>
+      </c>
+      <c r="D19">
+        <v>516</v>
+      </c>
+      <c r="E19">
+        <v>7413</v>
+      </c>
+      <c r="F19">
+        <v>2284</v>
+      </c>
+      <c r="G19">
+        <v>120</v>
+      </c>
+      <c r="H19">
+        <v>117</v>
+      </c>
+      <c r="I19">
+        <v>186</v>
+      </c>
+      <c r="J19">
+        <f>SUM(B19:I19)</f>
+        <v>10959</v>
+      </c>
+      <c r="K19">
+        <f>J19-J18</f>
+        <v>335</v>
       </c>
     </row>
   </sheetData>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="267" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F52D5DCD-C9F1-4259-AABC-CA860BA63E15}"/>
+  <xr:revisionPtr revIDLastSave="276" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C40B6262-C849-4A87-9819-8DD88EEC53FC}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
     <sheet name="writing" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -333,10 +333,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$19</c:f>
+              <c:f>writing!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -390,16 +390,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$K$2:$K$19</c:f>
+              <c:f>writing!$K$2:$K$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -453,6 +456,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>939</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -564,10 +570,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$19</c:f>
+              <c:f>writing!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -621,16 +627,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$J$2:$J$19</c:f>
+              <c:f>writing!$J$2:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>2225</c:v>
                 </c:pt>
@@ -684,6 +693,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>10959</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1652,8 +1664,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K19" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:K19" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K20" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:K20" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -1990,10 +2002,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2704,6 +2716,43 @@
         <v>335</v>
       </c>
     </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B20">
+        <v>236</v>
+      </c>
+      <c r="C20">
+        <v>87</v>
+      </c>
+      <c r="D20">
+        <v>516</v>
+      </c>
+      <c r="E20">
+        <v>7413</v>
+      </c>
+      <c r="F20">
+        <v>3223</v>
+      </c>
+      <c r="G20">
+        <v>120</v>
+      </c>
+      <c r="H20">
+        <v>117</v>
+      </c>
+      <c r="I20">
+        <v>186</v>
+      </c>
+      <c r="J20">
+        <f>SUM(B20:I20)</f>
+        <v>11898</v>
+      </c>
+      <c r="K20">
+        <f>J20-J19</f>
+        <v>939</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="276" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C40B6262-C849-4A87-9819-8DD88EEC53FC}"/>
+  <xr:revisionPtr revIDLastSave="277" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4B4ECAAC-7089-48F3-9BDF-31308A74B220}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
@@ -458,7 +458,7 @@
                   <c:v>335</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>939</c:v>
+                  <c:v>999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -695,7 +695,7 @@
                   <c:v>10959</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11898</c:v>
+                  <c:v>11958</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1989,7 +1989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
@@ -2004,8 +2004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2733,7 +2733,7 @@
         <v>7413</v>
       </c>
       <c r="F20">
-        <v>3223</v>
+        <v>3283</v>
       </c>
       <c r="G20">
         <v>120</v>
@@ -2746,11 +2746,11 @@
       </c>
       <c r="J20">
         <f>SUM(B20:I20)</f>
-        <v>11898</v>
+        <v>11958</v>
       </c>
       <c r="K20">
         <f>J20-J19</f>
-        <v>939</v>
+        <v>999</v>
       </c>
     </row>
   </sheetData>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="277" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4B4ECAAC-7089-48F3-9BDF-31308A74B220}"/>
+  <xr:revisionPtr revIDLastSave="286" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{580A1A01-A29A-41AC-8FB1-C94E97B7ADCC}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
     <sheet name="writing" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -333,10 +333,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$20</c:f>
+              <c:f>writing!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -393,16 +393,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$K$2:$K$20</c:f>
+              <c:f>writing!$K$2:$K$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -459,6 +462,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -570,10 +576,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$20</c:f>
+              <c:f>writing!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -630,16 +636,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$J$2:$J$20</c:f>
+              <c:f>writing!$J$2:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>2225</c:v>
                 </c:pt>
@@ -696,6 +705,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>11958</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1664,8 +1676,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K20" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:K20" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K21" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:K21" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -2002,10 +2014,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2753,6 +2765,43 @@
         <v>999</v>
       </c>
     </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>44154</v>
+      </c>
+      <c r="B21">
+        <v>236</v>
+      </c>
+      <c r="C21">
+        <v>87</v>
+      </c>
+      <c r="D21">
+        <v>516</v>
+      </c>
+      <c r="E21">
+        <v>7413</v>
+      </c>
+      <c r="F21">
+        <v>3339</v>
+      </c>
+      <c r="G21">
+        <v>120</v>
+      </c>
+      <c r="H21">
+        <v>117</v>
+      </c>
+      <c r="I21">
+        <v>186</v>
+      </c>
+      <c r="J21">
+        <f>SUM(B21:I21)</f>
+        <v>12014</v>
+      </c>
+      <c r="K21">
+        <f>J21-J20</f>
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="286" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{580A1A01-A29A-41AC-8FB1-C94E97B7ADCC}"/>
+  <xr:revisionPtr revIDLastSave="318" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ADCB6214-978D-46CB-9DC1-220AAAF39DB3}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
     <sheet name="writing" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -333,10 +333,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$21</c:f>
+              <c:f>writing!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -396,16 +396,25 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$K$2:$K$21</c:f>
+              <c:f>writing!$K$2:$K$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -465,13 +474,22 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1136</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>467</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-43CA-48CC-BAB2-BC0740F4C54B}"/>
+              <c16:uniqueId val="{00000000-7415-4A85-8004-99D6E505098C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -576,10 +594,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$21</c:f>
+              <c:f>writing!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -639,16 +657,25 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$J$2:$J$21</c:f>
+              <c:f>writing!$J$2:$J$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>2225</c:v>
                 </c:pt>
@@ -708,6 +735,15 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>12014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13150</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13829</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -715,7 +751,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-43CA-48CC-BAB2-BC0740F4C54B}"/>
+              <c16:uniqueId val="{00000001-7415-4A85-8004-99D6E505098C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1645,14 +1681,14 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>195262</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC058E7F-7E39-412B-87BB-BD9ABB4BB559}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2688EB1-1F21-4955-9B3B-F35A81E6A042}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1676,8 +1712,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K21" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:K21" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K24" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:K24" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -2001,8 +2037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2014,25 +2050,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -2611,7 +2646,7 @@
         <v>186</v>
       </c>
       <c r="J16">
-        <f>SUM(B16:I16)</f>
+        <f t="shared" ref="J16:J21" si="1">SUM(B16:I16)</f>
         <v>9110</v>
       </c>
       <c r="K16">
@@ -2647,7 +2682,7 @@
         <v>186</v>
       </c>
       <c r="J17">
-        <f>SUM(B17:I17)</f>
+        <f t="shared" si="1"/>
         <v>9286</v>
       </c>
       <c r="K17">
@@ -2683,11 +2718,11 @@
         <v>186</v>
       </c>
       <c r="J18">
-        <f>SUM(B18:I18)</f>
+        <f t="shared" si="1"/>
         <v>10624</v>
       </c>
       <c r="K18">
-        <f>J18-J17</f>
+        <f t="shared" ref="K18:K23" si="2">J18-J17</f>
         <v>1338</v>
       </c>
     </row>
@@ -2720,11 +2755,11 @@
         <v>186</v>
       </c>
       <c r="J19">
-        <f>SUM(B19:I19)</f>
+        <f t="shared" si="1"/>
         <v>10959</v>
       </c>
       <c r="K19">
-        <f>J19-J18</f>
+        <f t="shared" si="2"/>
         <v>335</v>
       </c>
     </row>
@@ -2757,11 +2792,11 @@
         <v>186</v>
       </c>
       <c r="J20">
-        <f>SUM(B20:I20)</f>
+        <f t="shared" si="1"/>
         <v>11958</v>
       </c>
       <c r="K20">
-        <f>J20-J19</f>
+        <f t="shared" si="2"/>
         <v>999</v>
       </c>
     </row>
@@ -2794,12 +2829,123 @@
         <v>186</v>
       </c>
       <c r="J21">
-        <f>SUM(B21:I21)</f>
+        <f t="shared" si="1"/>
         <v>12014</v>
       </c>
       <c r="K21">
-        <f>J21-J20</f>
+        <f t="shared" si="2"/>
         <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B22">
+        <v>236</v>
+      </c>
+      <c r="C22">
+        <v>87</v>
+      </c>
+      <c r="D22">
+        <v>516</v>
+      </c>
+      <c r="E22">
+        <v>7413</v>
+      </c>
+      <c r="F22">
+        <v>4475</v>
+      </c>
+      <c r="G22">
+        <v>120</v>
+      </c>
+      <c r="H22">
+        <v>117</v>
+      </c>
+      <c r="I22">
+        <v>186</v>
+      </c>
+      <c r="J22">
+        <f>SUM(B22:I22)</f>
+        <v>13150</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>44156</v>
+      </c>
+      <c r="B23">
+        <v>236</v>
+      </c>
+      <c r="C23">
+        <v>87</v>
+      </c>
+      <c r="D23">
+        <v>516</v>
+      </c>
+      <c r="E23">
+        <v>7413</v>
+      </c>
+      <c r="F23">
+        <v>5154</v>
+      </c>
+      <c r="G23">
+        <v>120</v>
+      </c>
+      <c r="H23">
+        <v>117</v>
+      </c>
+      <c r="I23">
+        <v>186</v>
+      </c>
+      <c r="J23">
+        <f>SUM(B23:I23)</f>
+        <v>13829</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>679</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>44157</v>
+      </c>
+      <c r="B24">
+        <v>236</v>
+      </c>
+      <c r="C24">
+        <v>87</v>
+      </c>
+      <c r="D24">
+        <v>516</v>
+      </c>
+      <c r="E24">
+        <v>7413</v>
+      </c>
+      <c r="F24">
+        <v>5621</v>
+      </c>
+      <c r="G24">
+        <v>120</v>
+      </c>
+      <c r="H24">
+        <v>117</v>
+      </c>
+      <c r="I24">
+        <v>186</v>
+      </c>
+      <c r="J24">
+        <f>SUM(B24:I24)</f>
+        <v>14296</v>
+      </c>
+      <c r="K24">
+        <f>J24-J23</f>
+        <v>467</v>
       </c>
     </row>
   </sheetData>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="318" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ADCB6214-978D-46CB-9DC1-220AAAF39DB3}"/>
+  <xr:revisionPtr revIDLastSave="321" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C41E2163-B159-4553-961A-06AF14C5ACC2}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
     <sheet name="writing" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -482,7 +482,7 @@
                   <c:v>679</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>467</c:v>
+                  <c:v>1822</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -743,7 +743,7 @@
                   <c:v>13829</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>14296</c:v>
+                  <c:v>15651</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2037,7 +2037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
@@ -2052,8 +2052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2925,10 +2925,10 @@
         <v>516</v>
       </c>
       <c r="E24">
-        <v>7413</v>
+        <v>7461</v>
       </c>
       <c r="F24">
-        <v>5621</v>
+        <v>6928</v>
       </c>
       <c r="G24">
         <v>120</v>
@@ -2941,11 +2941,11 @@
       </c>
       <c r="J24">
         <f>SUM(B24:I24)</f>
-        <v>14296</v>
+        <v>15651</v>
       </c>
       <c r="K24">
         <f>J24-J23</f>
-        <v>467</v>
+        <v>1822</v>
       </c>
     </row>
   </sheetData>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="321" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C41E2163-B159-4553-961A-06AF14C5ACC2}"/>
+  <xr:revisionPtr revIDLastSave="335" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{01BCFF38-A078-4402-A560-BBF6CEE25074}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
     <sheet name="writing" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -303,7 +303,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="inBase"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -333,10 +333,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$24</c:f>
+              <c:f>writing!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -405,16 +405,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$K$2:$K$24</c:f>
+              <c:f>writing!$K$2:$K$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -483,6 +486,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1822</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -543,7 +549,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="2700000" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -594,10 +600,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$24</c:f>
+              <c:f>writing!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -666,16 +672,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$J$2:$J$24</c:f>
+              <c:f>writing!$J$2:$J$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>2225</c:v>
                 </c:pt>
@@ -744,6 +753,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>15651</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1712,8 +1724,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K24" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:K24" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K25" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:K25" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -2038,7 +2050,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2050,10 +2062,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2948,6 +2960,43 @@
         <v>1822</v>
       </c>
     </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>44158</v>
+      </c>
+      <c r="B25">
+        <v>236</v>
+      </c>
+      <c r="C25">
+        <v>87</v>
+      </c>
+      <c r="D25">
+        <v>516</v>
+      </c>
+      <c r="E25">
+        <v>7461</v>
+      </c>
+      <c r="F25">
+        <v>7084</v>
+      </c>
+      <c r="G25">
+        <v>120</v>
+      </c>
+      <c r="H25">
+        <v>117</v>
+      </c>
+      <c r="I25">
+        <v>186</v>
+      </c>
+      <c r="J25">
+        <f>SUM(B25:I25)</f>
+        <v>15807</v>
+      </c>
+      <c r="K25">
+        <f>J25-J24</f>
+        <v>156</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="335" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{01BCFF38-A078-4402-A560-BBF6CEE25074}"/>
+  <xr:revisionPtr revIDLastSave="346" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4D2B4C77-FA2E-425A-A441-EA74D41AB4E9}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
     <sheet name="writing" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -333,10 +333,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$25</c:f>
+              <c:f>writing!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -408,16 +408,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$K$2:$K$25</c:f>
+              <c:f>writing!$K$2:$K$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -489,6 +492,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -600,10 +606,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$25</c:f>
+              <c:f>writing!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -675,16 +681,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$J$2:$J$25</c:f>
+              <c:f>writing!$J$2:$J$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>2225</c:v>
                 </c:pt>
@@ -756,6 +765,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>15807</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1724,8 +1736,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K25" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:K25" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K26" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:K26" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -2062,10 +2074,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2997,6 +3009,43 @@
         <v>156</v>
       </c>
     </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B26">
+        <v>236</v>
+      </c>
+      <c r="C26">
+        <v>87</v>
+      </c>
+      <c r="D26">
+        <v>516</v>
+      </c>
+      <c r="E26">
+        <v>7486</v>
+      </c>
+      <c r="F26">
+        <v>7980</v>
+      </c>
+      <c r="G26">
+        <v>120</v>
+      </c>
+      <c r="H26">
+        <v>117</v>
+      </c>
+      <c r="I26">
+        <v>186</v>
+      </c>
+      <c r="J26">
+        <f>SUM(B26:I26)</f>
+        <v>16728</v>
+      </c>
+      <c r="K26">
+        <f>J26-J25</f>
+        <v>921</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="346" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4D2B4C77-FA2E-425A-A441-EA74D41AB4E9}"/>
+  <xr:revisionPtr revIDLastSave="348" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2DA6EC75-BFCE-4B59-B9E6-84310721E0DD}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
@@ -494,7 +494,7 @@
                   <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>921</c:v>
+                  <c:v>1628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -767,7 +767,7 @@
                   <c:v>15807</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>16728</c:v>
+                  <c:v>17435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3023,10 +3023,10 @@
         <v>516</v>
       </c>
       <c r="E26">
-        <v>7486</v>
+        <v>7562</v>
       </c>
       <c r="F26">
-        <v>7980</v>
+        <v>8611</v>
       </c>
       <c r="G26">
         <v>120</v>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="J26">
         <f>SUM(B26:I26)</f>
-        <v>16728</v>
+        <v>17435</v>
       </c>
       <c r="K26">
         <f>J26-J25</f>
-        <v>921</v>
+        <v>1628</v>
       </c>
     </row>
   </sheetData>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="348" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2DA6EC75-BFCE-4B59-B9E6-84310721E0DD}"/>
+  <xr:revisionPtr revIDLastSave="355" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6C38684D-0504-41CF-A652-570BFBB053E4}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
@@ -333,10 +333,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$26</c:f>
+              <c:f>writing!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -411,16 +411,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$K$2:$K$26</c:f>
+              <c:f>writing!$K$2:$K$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -495,6 +498,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1628</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -606,10 +612,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$26</c:f>
+              <c:f>writing!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -684,16 +690,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$J$2:$J$26</c:f>
+              <c:f>writing!$J$2:$J$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>2225</c:v>
                 </c:pt>
@@ -768,6 +777,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>17435</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18340</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1736,8 +1748,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K26" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:K26" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K27" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:K27" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -2061,7 +2073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
@@ -2074,10 +2086,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2890,7 +2902,7 @@
         <v>186</v>
       </c>
       <c r="J22">
-        <f>SUM(B22:I22)</f>
+        <f t="shared" ref="J22:J27" si="3">SUM(B22:I22)</f>
         <v>13150</v>
       </c>
       <c r="K22">
@@ -2927,7 +2939,7 @@
         <v>186</v>
       </c>
       <c r="J23">
-        <f>SUM(B23:I23)</f>
+        <f t="shared" si="3"/>
         <v>13829</v>
       </c>
       <c r="K23">
@@ -2964,7 +2976,7 @@
         <v>186</v>
       </c>
       <c r="J24">
-        <f>SUM(B24:I24)</f>
+        <f t="shared" si="3"/>
         <v>15651</v>
       </c>
       <c r="K24">
@@ -3001,7 +3013,7 @@
         <v>186</v>
       </c>
       <c r="J25">
-        <f>SUM(B25:I25)</f>
+        <f t="shared" si="3"/>
         <v>15807</v>
       </c>
       <c r="K25">
@@ -3038,12 +3050,49 @@
         <v>186</v>
       </c>
       <c r="J26">
-        <f>SUM(B26:I26)</f>
+        <f t="shared" si="3"/>
         <v>17435</v>
       </c>
       <c r="K26">
         <f>J26-J25</f>
         <v>1628</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B27">
+        <v>236</v>
+      </c>
+      <c r="C27">
+        <v>87</v>
+      </c>
+      <c r="D27">
+        <v>516</v>
+      </c>
+      <c r="E27">
+        <v>7562</v>
+      </c>
+      <c r="F27">
+        <v>9516</v>
+      </c>
+      <c r="G27">
+        <v>120</v>
+      </c>
+      <c r="H27">
+        <v>117</v>
+      </c>
+      <c r="I27">
+        <v>186</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>18340</v>
+      </c>
+      <c r="K27">
+        <f>J27-J26</f>
+        <v>905</v>
       </c>
     </row>
   </sheetData>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="355" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6C38684D-0504-41CF-A652-570BFBB053E4}"/>
+  <xr:revisionPtr revIDLastSave="359" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7992D86C-494C-48D6-91A2-8C93EB7361EC}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
@@ -333,10 +333,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$27</c:f>
+              <c:f>writing!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -414,16 +414,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$K$2:$K$27</c:f>
+              <c:f>writing!$K$2:$K$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -501,6 +504,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>905</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -612,10 +618,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$27</c:f>
+              <c:f>writing!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -693,16 +699,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$J$2:$J$27</c:f>
+              <c:f>writing!$J$2:$J$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2225</c:v>
                 </c:pt>
@@ -780,6 +789,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>18340</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1748,8 +1760,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K27" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:K27" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K28" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:K28" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -2073,7 +2085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
@@ -2086,10 +2098,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3095,6 +3107,43 @@
         <v>905</v>
       </c>
     </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B28">
+        <v>236</v>
+      </c>
+      <c r="C28">
+        <v>87</v>
+      </c>
+      <c r="D28">
+        <v>516</v>
+      </c>
+      <c r="E28">
+        <v>7562</v>
+      </c>
+      <c r="F28">
+        <v>9719</v>
+      </c>
+      <c r="G28">
+        <v>120</v>
+      </c>
+      <c r="H28">
+        <v>117</v>
+      </c>
+      <c r="I28">
+        <v>186</v>
+      </c>
+      <c r="J28">
+        <f>SUM(B28:I28)</f>
+        <v>18543</v>
+      </c>
+      <c r="K28">
+        <f>J28-J27</f>
+        <v>203</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="359" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7992D86C-494C-48D6-91A2-8C93EB7361EC}"/>
+  <xr:revisionPtr revIDLastSave="363" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EE3303C7-2B05-42FB-9405-41C5EF731496}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
     <sheet name="writing" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -333,10 +333,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$28</c:f>
+              <c:f>writing!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -417,16 +417,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$K$2:$K$28</c:f>
+              <c:f>writing!$K$2:$K$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -507,6 +510,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>362</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -618,10 +624,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$28</c:f>
+              <c:f>writing!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -702,16 +708,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$J$2:$J$28</c:f>
+              <c:f>writing!$J$2:$J$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>2225</c:v>
                 </c:pt>
@@ -792,6 +801,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>18543</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1760,8 +1772,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K28" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:K28" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K29" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:K29" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -2085,7 +2097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
@@ -2098,10 +2110,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3144,6 +3156,43 @@
         <v>203</v>
       </c>
     </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>44162</v>
+      </c>
+      <c r="B29">
+        <v>236</v>
+      </c>
+      <c r="C29">
+        <v>87</v>
+      </c>
+      <c r="D29">
+        <v>516</v>
+      </c>
+      <c r="E29">
+        <v>7562</v>
+      </c>
+      <c r="F29">
+        <v>10081</v>
+      </c>
+      <c r="G29">
+        <v>120</v>
+      </c>
+      <c r="H29">
+        <v>117</v>
+      </c>
+      <c r="I29">
+        <v>186</v>
+      </c>
+      <c r="J29">
+        <f>SUM(B29:I29)</f>
+        <v>18905</v>
+      </c>
+      <c r="K29">
+        <f>J29-J28</f>
+        <v>362</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="363" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EE3303C7-2B05-42FB-9405-41C5EF731496}"/>
+  <xr:revisionPtr revIDLastSave="367" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B8B2F021-CA55-42A9-8DA6-268D4B23D2BC}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
     <sheet name="writing" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -333,10 +333,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$29</c:f>
+              <c:f>writing!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -420,16 +420,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44163</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$K$2:$K$29</c:f>
+              <c:f>writing!$K$2:$K$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -513,6 +516,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2964</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -624,10 +630,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$29</c:f>
+              <c:f>writing!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -711,16 +717,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44163</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$J$2:$J$29</c:f>
+              <c:f>writing!$J$2:$J$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>2225</c:v>
                 </c:pt>
@@ -804,6 +813,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>18905</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1772,8 +1784,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K29" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:K29" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K30" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:K30" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -2097,7 +2109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
@@ -2110,10 +2122,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3004,7 +3016,7 @@
         <v>15651</v>
       </c>
       <c r="K24">
-        <f>J24-J23</f>
+        <f t="shared" ref="K24:K29" si="4">J24-J23</f>
         <v>1822</v>
       </c>
     </row>
@@ -3041,7 +3053,7 @@
         <v>15807</v>
       </c>
       <c r="K25">
-        <f>J25-J24</f>
+        <f t="shared" si="4"/>
         <v>156</v>
       </c>
     </row>
@@ -3078,7 +3090,7 @@
         <v>17435</v>
       </c>
       <c r="K26">
-        <f>J26-J25</f>
+        <f t="shared" si="4"/>
         <v>1628</v>
       </c>
     </row>
@@ -3115,7 +3127,7 @@
         <v>18340</v>
       </c>
       <c r="K27">
-        <f>J27-J26</f>
+        <f t="shared" si="4"/>
         <v>905</v>
       </c>
     </row>
@@ -3152,7 +3164,7 @@
         <v>18543</v>
       </c>
       <c r="K28">
-        <f>J28-J27</f>
+        <f t="shared" si="4"/>
         <v>203</v>
       </c>
     </row>
@@ -3189,8 +3201,45 @@
         <v>18905</v>
       </c>
       <c r="K29">
-        <f>J29-J28</f>
+        <f t="shared" si="4"/>
         <v>362</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B30">
+        <v>236</v>
+      </c>
+      <c r="C30">
+        <v>87</v>
+      </c>
+      <c r="D30">
+        <v>516</v>
+      </c>
+      <c r="E30">
+        <v>7574</v>
+      </c>
+      <c r="F30">
+        <v>13033</v>
+      </c>
+      <c r="G30">
+        <v>120</v>
+      </c>
+      <c r="H30">
+        <v>117</v>
+      </c>
+      <c r="I30">
+        <v>186</v>
+      </c>
+      <c r="J30">
+        <f>SUM(B30:I30)</f>
+        <v>21869</v>
+      </c>
+      <c r="K30">
+        <f>J30-J29</f>
+        <v>2964</v>
       </c>
     </row>
   </sheetData>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="367" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B8B2F021-CA55-42A9-8DA6-268D4B23D2BC}"/>
+  <xr:revisionPtr revIDLastSave="375" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4E7AFE0F-D45A-4510-932E-039260EAAF87}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
@@ -285,7 +285,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -333,10 +333,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$30</c:f>
+              <c:f>writing!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -423,16 +423,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$K$2:$K$30</c:f>
+              <c:f>writing!$K$2:$K$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -519,6 +522,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2964</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -630,10 +636,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$30</c:f>
+              <c:f>writing!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -720,16 +726,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$J$2:$J$30</c:f>
+              <c:f>writing!$J$2:$J$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>2225</c:v>
                 </c:pt>
@@ -816,6 +825,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>21869</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1784,8 +1796,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K30" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:K30" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K31" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:K31" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -2109,8 +2121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2122,10 +2134,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3242,6 +3254,43 @@
         <v>2964</v>
       </c>
     </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>44164</v>
+      </c>
+      <c r="B31">
+        <v>236</v>
+      </c>
+      <c r="C31">
+        <v>87</v>
+      </c>
+      <c r="D31">
+        <v>516</v>
+      </c>
+      <c r="E31">
+        <v>7574</v>
+      </c>
+      <c r="F31">
+        <v>14905</v>
+      </c>
+      <c r="G31">
+        <v>120</v>
+      </c>
+      <c r="H31">
+        <v>117</v>
+      </c>
+      <c r="I31">
+        <v>186</v>
+      </c>
+      <c r="J31">
+        <f>SUM(B31:I31)</f>
+        <v>23741</v>
+      </c>
+      <c r="K31">
+        <f>J31-J30</f>
+        <v>1872</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="375" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4E7AFE0F-D45A-4510-932E-039260EAAF87}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
@@ -2121,7 +2121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
@@ -2136,7 +2136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="375" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4E7AFE0F-D45A-4510-932E-039260EAAF87}"/>
+  <xr:revisionPtr revIDLastSave="387" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{82BCE20D-1DA2-40EE-91E3-7DA2AD134B72}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
@@ -285,7 +285,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -333,10 +333,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$31</c:f>
+              <c:f>writing!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -426,16 +426,22 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>44164</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$K$2:$K$31</c:f>
+              <c:f>writing!$K$2:$K$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -525,6 +531,12 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1872</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1336</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -636,10 +648,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$31</c:f>
+              <c:f>writing!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -729,16 +741,22 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>44164</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$J$2:$J$31</c:f>
+              <c:f>writing!$J$2:$J$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>2225</c:v>
                 </c:pt>
@@ -828,6 +846,12 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>23741</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25077</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25765</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1796,8 +1820,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K31" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:K31" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K33" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:K33" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -2122,7 +2146,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2134,10 +2158,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="G33" sqref="G33:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3291,6 +3315,80 @@
         <v>1872</v>
       </c>
     </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B32">
+        <v>236</v>
+      </c>
+      <c r="C32">
+        <v>87</v>
+      </c>
+      <c r="D32">
+        <v>516</v>
+      </c>
+      <c r="E32">
+        <v>7723</v>
+      </c>
+      <c r="F32">
+        <v>16092</v>
+      </c>
+      <c r="G32">
+        <v>120</v>
+      </c>
+      <c r="H32">
+        <v>117</v>
+      </c>
+      <c r="I32">
+        <v>186</v>
+      </c>
+      <c r="J32">
+        <f>SUM(B32:I32)</f>
+        <v>25077</v>
+      </c>
+      <c r="K32">
+        <f>J32-J31</f>
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B33">
+        <v>236</v>
+      </c>
+      <c r="C33">
+        <v>87</v>
+      </c>
+      <c r="D33">
+        <v>516</v>
+      </c>
+      <c r="E33">
+        <v>7723</v>
+      </c>
+      <c r="F33">
+        <v>16780</v>
+      </c>
+      <c r="G33">
+        <v>120</v>
+      </c>
+      <c r="H33">
+        <v>117</v>
+      </c>
+      <c r="I33">
+        <v>186</v>
+      </c>
+      <c r="J33">
+        <f>SUM(B33:I33)</f>
+        <v>25765</v>
+      </c>
+      <c r="K33">
+        <f>J33-J32</f>
+        <v>688</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="387" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{82BCE20D-1DA2-40EE-91E3-7DA2AD134B72}"/>
+  <xr:revisionPtr revIDLastSave="388" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AF7CA987-8C76-4CDE-A821-20BDFB582B20}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
@@ -536,7 +536,7 @@
                   <c:v>1336</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>688</c:v>
+                  <c:v>2389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -851,7 +851,7 @@
                   <c:v>25077</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>25765</c:v>
+                  <c:v>27466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2161,7 +2161,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33:I33"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3196,7 +3196,7 @@
         <v>186</v>
       </c>
       <c r="J28">
-        <f>SUM(B28:I28)</f>
+        <f t="shared" ref="J28:J33" si="5">SUM(B28:I28)</f>
         <v>18543</v>
       </c>
       <c r="K28">
@@ -3233,7 +3233,7 @@
         <v>186</v>
       </c>
       <c r="J29">
-        <f>SUM(B29:I29)</f>
+        <f t="shared" si="5"/>
         <v>18905</v>
       </c>
       <c r="K29">
@@ -3270,7 +3270,7 @@
         <v>186</v>
       </c>
       <c r="J30">
-        <f>SUM(B30:I30)</f>
+        <f t="shared" si="5"/>
         <v>21869</v>
       </c>
       <c r="K30">
@@ -3307,7 +3307,7 @@
         <v>186</v>
       </c>
       <c r="J31">
-        <f>SUM(B31:I31)</f>
+        <f t="shared" si="5"/>
         <v>23741</v>
       </c>
       <c r="K31">
@@ -3344,7 +3344,7 @@
         <v>186</v>
       </c>
       <c r="J32">
-        <f>SUM(B32:I32)</f>
+        <f t="shared" si="5"/>
         <v>25077</v>
       </c>
       <c r="K32">
@@ -3369,7 +3369,7 @@
         <v>7723</v>
       </c>
       <c r="F33">
-        <v>16780</v>
+        <v>18481</v>
       </c>
       <c r="G33">
         <v>120</v>
@@ -3381,12 +3381,12 @@
         <v>186</v>
       </c>
       <c r="J33">
-        <f>SUM(B33:I33)</f>
-        <v>25765</v>
+        <f t="shared" si="5"/>
+        <v>27466</v>
       </c>
       <c r="K33">
         <f>J33-J32</f>
-        <v>688</v>
+        <v>2389</v>
       </c>
     </row>
   </sheetData>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="388" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AF7CA987-8C76-4CDE-A821-20BDFB582B20}"/>
+  <xr:revisionPtr revIDLastSave="391" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{627E71AC-F7F4-4144-832F-F1DAC6F9FAFF}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
@@ -2145,7 +2145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
@@ -2160,8 +2160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K33" sqref="K2:K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="391" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{627E71AC-F7F4-4144-832F-F1DAC6F9FAFF}"/>
+  <xr:revisionPtr revIDLastSave="428" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5C7358D8-907D-47BE-A3AB-AAD214A3616E}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>Daily</t>
+  </si>
+  <si>
+    <t>Languages</t>
+  </si>
+  <si>
+    <t>Abbreviations</t>
+  </si>
+  <si>
+    <t>CV</t>
   </si>
 </sst>
 </file>
@@ -141,7 +150,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
@@ -257,7 +269,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>writing!$K$1</c:f>
+              <c:f>writing!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -333,10 +345,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$33</c:f>
+              <c:f>writing!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -432,16 +444,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44167</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$K$2:$K$33</c:f>
+              <c:f>writing!$N$2:$N$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -537,6 +552,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>2389</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1791</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -567,7 +585,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>writing!$J$1</c:f>
+              <c:f>writing!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -648,10 +666,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$33</c:f>
+              <c:f>writing!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -747,111 +765,117 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44167</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$J$2:$J$33</c:f>
+              <c:f>writing!$M$2:$M$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>2225</c:v>
+                  <c:v>2614</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3239</c:v>
+                  <c:v>3628</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4040</c:v>
+                  <c:v>4429</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5281</c:v>
+                  <c:v>5670</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6044</c:v>
+                  <c:v>6433</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7533</c:v>
+                  <c:v>7922</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7533</c:v>
+                  <c:v>7922</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8344</c:v>
+                  <c:v>8733</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8554</c:v>
+                  <c:v>8943</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8524</c:v>
+                  <c:v>8913</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8599</c:v>
+                  <c:v>8988</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8599</c:v>
+                  <c:v>8988</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9110</c:v>
+                  <c:v>9499</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>9110</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9110</c:v>
+                  <c:v>9499</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9286</c:v>
+                  <c:v>9675</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10624</c:v>
+                  <c:v>11013</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10959</c:v>
+                  <c:v>11348</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11958</c:v>
+                  <c:v>12347</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12014</c:v>
+                  <c:v>12403</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13150</c:v>
+                  <c:v>13539</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13829</c:v>
+                  <c:v>14218</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15651</c:v>
+                  <c:v>16040</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>15807</c:v>
+                  <c:v>16196</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>17435</c:v>
+                  <c:v>17824</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>18340</c:v>
+                  <c:v>18729</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>18543</c:v>
+                  <c:v>18932</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>18905</c:v>
+                  <c:v>19294</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>21869</c:v>
+                  <c:v>22258</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>23741</c:v>
+                  <c:v>24130</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>25077</c:v>
+                  <c:v>25466</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>27466</c:v>
+                  <c:v>27855</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>29646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1820,15 +1844,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K33" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:K33" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:N34" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:N34" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N18">
     <sortCondition ref="A1:A18"/>
   </sortState>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{BEA871B4-EEE2-4F93-9DBC-4AFC40E06E5F}" name="Date" dataDxfId="0"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{BEA871B4-EEE2-4F93-9DBC-4AFC40E06E5F}" name="Date" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{1B7B50EE-D1EF-4405-B2B9-09BEA9C0CE20}" name="CV" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{3081B1F4-64BE-4187-A6E1-DC702177CD85}" name="Abstract"/>
     <tableColumn id="3" xr3:uid="{DA2DA13C-A841-40A2-B853-0B35F6A9B823}" name="Acknowledgments"/>
+    <tableColumn id="13" xr3:uid="{2A588095-E1AD-45D2-897E-543E2C714E70}" name="Abbreviations"/>
+    <tableColumn id="12" xr3:uid="{0229AEC0-9E19-4B0B-B3ED-98D5438CF4D4}" name="Languages"/>
     <tableColumn id="4" xr3:uid="{0BA49765-B7D9-4DB5-A1E4-08F5207B6352}" name="Conventions"/>
     <tableColumn id="5" xr3:uid="{F82E0ACF-23BB-415C-9848-D5BB5407AF8D}" name="1: Introduction"/>
     <tableColumn id="6" xr3:uid="{A97AC310-0335-4D8A-AE01-93B6C8297A5D}" name="2: Background"/>
@@ -1836,10 +1863,10 @@
     <tableColumn id="8" xr3:uid="{C2A4C48B-7471-4014-9277-4A1B1EF3B40B}" name="4: Results"/>
     <tableColumn id="9" xr3:uid="{58756D61-0637-4214-BD00-EE98CC70539C}" name="5: Conclusion"/>
     <tableColumn id="10" xr3:uid="{457CFC5C-BE64-406D-A9FB-BB2DBEA65B42}" name="Total">
-      <calculatedColumnFormula>SUM(B2:I2)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(C2:L2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{778E3DE4-F274-4416-84BC-FF498402E770}" name="Daily">
-      <calculatedColumnFormula>J2-J1</calculatedColumnFormula>
+      <calculatedColumnFormula>M2-M1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2158,1235 +2185,1583 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K2:K33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34:L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.9296875" customWidth="1"/>
+    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>44130</v>
       </c>
       <c r="B2">
+        <v>568</v>
+      </c>
+      <c r="C2">
         <v>243</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>87</v>
       </c>
-      <c r="D2">
+      <c r="E2">
+        <v>132</v>
+      </c>
+      <c r="F2">
+        <v>257</v>
+      </c>
+      <c r="G2">
         <v>535</v>
       </c>
-      <c r="E2">
+      <c r="H2">
         <v>1360</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J14" si="0">SUM(B2:I2)</f>
-        <v>2225</v>
+        <v>0</v>
       </c>
       <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>SUM(C2:L2)</f>
+        <v>2614</v>
+      </c>
+      <c r="N2">
         <v>1360</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>44131</v>
       </c>
       <c r="B3">
+        <v>568</v>
+      </c>
+      <c r="C3">
         <v>243</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>87</v>
       </c>
-      <c r="D3">
+      <c r="E3">
+        <v>132</v>
+      </c>
+      <c r="F3">
+        <v>257</v>
+      </c>
+      <c r="G3">
         <v>535</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>2374</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" si="0"/>
-        <v>3239</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <f>J3-J2</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>SUM(C3:L3)</f>
+        <v>3628</v>
+      </c>
+      <c r="N3">
+        <f>M3-M2</f>
         <v>1014</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>44132</v>
       </c>
       <c r="B4">
+        <v>568</v>
+      </c>
+      <c r="C4">
         <v>243</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>87</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <v>132</v>
+      </c>
+      <c r="F4">
+        <v>257</v>
+      </c>
+      <c r="G4">
         <v>535</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>3175</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
-        <v>4040</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <f>J4-J3</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>SUM(C4:L4)</f>
+        <v>4429</v>
+      </c>
+      <c r="N4">
+        <f>M4-M3</f>
         <v>801</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44133</v>
       </c>
       <c r="B5">
+        <v>568</v>
+      </c>
+      <c r="C5">
         <v>243</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>87</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <v>132</v>
+      </c>
+      <c r="F5">
+        <v>257</v>
+      </c>
+      <c r="G5">
         <v>535</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>4416</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
-        <v>5281</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <f>J5-J4</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f>SUM(C5:L5)</f>
+        <v>5670</v>
+      </c>
+      <c r="N5">
+        <f>M5-M4</f>
         <v>1241</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>44134</v>
       </c>
       <c r="B6">
+        <v>568</v>
+      </c>
+      <c r="C6">
         <v>243</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>87</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <v>132</v>
+      </c>
+      <c r="F6">
+        <v>257</v>
+      </c>
+      <c r="G6">
         <v>535</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>5179</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
-        <v>6044</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <f>J6-J5</f>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f>SUM(C6:L6)</f>
+        <v>6433</v>
+      </c>
+      <c r="N6">
+        <f>M6-M5</f>
         <v>763</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>44135</v>
       </c>
       <c r="B7">
+        <v>568</v>
+      </c>
+      <c r="C7">
         <v>239</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>87</v>
       </c>
-      <c r="D7">
+      <c r="E7">
+        <v>132</v>
+      </c>
+      <c r="F7">
+        <v>257</v>
+      </c>
+      <c r="G7">
         <v>528</v>
       </c>
-      <c r="E7">
+      <c r="H7">
         <v>6658</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
       </c>
       <c r="I7">
         <v>5</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
-        <v>7533</v>
+        <v>6</v>
       </c>
       <c r="K7">
-        <f>J7-J6</f>
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <f>SUM(C7:L7)</f>
+        <v>7922</v>
+      </c>
+      <c r="N7">
+        <f>M7-M6</f>
         <v>1489</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>44136</v>
       </c>
       <c r="B8">
+        <v>568</v>
+      </c>
+      <c r="C8">
         <v>239</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>87</v>
       </c>
-      <c r="D8">
+      <c r="E8">
+        <v>132</v>
+      </c>
+      <c r="F8">
+        <v>257</v>
+      </c>
+      <c r="G8">
         <v>528</v>
       </c>
-      <c r="E8">
+      <c r="H8">
         <v>6658</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
       </c>
       <c r="I8">
         <v>5</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
-        <v>7533</v>
+        <v>6</v>
       </c>
       <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <f>SUM(C8:L8)</f>
+        <v>7922</v>
+      </c>
+      <c r="N8">
         <v>621</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>44137</v>
       </c>
       <c r="B9">
+        <v>568</v>
+      </c>
+      <c r="C9">
         <v>239</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>87</v>
       </c>
-      <c r="D9">
+      <c r="E9">
+        <v>132</v>
+      </c>
+      <c r="F9">
+        <v>257</v>
+      </c>
+      <c r="G9">
         <v>528</v>
       </c>
-      <c r="E9">
+      <c r="H9">
         <v>7469</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
       </c>
       <c r="I9">
         <v>5</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
-        <v>8344</v>
+        <v>6</v>
       </c>
       <c r="K9">
-        <f>J9-J8</f>
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <f>SUM(C9:L9)</f>
+        <v>8733</v>
+      </c>
+      <c r="N9">
+        <f>M9-M8</f>
         <v>811</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>44138</v>
       </c>
       <c r="B10">
+        <v>568</v>
+      </c>
+      <c r="C10">
         <v>239</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>87</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <v>132</v>
+      </c>
+      <c r="F10">
+        <v>257</v>
+      </c>
+      <c r="G10">
         <v>528</v>
       </c>
-      <c r="E10">
+      <c r="H10">
         <v>7638</v>
       </c>
-      <c r="F10">
+      <c r="I10">
         <v>46</v>
       </c>
-      <c r="G10">
+      <c r="J10">
         <v>6</v>
       </c>
-      <c r="H10">
+      <c r="K10">
         <v>5</v>
       </c>
-      <c r="I10">
+      <c r="L10">
         <v>5</v>
       </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>8554</v>
-      </c>
-      <c r="K10">
-        <f>J10-J9</f>
+      <c r="M10">
+        <f>SUM(C10:L10)</f>
+        <v>8943</v>
+      </c>
+      <c r="N10">
+        <f>M10-M9</f>
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>44139</v>
       </c>
       <c r="B11">
+        <v>568</v>
+      </c>
+      <c r="C11">
         <v>239</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>87</v>
       </c>
-      <c r="D11">
+      <c r="E11">
+        <v>132</v>
+      </c>
+      <c r="F11">
+        <v>257</v>
+      </c>
+      <c r="G11">
         <v>541</v>
       </c>
-      <c r="E11">
+      <c r="H11">
         <v>7595</v>
       </c>
-      <c r="F11">
+      <c r="I11">
         <v>46</v>
       </c>
-      <c r="G11">
+      <c r="J11">
         <v>6</v>
       </c>
-      <c r="H11">
+      <c r="K11">
         <v>5</v>
       </c>
-      <c r="I11">
+      <c r="L11">
         <v>5</v>
       </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>8524</v>
-      </c>
-      <c r="K11" cm="1">
-        <f t="array" ref="K11">SUM(ABS(B11:I11-B10:I10))</f>
+      <c r="M11">
+        <f>SUM(C11:L11)</f>
+        <v>8913</v>
+      </c>
+      <c r="N11" cm="1">
+        <f t="array" ref="N11">SUM(ABS(C11:L11-C10:L10))</f>
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>44142</v>
       </c>
       <c r="B12">
+        <v>568</v>
+      </c>
+      <c r="C12">
         <v>239</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>87</v>
       </c>
-      <c r="D12">
+      <c r="E12">
+        <v>132</v>
+      </c>
+      <c r="F12">
+        <v>257</v>
+      </c>
+      <c r="G12">
         <v>547</v>
       </c>
-      <c r="E12">
+      <c r="H12">
         <v>7413</v>
       </c>
-      <c r="F12">
+      <c r="I12">
         <v>297</v>
       </c>
-      <c r="G12">
+      <c r="J12">
         <v>6</v>
       </c>
-      <c r="H12">
+      <c r="K12">
         <v>5</v>
       </c>
-      <c r="I12">
+      <c r="L12">
         <v>5</v>
       </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>8599</v>
-      </c>
-      <c r="K12">
-        <f>J12-J11</f>
+      <c r="M12">
+        <f>SUM(C12:L12)</f>
+        <v>8988</v>
+      </c>
+      <c r="N12">
+        <f>M12-M11</f>
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>44143</v>
       </c>
       <c r="B13">
+        <v>568</v>
+      </c>
+      <c r="C13">
         <v>239</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>87</v>
       </c>
-      <c r="D13">
+      <c r="E13">
+        <v>132</v>
+      </c>
+      <c r="F13">
+        <v>257</v>
+      </c>
+      <c r="G13">
         <v>547</v>
       </c>
-      <c r="E13">
+      <c r="H13">
         <v>7413</v>
       </c>
-      <c r="F13">
+      <c r="I13">
         <v>297</v>
       </c>
-      <c r="G13">
+      <c r="J13">
         <v>6</v>
       </c>
-      <c r="H13">
+      <c r="K13">
         <v>5</v>
       </c>
-      <c r="I13">
+      <c r="L13">
         <v>5</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="0"/>
-        <v>8599</v>
-      </c>
-      <c r="K13">
+      <c r="M13">
+        <f>SUM(C13:L13)</f>
+        <v>8988</v>
+      </c>
+      <c r="N13">
         <v>584</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>44144</v>
       </c>
       <c r="B14">
+        <v>568</v>
+      </c>
+      <c r="C14">
         <v>239</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>87</v>
       </c>
-      <c r="D14">
+      <c r="E14">
+        <v>132</v>
+      </c>
+      <c r="F14">
+        <v>257</v>
+      </c>
+      <c r="G14">
         <v>547</v>
       </c>
-      <c r="E14">
+      <c r="H14">
         <v>7413</v>
       </c>
-      <c r="F14">
+      <c r="I14">
         <v>401</v>
       </c>
-      <c r="G14">
+      <c r="J14">
         <v>120</v>
       </c>
-      <c r="H14">
+      <c r="K14">
         <v>117</v>
       </c>
-      <c r="I14">
+      <c r="L14">
         <v>186</v>
       </c>
-      <c r="J14">
-        <f t="shared" si="0"/>
-        <v>9110</v>
-      </c>
-      <c r="K14">
+      <c r="M14">
+        <f>SUM(C14:L14)</f>
+        <v>9499</v>
+      </c>
+      <c r="N14">
         <v>843</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>44145</v>
       </c>
       <c r="B15">
+        <v>568</v>
+      </c>
+      <c r="C15">
         <v>236</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>87</v>
       </c>
-      <c r="D15">
+      <c r="E15">
+        <v>132</v>
+      </c>
+      <c r="F15">
+        <v>257</v>
+      </c>
+      <c r="G15">
         <v>516</v>
       </c>
-      <c r="E15">
+      <c r="H15">
         <v>7413</v>
       </c>
-      <c r="F15">
+      <c r="I15">
         <v>1949</v>
       </c>
-      <c r="G15">
+      <c r="J15">
         <v>120</v>
       </c>
-      <c r="H15">
+      <c r="K15">
         <v>117</v>
       </c>
-      <c r="I15">
+      <c r="L15">
         <v>186</v>
       </c>
-      <c r="J15">
+      <c r="M15">
         <v>9110</v>
       </c>
-      <c r="K15">
+      <c r="N15">
         <v>511</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>44146</v>
       </c>
       <c r="B16">
+        <v>568</v>
+      </c>
+      <c r="C16">
         <v>239</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>87</v>
       </c>
-      <c r="D16">
+      <c r="E16">
+        <v>132</v>
+      </c>
+      <c r="F16">
+        <v>257</v>
+      </c>
+      <c r="G16">
         <v>547</v>
       </c>
-      <c r="E16">
+      <c r="H16">
         <v>7413</v>
       </c>
-      <c r="F16">
+      <c r="I16">
         <v>401</v>
       </c>
-      <c r="G16">
+      <c r="J16">
         <v>120</v>
       </c>
-      <c r="H16">
+      <c r="K16">
         <v>117</v>
       </c>
-      <c r="I16">
+      <c r="L16">
         <v>186</v>
       </c>
-      <c r="J16">
-        <f t="shared" ref="J16:J21" si="1">SUM(B16:I16)</f>
-        <v>9110</v>
-      </c>
-      <c r="K16">
+      <c r="M16">
+        <f>SUM(C16:L16)</f>
+        <v>9499</v>
+      </c>
+      <c r="N16">
         <v>2671</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>44150</v>
       </c>
       <c r="B17">
+        <v>568</v>
+      </c>
+      <c r="C17">
         <v>239</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>87</v>
       </c>
-      <c r="D17">
+      <c r="E17">
+        <v>132</v>
+      </c>
+      <c r="F17">
+        <v>257</v>
+      </c>
+      <c r="G17">
         <v>547</v>
       </c>
-      <c r="E17">
+      <c r="H17">
         <v>7413</v>
       </c>
-      <c r="F17">
+      <c r="I17">
         <v>577</v>
       </c>
-      <c r="G17">
+      <c r="J17">
         <v>120</v>
       </c>
-      <c r="H17">
+      <c r="K17">
         <v>117</v>
       </c>
-      <c r="I17">
+      <c r="L17">
         <v>186</v>
       </c>
-      <c r="J17">
-        <f t="shared" si="1"/>
-        <v>9286</v>
-      </c>
-      <c r="K17">
+      <c r="M17">
+        <f>SUM(C17:L17)</f>
+        <v>9675</v>
+      </c>
+      <c r="N17">
         <v>577</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>44151</v>
       </c>
       <c r="B18">
+        <v>568</v>
+      </c>
+      <c r="C18">
         <v>236</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>87</v>
       </c>
-      <c r="D18">
+      <c r="E18">
+        <v>132</v>
+      </c>
+      <c r="F18">
+        <v>257</v>
+      </c>
+      <c r="G18">
         <v>516</v>
       </c>
-      <c r="E18">
+      <c r="H18">
         <v>7413</v>
       </c>
-      <c r="F18">
+      <c r="I18">
         <v>1949</v>
       </c>
-      <c r="G18">
+      <c r="J18">
         <v>120</v>
       </c>
-      <c r="H18">
+      <c r="K18">
         <v>117</v>
       </c>
-      <c r="I18">
+      <c r="L18">
         <v>186</v>
       </c>
-      <c r="J18">
-        <f t="shared" si="1"/>
-        <v>10624</v>
-      </c>
-      <c r="K18">
-        <f t="shared" ref="K18:K23" si="2">J18-J17</f>
+      <c r="M18">
+        <f>SUM(C18:L18)</f>
+        <v>11013</v>
+      </c>
+      <c r="N18">
+        <f t="shared" ref="N18:N23" si="0">M18-M17</f>
         <v>1338</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>44152</v>
       </c>
       <c r="B19">
+        <v>568</v>
+      </c>
+      <c r="C19">
         <v>236</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>87</v>
       </c>
-      <c r="D19">
+      <c r="E19">
+        <v>132</v>
+      </c>
+      <c r="F19">
+        <v>257</v>
+      </c>
+      <c r="G19">
         <v>516</v>
       </c>
-      <c r="E19">
+      <c r="H19">
         <v>7413</v>
       </c>
-      <c r="F19">
+      <c r="I19">
         <v>2284</v>
       </c>
-      <c r="G19">
+      <c r="J19">
         <v>120</v>
       </c>
-      <c r="H19">
+      <c r="K19">
         <v>117</v>
       </c>
-      <c r="I19">
+      <c r="L19">
         <v>186</v>
       </c>
-      <c r="J19">
-        <f t="shared" si="1"/>
-        <v>10959</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="2"/>
+      <c r="M19">
+        <f>SUM(C19:L19)</f>
+        <v>11348</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
         <v>335</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>44153</v>
       </c>
       <c r="B20">
+        <v>568</v>
+      </c>
+      <c r="C20">
         <v>236</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>87</v>
       </c>
-      <c r="D20">
+      <c r="E20">
+        <v>132</v>
+      </c>
+      <c r="F20">
+        <v>257</v>
+      </c>
+      <c r="G20">
         <v>516</v>
       </c>
-      <c r="E20">
+      <c r="H20">
         <v>7413</v>
       </c>
-      <c r="F20">
+      <c r="I20">
         <v>3283</v>
       </c>
-      <c r="G20">
+      <c r="J20">
         <v>120</v>
       </c>
-      <c r="H20">
+      <c r="K20">
         <v>117</v>
       </c>
-      <c r="I20">
+      <c r="L20">
         <v>186</v>
       </c>
-      <c r="J20">
-        <f t="shared" si="1"/>
-        <v>11958</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="2"/>
+      <c r="M20">
+        <f>SUM(C20:L20)</f>
+        <v>12347</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
         <v>999</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>44154</v>
       </c>
       <c r="B21">
+        <v>568</v>
+      </c>
+      <c r="C21">
         <v>236</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>87</v>
       </c>
-      <c r="D21">
+      <c r="E21">
+        <v>132</v>
+      </c>
+      <c r="F21">
+        <v>257</v>
+      </c>
+      <c r="G21">
         <v>516</v>
       </c>
-      <c r="E21">
+      <c r="H21">
         <v>7413</v>
       </c>
-      <c r="F21">
+      <c r="I21">
         <v>3339</v>
       </c>
-      <c r="G21">
+      <c r="J21">
         <v>120</v>
       </c>
-      <c r="H21">
+      <c r="K21">
         <v>117</v>
       </c>
-      <c r="I21">
+      <c r="L21">
         <v>186</v>
       </c>
-      <c r="J21">
-        <f t="shared" si="1"/>
-        <v>12014</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="2"/>
+      <c r="M21">
+        <f>SUM(C21:L21)</f>
+        <v>12403</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>44155</v>
       </c>
       <c r="B22">
+        <v>568</v>
+      </c>
+      <c r="C22">
         <v>236</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>87</v>
       </c>
-      <c r="D22">
+      <c r="E22">
+        <v>132</v>
+      </c>
+      <c r="F22">
+        <v>257</v>
+      </c>
+      <c r="G22">
         <v>516</v>
       </c>
-      <c r="E22">
+      <c r="H22">
         <v>7413</v>
       </c>
-      <c r="F22">
+      <c r="I22">
         <v>4475</v>
       </c>
-      <c r="G22">
+      <c r="J22">
         <v>120</v>
       </c>
-      <c r="H22">
+      <c r="K22">
         <v>117</v>
       </c>
-      <c r="I22">
+      <c r="L22">
         <v>186</v>
       </c>
-      <c r="J22">
-        <f t="shared" ref="J22:J27" si="3">SUM(B22:I22)</f>
-        <v>13150</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="2"/>
+      <c r="M22">
+        <f>SUM(C22:L22)</f>
+        <v>13539</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
         <v>1136</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>44156</v>
       </c>
       <c r="B23">
+        <v>568</v>
+      </c>
+      <c r="C23">
         <v>236</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>87</v>
       </c>
-      <c r="D23">
+      <c r="E23">
+        <v>132</v>
+      </c>
+      <c r="F23">
+        <v>257</v>
+      </c>
+      <c r="G23">
         <v>516</v>
       </c>
-      <c r="E23">
+      <c r="H23">
         <v>7413</v>
       </c>
-      <c r="F23">
+      <c r="I23">
         <v>5154</v>
       </c>
-      <c r="G23">
+      <c r="J23">
         <v>120</v>
       </c>
-      <c r="H23">
+      <c r="K23">
         <v>117</v>
       </c>
-      <c r="I23">
+      <c r="L23">
         <v>186</v>
       </c>
-      <c r="J23">
-        <f t="shared" si="3"/>
-        <v>13829</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="2"/>
+      <c r="M23">
+        <f>SUM(C23:L23)</f>
+        <v>14218</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="0"/>
         <v>679</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>44157</v>
       </c>
       <c r="B24">
+        <v>568</v>
+      </c>
+      <c r="C24">
         <v>236</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>87</v>
       </c>
-      <c r="D24">
+      <c r="E24">
+        <v>132</v>
+      </c>
+      <c r="F24">
+        <v>257</v>
+      </c>
+      <c r="G24">
         <v>516</v>
       </c>
-      <c r="E24">
+      <c r="H24">
         <v>7461</v>
       </c>
-      <c r="F24">
+      <c r="I24">
         <v>6928</v>
       </c>
-      <c r="G24">
+      <c r="J24">
         <v>120</v>
       </c>
-      <c r="H24">
+      <c r="K24">
         <v>117</v>
       </c>
-      <c r="I24">
+      <c r="L24">
         <v>186</v>
       </c>
-      <c r="J24">
-        <f t="shared" si="3"/>
-        <v>15651</v>
-      </c>
-      <c r="K24">
-        <f t="shared" ref="K24:K29" si="4">J24-J23</f>
+      <c r="M24">
+        <f>SUM(C24:L24)</f>
+        <v>16040</v>
+      </c>
+      <c r="N24">
+        <f t="shared" ref="N24:N29" si="1">M24-M23</f>
         <v>1822</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>44158</v>
       </c>
       <c r="B25">
+        <v>568</v>
+      </c>
+      <c r="C25">
         <v>236</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>87</v>
       </c>
-      <c r="D25">
+      <c r="E25">
+        <v>132</v>
+      </c>
+      <c r="F25">
+        <v>257</v>
+      </c>
+      <c r="G25">
         <v>516</v>
       </c>
-      <c r="E25">
+      <c r="H25">
         <v>7461</v>
       </c>
-      <c r="F25">
+      <c r="I25">
         <v>7084</v>
       </c>
-      <c r="G25">
+      <c r="J25">
         <v>120</v>
       </c>
-      <c r="H25">
+      <c r="K25">
         <v>117</v>
       </c>
-      <c r="I25">
+      <c r="L25">
         <v>186</v>
       </c>
-      <c r="J25">
-        <f t="shared" si="3"/>
-        <v>15807</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="4"/>
+      <c r="M25">
+        <f>SUM(C25:L25)</f>
+        <v>16196</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="1"/>
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>44159</v>
       </c>
       <c r="B26">
+        <v>568</v>
+      </c>
+      <c r="C26">
         <v>236</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>87</v>
       </c>
-      <c r="D26">
+      <c r="E26">
+        <v>132</v>
+      </c>
+      <c r="F26">
+        <v>257</v>
+      </c>
+      <c r="G26">
         <v>516</v>
       </c>
-      <c r="E26">
+      <c r="H26">
         <v>7562</v>
       </c>
-      <c r="F26">
+      <c r="I26">
         <v>8611</v>
       </c>
-      <c r="G26">
+      <c r="J26">
         <v>120</v>
       </c>
-      <c r="H26">
+      <c r="K26">
         <v>117</v>
       </c>
-      <c r="I26">
+      <c r="L26">
         <v>186</v>
       </c>
-      <c r="J26">
-        <f t="shared" si="3"/>
-        <v>17435</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="4"/>
+      <c r="M26">
+        <f>SUM(C26:L26)</f>
+        <v>17824</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="1"/>
         <v>1628</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>44160</v>
       </c>
       <c r="B27">
+        <v>568</v>
+      </c>
+      <c r="C27">
         <v>236</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>87</v>
       </c>
-      <c r="D27">
+      <c r="E27">
+        <v>132</v>
+      </c>
+      <c r="F27">
+        <v>257</v>
+      </c>
+      <c r="G27">
         <v>516</v>
       </c>
-      <c r="E27">
+      <c r="H27">
         <v>7562</v>
       </c>
-      <c r="F27">
+      <c r="I27">
         <v>9516</v>
       </c>
-      <c r="G27">
+      <c r="J27">
         <v>120</v>
       </c>
-      <c r="H27">
+      <c r="K27">
         <v>117</v>
       </c>
-      <c r="I27">
+      <c r="L27">
         <v>186</v>
       </c>
-      <c r="J27">
-        <f t="shared" si="3"/>
-        <v>18340</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="4"/>
+      <c r="M27">
+        <f>SUM(C27:L27)</f>
+        <v>18729</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="1"/>
         <v>905</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>44161</v>
       </c>
       <c r="B28">
+        <v>568</v>
+      </c>
+      <c r="C28">
         <v>236</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>87</v>
       </c>
-      <c r="D28">
+      <c r="E28">
+        <v>132</v>
+      </c>
+      <c r="F28">
+        <v>257</v>
+      </c>
+      <c r="G28">
         <v>516</v>
       </c>
-      <c r="E28">
+      <c r="H28">
         <v>7562</v>
       </c>
-      <c r="F28">
+      <c r="I28">
         <v>9719</v>
       </c>
-      <c r="G28">
+      <c r="J28">
         <v>120</v>
       </c>
-      <c r="H28">
+      <c r="K28">
         <v>117</v>
       </c>
-      <c r="I28">
+      <c r="L28">
         <v>186</v>
       </c>
-      <c r="J28">
-        <f t="shared" ref="J28:J33" si="5">SUM(B28:I28)</f>
-        <v>18543</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="4"/>
+      <c r="M28">
+        <f>SUM(C28:L28)</f>
+        <v>18932</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="1"/>
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>44162</v>
       </c>
       <c r="B29">
+        <v>568</v>
+      </c>
+      <c r="C29">
         <v>236</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>87</v>
       </c>
-      <c r="D29">
+      <c r="E29">
+        <v>132</v>
+      </c>
+      <c r="F29">
+        <v>257</v>
+      </c>
+      <c r="G29">
         <v>516</v>
       </c>
-      <c r="E29">
+      <c r="H29">
         <v>7562</v>
       </c>
-      <c r="F29">
+      <c r="I29">
         <v>10081</v>
       </c>
-      <c r="G29">
+      <c r="J29">
         <v>120</v>
       </c>
-      <c r="H29">
+      <c r="K29">
         <v>117</v>
       </c>
-      <c r="I29">
+      <c r="L29">
         <v>186</v>
       </c>
-      <c r="J29">
-        <f t="shared" si="5"/>
-        <v>18905</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="4"/>
+      <c r="M29">
+        <f>SUM(C29:L29)</f>
+        <v>19294</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="1"/>
         <v>362</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>44163</v>
       </c>
       <c r="B30">
+        <v>568</v>
+      </c>
+      <c r="C30">
         <v>236</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>87</v>
       </c>
-      <c r="D30">
+      <c r="E30">
+        <v>132</v>
+      </c>
+      <c r="F30">
+        <v>257</v>
+      </c>
+      <c r="G30">
         <v>516</v>
       </c>
-      <c r="E30">
+      <c r="H30">
         <v>7574</v>
       </c>
-      <c r="F30">
+      <c r="I30">
         <v>13033</v>
       </c>
-      <c r="G30">
+      <c r="J30">
         <v>120</v>
       </c>
-      <c r="H30">
+      <c r="K30">
         <v>117</v>
       </c>
-      <c r="I30">
+      <c r="L30">
         <v>186</v>
       </c>
-      <c r="J30">
-        <f t="shared" si="5"/>
-        <v>21869</v>
-      </c>
-      <c r="K30">
-        <f>J30-J29</f>
+      <c r="M30">
+        <f>SUM(C30:L30)</f>
+        <v>22258</v>
+      </c>
+      <c r="N30">
+        <f>M30-M29</f>
         <v>2964</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>44164</v>
       </c>
       <c r="B31">
+        <v>568</v>
+      </c>
+      <c r="C31">
         <v>236</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>87</v>
       </c>
-      <c r="D31">
+      <c r="E31">
+        <v>132</v>
+      </c>
+      <c r="F31">
+        <v>257</v>
+      </c>
+      <c r="G31">
         <v>516</v>
       </c>
-      <c r="E31">
+      <c r="H31">
         <v>7574</v>
       </c>
-      <c r="F31">
+      <c r="I31">
         <v>14905</v>
       </c>
-      <c r="G31">
+      <c r="J31">
         <v>120</v>
       </c>
-      <c r="H31">
+      <c r="K31">
         <v>117</v>
       </c>
-      <c r="I31">
+      <c r="L31">
         <v>186</v>
       </c>
-      <c r="J31">
-        <f t="shared" si="5"/>
-        <v>23741</v>
-      </c>
-      <c r="K31">
-        <f>J31-J30</f>
+      <c r="M31">
+        <f>SUM(C31:L31)</f>
+        <v>24130</v>
+      </c>
+      <c r="N31">
+        <f>M31-M30</f>
         <v>1872</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>44166</v>
       </c>
       <c r="B32">
+        <v>568</v>
+      </c>
+      <c r="C32">
         <v>236</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>87</v>
       </c>
-      <c r="D32">
+      <c r="E32">
+        <v>132</v>
+      </c>
+      <c r="F32">
+        <v>257</v>
+      </c>
+      <c r="G32">
         <v>516</v>
       </c>
-      <c r="E32">
+      <c r="H32">
         <v>7723</v>
       </c>
-      <c r="F32">
+      <c r="I32">
         <v>16092</v>
       </c>
-      <c r="G32">
+      <c r="J32">
         <v>120</v>
       </c>
-      <c r="H32">
+      <c r="K32">
         <v>117</v>
       </c>
-      <c r="I32">
+      <c r="L32">
         <v>186</v>
       </c>
-      <c r="J32">
-        <f t="shared" si="5"/>
-        <v>25077</v>
-      </c>
-      <c r="K32">
-        <f>J32-J31</f>
+      <c r="M32">
+        <f>SUM(C32:L32)</f>
+        <v>25466</v>
+      </c>
+      <c r="N32">
+        <f>M32-M31</f>
         <v>1336</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>44167</v>
       </c>
       <c r="B33">
+        <v>568</v>
+      </c>
+      <c r="C33">
         <v>236</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>87</v>
       </c>
-      <c r="D33">
+      <c r="E33">
+        <v>132</v>
+      </c>
+      <c r="F33">
+        <v>257</v>
+      </c>
+      <c r="G33">
         <v>516</v>
       </c>
-      <c r="E33">
+      <c r="H33">
         <v>7723</v>
       </c>
-      <c r="F33">
+      <c r="I33">
         <v>18481</v>
       </c>
-      <c r="G33">
+      <c r="J33">
         <v>120</v>
       </c>
-      <c r="H33">
+      <c r="K33">
         <v>117</v>
       </c>
-      <c r="I33">
+      <c r="L33">
         <v>186</v>
       </c>
-      <c r="J33">
-        <f t="shared" si="5"/>
-        <v>27466</v>
-      </c>
-      <c r="K33">
-        <f>J33-J32</f>
+      <c r="M33">
+        <f>SUM(C33:L33)</f>
+        <v>27855</v>
+      </c>
+      <c r="N33">
+        <f>M33-M32</f>
         <v>2389</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B34">
+        <v>568</v>
+      </c>
+      <c r="C34">
+        <v>236</v>
+      </c>
+      <c r="D34">
+        <v>87</v>
+      </c>
+      <c r="E34">
+        <v>191</v>
+      </c>
+      <c r="F34">
+        <v>257</v>
+      </c>
+      <c r="G34">
+        <v>516</v>
+      </c>
+      <c r="H34">
+        <v>7724</v>
+      </c>
+      <c r="I34">
+        <v>20212</v>
+      </c>
+      <c r="J34">
+        <v>120</v>
+      </c>
+      <c r="K34">
+        <v>117</v>
+      </c>
+      <c r="L34">
+        <v>186</v>
+      </c>
+      <c r="M34">
+        <f>SUM(C34:L34)</f>
+        <v>29646</v>
+      </c>
+      <c r="N34">
+        <f>M34-M33</f>
+        <v>1791</v>
       </c>
     </row>
   </sheetData>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="428" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5C7358D8-907D-47BE-A3AB-AAD214A3616E}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
@@ -2172,7 +2172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
@@ -2187,7 +2187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="J34" sqref="J34:L34"/>
     </sheetView>
   </sheetViews>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <f>SUM(C2:L2)</f>
+        <f t="shared" ref="M2:M14" si="0">SUM(C2:L2)</f>
         <v>2614</v>
       </c>
       <c r="N2">
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <f>SUM(C3:L3)</f>
+        <f t="shared" si="0"/>
         <v>3628</v>
       </c>
       <c r="N3">
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <f>SUM(C4:L4)</f>
+        <f t="shared" si="0"/>
         <v>4429</v>
       </c>
       <c r="N4">
@@ -2429,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <f>SUM(C5:L5)</f>
+        <f t="shared" si="0"/>
         <v>5670</v>
       </c>
       <c r="N5">
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <f>SUM(C6:L6)</f>
+        <f t="shared" si="0"/>
         <v>6433</v>
       </c>
       <c r="N6">
@@ -2521,7 +2521,7 @@
         <v>5</v>
       </c>
       <c r="M7">
-        <f>SUM(C7:L7)</f>
+        <f t="shared" si="0"/>
         <v>7922</v>
       </c>
       <c r="N7">
@@ -2567,7 +2567,7 @@
         <v>5</v>
       </c>
       <c r="M8">
-        <f>SUM(C8:L8)</f>
+        <f t="shared" si="0"/>
         <v>7922</v>
       </c>
       <c r="N8">
@@ -2612,7 +2612,7 @@
         <v>5</v>
       </c>
       <c r="M9">
-        <f>SUM(C9:L9)</f>
+        <f t="shared" si="0"/>
         <v>8733</v>
       </c>
       <c r="N9">
@@ -2658,7 +2658,7 @@
         <v>5</v>
       </c>
       <c r="M10">
-        <f>SUM(C10:L10)</f>
+        <f t="shared" si="0"/>
         <v>8943</v>
       </c>
       <c r="N10">
@@ -2704,7 +2704,7 @@
         <v>5</v>
       </c>
       <c r="M11">
-        <f>SUM(C11:L11)</f>
+        <f t="shared" si="0"/>
         <v>8913</v>
       </c>
       <c r="N11" cm="1">
@@ -2750,7 +2750,7 @@
         <v>5</v>
       </c>
       <c r="M12">
-        <f>SUM(C12:L12)</f>
+        <f t="shared" si="0"/>
         <v>8988</v>
       </c>
       <c r="N12">
@@ -2796,7 +2796,7 @@
         <v>5</v>
       </c>
       <c r="M13">
-        <f>SUM(C13:L13)</f>
+        <f t="shared" si="0"/>
         <v>8988</v>
       </c>
       <c r="N13">
@@ -2841,7 +2841,7 @@
         <v>186</v>
       </c>
       <c r="M14">
-        <f>SUM(C14:L14)</f>
+        <f t="shared" si="0"/>
         <v>9499</v>
       </c>
       <c r="N14">
@@ -2930,7 +2930,7 @@
         <v>186</v>
       </c>
       <c r="M16">
-        <f>SUM(C16:L16)</f>
+        <f t="shared" ref="M16:M34" si="1">SUM(C16:L16)</f>
         <v>9499</v>
       </c>
       <c r="N16">
@@ -2975,7 +2975,7 @@
         <v>186</v>
       </c>
       <c r="M17">
-        <f>SUM(C17:L17)</f>
+        <f t="shared" si="1"/>
         <v>9675</v>
       </c>
       <c r="N17">
@@ -3020,11 +3020,11 @@
         <v>186</v>
       </c>
       <c r="M18">
-        <f>SUM(C18:L18)</f>
+        <f t="shared" si="1"/>
         <v>11013</v>
       </c>
       <c r="N18">
-        <f t="shared" ref="N18:N23" si="0">M18-M17</f>
+        <f t="shared" ref="N18:N23" si="2">M18-M17</f>
         <v>1338</v>
       </c>
     </row>
@@ -3066,11 +3066,11 @@
         <v>186</v>
       </c>
       <c r="M19">
-        <f>SUM(C19:L19)</f>
+        <f t="shared" si="1"/>
         <v>11348</v>
       </c>
       <c r="N19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>335</v>
       </c>
     </row>
@@ -3112,11 +3112,11 @@
         <v>186</v>
       </c>
       <c r="M20">
-        <f>SUM(C20:L20)</f>
+        <f t="shared" si="1"/>
         <v>12347</v>
       </c>
       <c r="N20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>999</v>
       </c>
     </row>
@@ -3158,11 +3158,11 @@
         <v>186</v>
       </c>
       <c r="M21">
-        <f>SUM(C21:L21)</f>
+        <f t="shared" si="1"/>
         <v>12403</v>
       </c>
       <c r="N21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
     </row>
@@ -3204,11 +3204,11 @@
         <v>186</v>
       </c>
       <c r="M22">
-        <f>SUM(C22:L22)</f>
+        <f t="shared" si="1"/>
         <v>13539</v>
       </c>
       <c r="N22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1136</v>
       </c>
     </row>
@@ -3250,11 +3250,11 @@
         <v>186</v>
       </c>
       <c r="M23">
-        <f>SUM(C23:L23)</f>
+        <f t="shared" si="1"/>
         <v>14218</v>
       </c>
       <c r="N23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>679</v>
       </c>
     </row>
@@ -3296,11 +3296,11 @@
         <v>186</v>
       </c>
       <c r="M24">
-        <f>SUM(C24:L24)</f>
+        <f t="shared" si="1"/>
         <v>16040</v>
       </c>
       <c r="N24">
-        <f t="shared" ref="N24:N29" si="1">M24-M23</f>
+        <f t="shared" ref="N24:N29" si="3">M24-M23</f>
         <v>1822</v>
       </c>
     </row>
@@ -3342,11 +3342,11 @@
         <v>186</v>
       </c>
       <c r="M25">
-        <f>SUM(C25:L25)</f>
+        <f t="shared" si="1"/>
         <v>16196</v>
       </c>
       <c r="N25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>156</v>
       </c>
     </row>
@@ -3388,11 +3388,11 @@
         <v>186</v>
       </c>
       <c r="M26">
-        <f>SUM(C26:L26)</f>
+        <f t="shared" si="1"/>
         <v>17824</v>
       </c>
       <c r="N26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1628</v>
       </c>
     </row>
@@ -3434,11 +3434,11 @@
         <v>186</v>
       </c>
       <c r="M27">
-        <f>SUM(C27:L27)</f>
+        <f t="shared" si="1"/>
         <v>18729</v>
       </c>
       <c r="N27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>905</v>
       </c>
     </row>
@@ -3480,11 +3480,11 @@
         <v>186</v>
       </c>
       <c r="M28">
-        <f>SUM(C28:L28)</f>
+        <f t="shared" si="1"/>
         <v>18932</v>
       </c>
       <c r="N28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>203</v>
       </c>
     </row>
@@ -3526,11 +3526,11 @@
         <v>186</v>
       </c>
       <c r="M29">
-        <f>SUM(C29:L29)</f>
+        <f t="shared" si="1"/>
         <v>19294</v>
       </c>
       <c r="N29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>362</v>
       </c>
     </row>
@@ -3572,7 +3572,7 @@
         <v>186</v>
       </c>
       <c r="M30">
-        <f>SUM(C30:L30)</f>
+        <f t="shared" si="1"/>
         <v>22258</v>
       </c>
       <c r="N30">
@@ -3618,7 +3618,7 @@
         <v>186</v>
       </c>
       <c r="M31">
-        <f>SUM(C31:L31)</f>
+        <f t="shared" si="1"/>
         <v>24130</v>
       </c>
       <c r="N31">
@@ -3664,7 +3664,7 @@
         <v>186</v>
       </c>
       <c r="M32">
-        <f>SUM(C32:L32)</f>
+        <f t="shared" si="1"/>
         <v>25466</v>
       </c>
       <c r="N32">
@@ -3710,7 +3710,7 @@
         <v>186</v>
       </c>
       <c r="M33">
-        <f>SUM(C33:L33)</f>
+        <f t="shared" si="1"/>
         <v>27855</v>
       </c>
       <c r="N33">
@@ -3756,7 +3756,7 @@
         <v>186</v>
       </c>
       <c r="M34">
-        <f>SUM(C34:L34)</f>
+        <f t="shared" si="1"/>
         <v>29646</v>
       </c>
       <c r="N34">

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="428" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5C7358D8-907D-47BE-A3AB-AAD214A3616E}"/>
+  <xr:revisionPtr revIDLastSave="444" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{110C4C75-7943-42F4-8983-3FD13AB5697D}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
     <sheet name="writing" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -345,10 +345,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$34</c:f>
+              <c:f>writing!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -447,16 +447,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$N$2:$N$34</c:f>
+              <c:f>writing!$N$2:$N$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -473,7 +476,7 @@
                   <c:v>763</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1489</c:v>
+                  <c:v>1511</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>621</c:v>
@@ -488,7 +491,7 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75</c:v>
+                  <c:v>439</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>584</c:v>
@@ -506,7 +509,7 @@
                   <c:v>577</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1338</c:v>
+                  <c:v>1406</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>335</c:v>
@@ -555,6 +558,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>1791</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -666,10 +672,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$34</c:f>
+              <c:f>writing!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -768,16 +774,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$M$2:$M$34</c:f>
+              <c:f>writing!$M$2:$M$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>2614</c:v>
                 </c:pt>
@@ -876,6 +885,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>29646</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>29649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1844,8 +1856,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:N34" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:N34" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:N35" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:N35" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -2185,10 +2197,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34:L34"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2340,8 +2352,8 @@
         <f t="shared" si="0"/>
         <v>3628</v>
       </c>
-      <c r="N3">
-        <f>M3-M2</f>
+      <c r="N3" cm="1">
+        <f t="array" ref="N3">SUM(ABS(C3:L3-C2:L2))</f>
         <v>1014</v>
       </c>
     </row>
@@ -2386,8 +2398,8 @@
         <f t="shared" si="0"/>
         <v>4429</v>
       </c>
-      <c r="N4">
-        <f>M4-M3</f>
+      <c r="N4" cm="1">
+        <f t="array" ref="N4">SUM(ABS(C4:L4-C3:L3))</f>
         <v>801</v>
       </c>
     </row>
@@ -2432,8 +2444,8 @@
         <f t="shared" si="0"/>
         <v>5670</v>
       </c>
-      <c r="N5">
-        <f>M5-M4</f>
+      <c r="N5" cm="1">
+        <f t="array" ref="N5">SUM(ABS(C5:L5-C4:L4))</f>
         <v>1241</v>
       </c>
     </row>
@@ -2478,8 +2490,8 @@
         <f t="shared" si="0"/>
         <v>6433</v>
       </c>
-      <c r="N6">
-        <f>M6-M5</f>
+      <c r="N6" cm="1">
+        <f t="array" ref="N6">SUM(ABS(C6:L6-C5:L5))</f>
         <v>763</v>
       </c>
     </row>
@@ -2524,9 +2536,9 @@
         <f t="shared" si="0"/>
         <v>7922</v>
       </c>
-      <c r="N7">
-        <f>M7-M6</f>
-        <v>1489</v>
+      <c r="N7" cm="1">
+        <f t="array" ref="N7">SUM(ABS(C7:L7-C6:L6))</f>
+        <v>1511</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
@@ -2615,8 +2627,8 @@
         <f t="shared" si="0"/>
         <v>8733</v>
       </c>
-      <c r="N9">
-        <f>M9-M8</f>
+      <c r="N9" cm="1">
+        <f t="array" ref="N9">SUM(ABS(C9:L9-C8:L8))</f>
         <v>811</v>
       </c>
     </row>
@@ -2661,8 +2673,8 @@
         <f t="shared" si="0"/>
         <v>8943</v>
       </c>
-      <c r="N10">
-        <f>M10-M9</f>
+      <c r="N10" cm="1">
+        <f t="array" ref="N10">SUM(ABS(C10:L10-C9:L9))</f>
         <v>210</v>
       </c>
     </row>
@@ -2753,9 +2765,9 @@
         <f t="shared" si="0"/>
         <v>8988</v>
       </c>
-      <c r="N12">
-        <f>M12-M11</f>
-        <v>75</v>
+      <c r="N12" cm="1">
+        <f t="array" ref="N12">SUM(ABS(C12:L12-C11:L11))</f>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
@@ -3023,9 +3035,9 @@
         <f t="shared" si="1"/>
         <v>11013</v>
       </c>
-      <c r="N18">
-        <f t="shared" ref="N18:N23" si="2">M18-M17</f>
-        <v>1338</v>
+      <c r="N18" cm="1">
+        <f t="array" ref="N18">SUM(ABS(C18:L18-C17:L17))</f>
+        <v>1406</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.45">
@@ -3069,8 +3081,8 @@
         <f t="shared" si="1"/>
         <v>11348</v>
       </c>
-      <c r="N19">
-        <f t="shared" si="2"/>
+      <c r="N19" cm="1">
+        <f t="array" ref="N19">SUM(ABS(C19:L19-C18:L18))</f>
         <v>335</v>
       </c>
     </row>
@@ -3115,8 +3127,8 @@
         <f t="shared" si="1"/>
         <v>12347</v>
       </c>
-      <c r="N20">
-        <f t="shared" si="2"/>
+      <c r="N20" cm="1">
+        <f t="array" ref="N20">SUM(ABS(C20:L20-C19:L19))</f>
         <v>999</v>
       </c>
     </row>
@@ -3161,8 +3173,8 @@
         <f t="shared" si="1"/>
         <v>12403</v>
       </c>
-      <c r="N21">
-        <f t="shared" si="2"/>
+      <c r="N21" cm="1">
+        <f t="array" ref="N21">SUM(ABS(C21:L21-C20:L20))</f>
         <v>56</v>
       </c>
     </row>
@@ -3207,8 +3219,8 @@
         <f t="shared" si="1"/>
         <v>13539</v>
       </c>
-      <c r="N22">
-        <f t="shared" si="2"/>
+      <c r="N22" cm="1">
+        <f t="array" ref="N22">SUM(ABS(C22:L22-C21:L21))</f>
         <v>1136</v>
       </c>
     </row>
@@ -3253,8 +3265,8 @@
         <f t="shared" si="1"/>
         <v>14218</v>
       </c>
-      <c r="N23">
-        <f t="shared" si="2"/>
+      <c r="N23" cm="1">
+        <f t="array" ref="N23">SUM(ABS(C23:L23-C22:L22))</f>
         <v>679</v>
       </c>
     </row>
@@ -3299,8 +3311,8 @@
         <f t="shared" si="1"/>
         <v>16040</v>
       </c>
-      <c r="N24">
-        <f t="shared" ref="N24:N29" si="3">M24-M23</f>
+      <c r="N24" cm="1">
+        <f t="array" ref="N24">SUM(ABS(C24:L24-C23:L23))</f>
         <v>1822</v>
       </c>
     </row>
@@ -3345,8 +3357,8 @@
         <f t="shared" si="1"/>
         <v>16196</v>
       </c>
-      <c r="N25">
-        <f t="shared" si="3"/>
+      <c r="N25" cm="1">
+        <f t="array" ref="N25">SUM(ABS(C25:L25-C24:L24))</f>
         <v>156</v>
       </c>
     </row>
@@ -3391,8 +3403,8 @@
         <f t="shared" si="1"/>
         <v>17824</v>
       </c>
-      <c r="N26">
-        <f t="shared" si="3"/>
+      <c r="N26" cm="1">
+        <f t="array" ref="N26">SUM(ABS(C26:L26-C25:L25))</f>
         <v>1628</v>
       </c>
     </row>
@@ -3437,8 +3449,8 @@
         <f t="shared" si="1"/>
         <v>18729</v>
       </c>
-      <c r="N27">
-        <f t="shared" si="3"/>
+      <c r="N27" cm="1">
+        <f t="array" ref="N27">SUM(ABS(C27:L27-C26:L26))</f>
         <v>905</v>
       </c>
     </row>
@@ -3483,8 +3495,8 @@
         <f t="shared" si="1"/>
         <v>18932</v>
       </c>
-      <c r="N28">
-        <f t="shared" si="3"/>
+      <c r="N28" cm="1">
+        <f t="array" ref="N28">SUM(ABS(C28:L28-C27:L27))</f>
         <v>203</v>
       </c>
     </row>
@@ -3529,8 +3541,8 @@
         <f t="shared" si="1"/>
         <v>19294</v>
       </c>
-      <c r="N29">
-        <f t="shared" si="3"/>
+      <c r="N29" cm="1">
+        <f t="array" ref="N29">SUM(ABS(C29:L29-C28:L28))</f>
         <v>362</v>
       </c>
     </row>
@@ -3575,8 +3587,8 @@
         <f t="shared" si="1"/>
         <v>22258</v>
       </c>
-      <c r="N30">
-        <f>M30-M29</f>
+      <c r="N30" cm="1">
+        <f t="array" ref="N30">SUM(ABS(C30:L30-C29:L29))</f>
         <v>2964</v>
       </c>
     </row>
@@ -3621,8 +3633,8 @@
         <f t="shared" si="1"/>
         <v>24130</v>
       </c>
-      <c r="N31">
-        <f>M31-M30</f>
+      <c r="N31" cm="1">
+        <f t="array" ref="N31">SUM(ABS(C31:L31-C30:L30))</f>
         <v>1872</v>
       </c>
     </row>
@@ -3667,8 +3679,8 @@
         <f t="shared" si="1"/>
         <v>25466</v>
       </c>
-      <c r="N32">
-        <f>M32-M31</f>
+      <c r="N32" cm="1">
+        <f t="array" ref="N32">SUM(ABS(C32:L32-C31:L31))</f>
         <v>1336</v>
       </c>
     </row>
@@ -3713,8 +3725,8 @@
         <f t="shared" si="1"/>
         <v>27855</v>
       </c>
-      <c r="N33">
-        <f>M33-M32</f>
+      <c r="N33" cm="1">
+        <f t="array" ref="N33">SUM(ABS(C33:L33-C32:L32))</f>
         <v>2389</v>
       </c>
     </row>
@@ -3759,9 +3771,55 @@
         <f t="shared" si="1"/>
         <v>29646</v>
       </c>
-      <c r="N34">
-        <f>M34-M33</f>
+      <c r="N34" cm="1">
+        <f t="array" ref="N34">SUM(ABS(C34:L34-C33:L33))</f>
         <v>1791</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B35">
+        <v>568</v>
+      </c>
+      <c r="C35">
+        <v>236</v>
+      </c>
+      <c r="D35">
+        <v>87</v>
+      </c>
+      <c r="E35">
+        <v>198</v>
+      </c>
+      <c r="F35">
+        <v>492</v>
+      </c>
+      <c r="G35">
+        <v>414</v>
+      </c>
+      <c r="H35">
+        <v>7700</v>
+      </c>
+      <c r="I35">
+        <v>20099</v>
+      </c>
+      <c r="J35">
+        <v>120</v>
+      </c>
+      <c r="K35">
+        <v>117</v>
+      </c>
+      <c r="L35">
+        <v>186</v>
+      </c>
+      <c r="M35">
+        <f>SUM(C35:L35)</f>
+        <v>29649</v>
+      </c>
+      <c r="N35" cm="1">
+        <f t="array" ref="N35">SUM(ABS(C35:L35-C34:L34))</f>
+        <v>481</v>
       </c>
     </row>
   </sheetData>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="444" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{110C4C75-7943-42F4-8983-3FD13AB5697D}"/>
+  <xr:revisionPtr revIDLastSave="447" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D728EACB-BADB-4EB6-A732-09CC61C1CF4D}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
     <sheet name="writing" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -345,10 +345,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$35</c:f>
+              <c:f>writing!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -450,16 +450,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$N$2:$N$35</c:f>
+              <c:f>writing!$N$2:$N$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -561,6 +564,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -672,10 +678,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$35</c:f>
+              <c:f>writing!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -777,16 +783,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$M$2:$M$35</c:f>
+              <c:f>writing!$M$2:$M$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>2614</c:v>
                 </c:pt>
@@ -887,6 +896,9 @@
                   <c:v>29646</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>29649</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>29649</c:v>
                 </c:pt>
               </c:numCache>
@@ -1856,8 +1868,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:N35" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:N35" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:N36" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:N36" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -2184,7 +2196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
@@ -2197,10 +2209,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3822,6 +3834,52 @@
         <v>481</v>
       </c>
     </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B36">
+        <v>568</v>
+      </c>
+      <c r="C36">
+        <v>236</v>
+      </c>
+      <c r="D36">
+        <v>87</v>
+      </c>
+      <c r="E36">
+        <v>198</v>
+      </c>
+      <c r="F36">
+        <v>492</v>
+      </c>
+      <c r="G36">
+        <v>414</v>
+      </c>
+      <c r="H36">
+        <v>7700</v>
+      </c>
+      <c r="I36">
+        <v>20099</v>
+      </c>
+      <c r="J36">
+        <v>120</v>
+      </c>
+      <c r="K36">
+        <v>117</v>
+      </c>
+      <c r="L36">
+        <v>186</v>
+      </c>
+      <c r="M36">
+        <f>SUM(C36:L36)</f>
+        <v>29649</v>
+      </c>
+      <c r="N36" cm="1">
+        <f t="array" ref="N36">SUM(ABS(C36:L36-C35:L35))</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="447" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D728EACB-BADB-4EB6-A732-09CC61C1CF4D}"/>
+  <xr:revisionPtr revIDLastSave="462" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{374E9537-1254-46EA-B8F6-FCF72BFE24DB}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
     <sheet name="writing" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -345,10 +345,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$36</c:f>
+              <c:f>writing!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -453,16 +453,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>44170</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$N$2:$N$36</c:f>
+              <c:f>writing!$N$2:$N$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -567,6 +570,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -678,10 +684,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$36</c:f>
+              <c:f>writing!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -786,16 +792,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>44170</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$M$2:$M$36</c:f>
+              <c:f>writing!$M$2:$M$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>2614</c:v>
                 </c:pt>
@@ -900,6 +909,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>29649</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>29196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1868,8 +1880,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:N36" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:N36" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:N37" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:N37" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -2196,7 +2208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
@@ -2209,10 +2221,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3880,6 +3892,52 @@
         <v>0</v>
       </c>
     </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B37">
+        <v>568</v>
+      </c>
+      <c r="C37">
+        <v>239</v>
+      </c>
+      <c r="D37">
+        <v>87</v>
+      </c>
+      <c r="E37">
+        <v>198</v>
+      </c>
+      <c r="F37">
+        <v>492</v>
+      </c>
+      <c r="G37">
+        <v>416</v>
+      </c>
+      <c r="H37">
+        <v>7694</v>
+      </c>
+      <c r="I37">
+        <v>19648</v>
+      </c>
+      <c r="J37">
+        <v>120</v>
+      </c>
+      <c r="K37">
+        <v>116</v>
+      </c>
+      <c r="L37">
+        <v>186</v>
+      </c>
+      <c r="M37">
+        <f>SUM(C37:L37)</f>
+        <v>29196</v>
+      </c>
+      <c r="N37" cm="1">
+        <f t="array" ref="N37">SUM(ABS(C37:L37-C36:L36))</f>
+        <v>463</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="226" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{670F7B08-B672-4022-9063-0423C8DA43BD}"/>
+  <xr:revisionPtr revIDLastSave="462" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{374E9537-1254-46EA-B8F6-FCF72BFE24DB}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
     <sheet name="writing" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>Daily</t>
+  </si>
+  <si>
+    <t>Languages</t>
+  </si>
+  <si>
+    <t>Abbreviations</t>
+  </si>
+  <si>
+    <t>CV</t>
   </si>
 </sst>
 </file>
@@ -141,7 +150,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
@@ -257,7 +269,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>writing!$K$1</c:f>
+              <c:f>writing!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -285,7 +297,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -303,7 +315,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="inBase"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -333,10 +345,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$14</c:f>
+              <c:f>writing!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -371,20 +383,89 @@
                   <c:v>44142</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>44143</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>44144</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
+                  <c:v>44145</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44146</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44164</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44167</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44170</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$K$2:$K$14</c:f>
+              <c:f>writing!$N$2:$N$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -401,7 +482,7 @@
                   <c:v>763</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1489</c:v>
+                  <c:v>1511</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>621</c:v>
@@ -416,20 +497,89 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75</c:v>
+                  <c:v>439</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>843</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>511</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>2671</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1406</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1136</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1822</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1628</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>905</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2964</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1872</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1336</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2389</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1791</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-43CA-48CC-BAB2-BC0740F4C54B}"/>
+              <c16:uniqueId val="{00000000-7415-4A85-8004-99D6E505098C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -453,7 +603,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>writing!$J$1</c:f>
+              <c:f>writing!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -483,7 +633,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="2700000" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -534,10 +684,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$14</c:f>
+              <c:f>writing!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -572,58 +722,196 @@
                   <c:v>44142</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>44143</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>44144</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
+                  <c:v>44145</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44146</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44164</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44167</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44170</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$J$2:$J$14</c:f>
+              <c:f>writing!$M$2:$M$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>2225</c:v>
+                  <c:v>2614</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3239</c:v>
+                  <c:v>3628</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4040</c:v>
+                  <c:v>4429</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5281</c:v>
+                  <c:v>5670</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6044</c:v>
+                  <c:v>6433</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7533</c:v>
+                  <c:v>7922</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7533</c:v>
+                  <c:v>7922</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8344</c:v>
+                  <c:v>8733</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8554</c:v>
+                  <c:v>8943</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8524</c:v>
+                  <c:v>8913</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8599</c:v>
+                  <c:v>8988</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>8988</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9499</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>9110</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>9110</c:v>
+                <c:pt idx="14">
+                  <c:v>9499</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9675</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11013</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11348</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12347</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12403</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13539</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14218</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16040</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16196</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17824</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18729</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18932</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19294</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22258</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24130</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25466</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>27855</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>29646</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>29649</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>29649</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>29196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -631,7 +919,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-43CA-48CC-BAB2-BC0740F4C54B}"/>
+              <c16:uniqueId val="{00000001-7415-4A85-8004-99D6E505098C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1561,14 +1849,14 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>195262</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC058E7F-7E39-412B-87BB-BD9ABB4BB559}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2688EB1-1F21-4955-9B3B-F35A81E6A042}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1592,12 +1880,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:K14" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:K14" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{BEA871B4-EEE2-4F93-9DBC-4AFC40E06E5F}" name="Date" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:N37" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:N37" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N18">
+    <sortCondition ref="A1:A18"/>
+  </sortState>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{BEA871B4-EEE2-4F93-9DBC-4AFC40E06E5F}" name="Date" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{1B7B50EE-D1EF-4405-B2B9-09BEA9C0CE20}" name="CV" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{3081B1F4-64BE-4187-A6E1-DC702177CD85}" name="Abstract"/>
     <tableColumn id="3" xr3:uid="{DA2DA13C-A841-40A2-B853-0B35F6A9B823}" name="Acknowledgments"/>
+    <tableColumn id="13" xr3:uid="{2A588095-E1AD-45D2-897E-543E2C714E70}" name="Abbreviations"/>
+    <tableColumn id="12" xr3:uid="{0229AEC0-9E19-4B0B-B3ED-98D5438CF4D4}" name="Languages"/>
     <tableColumn id="4" xr3:uid="{0BA49765-B7D9-4DB5-A1E4-08F5207B6352}" name="Conventions"/>
     <tableColumn id="5" xr3:uid="{F82E0ACF-23BB-415C-9848-D5BB5407AF8D}" name="1: Introduction"/>
     <tableColumn id="6" xr3:uid="{A97AC310-0335-4D8A-AE01-93B6C8297A5D}" name="2: Background"/>
@@ -1605,10 +1899,10 @@
     <tableColumn id="8" xr3:uid="{C2A4C48B-7471-4014-9277-4A1B1EF3B40B}" name="4: Results"/>
     <tableColumn id="9" xr3:uid="{58756D61-0637-4214-BD00-EE98CC70539C}" name="5: Conclusion"/>
     <tableColumn id="10" xr3:uid="{457CFC5C-BE64-406D-A9FB-BB2DBEA65B42}" name="Total">
-      <calculatedColumnFormula>SUM(B2:I2)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(C2:L2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{778E3DE4-F274-4416-84BC-FF498402E770}" name="Daily">
-      <calculatedColumnFormula>J2-J1</calculatedColumnFormula>
+      <calculatedColumnFormula>M2-M1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1915,7 +2209,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1927,548 +2221,1726 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.9296875" customWidth="1"/>
+    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>44130</v>
       </c>
       <c r="B2">
+        <v>568</v>
+      </c>
+      <c r="C2">
         <v>243</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>87</v>
       </c>
-      <c r="D2">
+      <c r="E2">
+        <v>132</v>
+      </c>
+      <c r="F2">
+        <v>257</v>
+      </c>
+      <c r="G2">
         <v>535</v>
       </c>
-      <c r="E2">
+      <c r="H2">
         <v>1360</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J7" si="0">SUM(B2:I2)</f>
-        <v>2225</v>
+        <v>0</v>
       </c>
       <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M14" si="0">SUM(C2:L2)</f>
+        <v>2614</v>
+      </c>
+      <c r="N2">
         <v>1360</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>44131</v>
       </c>
       <c r="B3">
+        <v>568</v>
+      </c>
+      <c r="C3">
         <v>243</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>87</v>
       </c>
-      <c r="D3">
+      <c r="E3">
+        <v>132</v>
+      </c>
+      <c r="F3">
+        <v>257</v>
+      </c>
+      <c r="G3">
         <v>535</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>2374</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <f t="shared" si="0"/>
-        <v>3239</v>
-      </c>
-      <c r="K3">
-        <f>J3-J2</f>
+        <v>3628</v>
+      </c>
+      <c r="N3" cm="1">
+        <f t="array" ref="N3">SUM(ABS(C3:L3-C2:L2))</f>
         <v>1014</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>44132</v>
       </c>
       <c r="B4">
+        <v>568</v>
+      </c>
+      <c r="C4">
         <v>243</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>87</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <v>132</v>
+      </c>
+      <c r="F4">
+        <v>257</v>
+      </c>
+      <c r="G4">
         <v>535</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>3175</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <f t="shared" si="0"/>
-        <v>4040</v>
-      </c>
-      <c r="K4">
-        <f>J4-J3</f>
+        <v>4429</v>
+      </c>
+      <c r="N4" cm="1">
+        <f t="array" ref="N4">SUM(ABS(C4:L4-C3:L3))</f>
         <v>801</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44133</v>
       </c>
       <c r="B5">
+        <v>568</v>
+      </c>
+      <c r="C5">
         <v>243</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>87</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <v>132</v>
+      </c>
+      <c r="F5">
+        <v>257</v>
+      </c>
+      <c r="G5">
         <v>535</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>4416</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <f t="shared" si="0"/>
-        <v>5281</v>
-      </c>
-      <c r="K5">
-        <f>J5-J4</f>
+        <v>5670</v>
+      </c>
+      <c r="N5" cm="1">
+        <f t="array" ref="N5">SUM(ABS(C5:L5-C4:L4))</f>
         <v>1241</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>44134</v>
       </c>
       <c r="B6">
+        <v>568</v>
+      </c>
+      <c r="C6">
         <v>243</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>87</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <v>132</v>
+      </c>
+      <c r="F6">
+        <v>257</v>
+      </c>
+      <c r="G6">
         <v>535</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>5179</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <f t="shared" si="0"/>
-        <v>6044</v>
-      </c>
-      <c r="K6">
-        <f>J6-J5</f>
+        <v>6433</v>
+      </c>
+      <c r="N6" cm="1">
+        <f t="array" ref="N6">SUM(ABS(C6:L6-C5:L5))</f>
         <v>763</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>44135</v>
       </c>
       <c r="B7">
+        <v>568</v>
+      </c>
+      <c r="C7">
         <v>239</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>87</v>
       </c>
-      <c r="D7">
+      <c r="E7">
+        <v>132</v>
+      </c>
+      <c r="F7">
+        <v>257</v>
+      </c>
+      <c r="G7">
         <v>528</v>
       </c>
-      <c r="E7">
+      <c r="H7">
         <v>6658</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
       </c>
       <c r="I7">
         <v>5</v>
       </c>
       <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="0"/>
-        <v>7533</v>
-      </c>
-      <c r="K7">
-        <f>J7-J6</f>
-        <v>1489</v>
+        <v>7922</v>
+      </c>
+      <c r="N7" cm="1">
+        <f t="array" ref="N7">SUM(ABS(C7:L7-C6:L6))</f>
+        <v>1511</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>44136</v>
       </c>
       <c r="B8">
+        <v>568</v>
+      </c>
+      <c r="C8">
         <v>239</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>87</v>
       </c>
-      <c r="D8">
+      <c r="E8">
+        <v>132</v>
+      </c>
+      <c r="F8">
+        <v>257</v>
+      </c>
+      <c r="G8">
         <v>528</v>
       </c>
-      <c r="E8">
+      <c r="H8">
         <v>6658</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
       </c>
       <c r="I8">
         <v>5</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:J13" si="1">SUM(B8:I8)</f>
-        <v>7533</v>
+        <v>6</v>
       </c>
       <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>7922</v>
+      </c>
+      <c r="N8">
         <v>621</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>44137</v>
       </c>
       <c r="B9">
+        <v>568</v>
+      </c>
+      <c r="C9">
         <v>239</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>87</v>
       </c>
-      <c r="D9">
+      <c r="E9">
+        <v>132</v>
+      </c>
+      <c r="F9">
+        <v>257</v>
+      </c>
+      <c r="G9">
         <v>528</v>
       </c>
-      <c r="E9">
+      <c r="H9">
         <v>7469</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
       </c>
       <c r="I9">
         <v>5</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
-        <v>8344</v>
+        <v>6</v>
       </c>
       <c r="K9">
-        <f>J9-J8</f>
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>8733</v>
+      </c>
+      <c r="N9" cm="1">
+        <f t="array" ref="N9">SUM(ABS(C9:L9-C8:L8))</f>
         <v>811</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>44138</v>
       </c>
       <c r="B10">
+        <v>568</v>
+      </c>
+      <c r="C10">
         <v>239</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>87</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <v>132</v>
+      </c>
+      <c r="F10">
+        <v>257</v>
+      </c>
+      <c r="G10">
         <v>528</v>
       </c>
-      <c r="E10">
+      <c r="H10">
         <v>7638</v>
       </c>
-      <c r="F10">
+      <c r="I10">
         <v>46</v>
       </c>
-      <c r="G10">
+      <c r="J10">
         <v>6</v>
       </c>
-      <c r="H10">
+      <c r="K10">
         <v>5</v>
       </c>
-      <c r="I10">
+      <c r="L10">
         <v>5</v>
       </c>
-      <c r="J10">
-        <f t="shared" si="1"/>
-        <v>8554</v>
-      </c>
-      <c r="K10">
-        <f>J10-J9</f>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>8943</v>
+      </c>
+      <c r="N10" cm="1">
+        <f t="array" ref="N10">SUM(ABS(C10:L10-C9:L9))</f>
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>44139</v>
       </c>
       <c r="B11">
+        <v>568</v>
+      </c>
+      <c r="C11">
         <v>239</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>87</v>
       </c>
-      <c r="D11">
+      <c r="E11">
+        <v>132</v>
+      </c>
+      <c r="F11">
+        <v>257</v>
+      </c>
+      <c r="G11">
         <v>541</v>
       </c>
-      <c r="E11">
+      <c r="H11">
         <v>7595</v>
       </c>
-      <c r="F11">
+      <c r="I11">
         <v>46</v>
       </c>
-      <c r="G11">
+      <c r="J11">
         <v>6</v>
       </c>
-      <c r="H11">
+      <c r="K11">
         <v>5</v>
       </c>
-      <c r="I11">
+      <c r="L11">
         <v>5</v>
       </c>
-      <c r="J11">
-        <f t="shared" si="1"/>
-        <v>8524</v>
-      </c>
-      <c r="K11" cm="1">
-        <f t="array" ref="K11">SUM(ABS(B11:I11-B10:I10))</f>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>8913</v>
+      </c>
+      <c r="N11" cm="1">
+        <f t="array" ref="N11">SUM(ABS(C11:L11-C10:L10))</f>
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>44142</v>
       </c>
       <c r="B12">
+        <v>568</v>
+      </c>
+      <c r="C12">
         <v>239</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>87</v>
       </c>
-      <c r="D12">
+      <c r="E12">
+        <v>132</v>
+      </c>
+      <c r="F12">
+        <v>257</v>
+      </c>
+      <c r="G12">
         <v>547</v>
       </c>
-      <c r="E12">
+      <c r="H12">
         <v>7413</v>
       </c>
-      <c r="F12">
+      <c r="I12">
         <v>297</v>
       </c>
-      <c r="G12">
+      <c r="J12">
         <v>6</v>
       </c>
-      <c r="H12">
+      <c r="K12">
         <v>5</v>
       </c>
-      <c r="I12">
+      <c r="L12">
         <v>5</v>
       </c>
-      <c r="J12">
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>8988</v>
+      </c>
+      <c r="N12" cm="1">
+        <f t="array" ref="N12">SUM(ABS(C12:L12-C11:L11))</f>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B13">
+        <v>568</v>
+      </c>
+      <c r="C13">
+        <v>239</v>
+      </c>
+      <c r="D13">
+        <v>87</v>
+      </c>
+      <c r="E13">
+        <v>132</v>
+      </c>
+      <c r="F13">
+        <v>257</v>
+      </c>
+      <c r="G13">
+        <v>547</v>
+      </c>
+      <c r="H13">
+        <v>7413</v>
+      </c>
+      <c r="I13">
+        <v>297</v>
+      </c>
+      <c r="J13">
+        <v>6</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>8988</v>
+      </c>
+      <c r="N13">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B14">
+        <v>568</v>
+      </c>
+      <c r="C14">
+        <v>239</v>
+      </c>
+      <c r="D14">
+        <v>87</v>
+      </c>
+      <c r="E14">
+        <v>132</v>
+      </c>
+      <c r="F14">
+        <v>257</v>
+      </c>
+      <c r="G14">
+        <v>547</v>
+      </c>
+      <c r="H14">
+        <v>7413</v>
+      </c>
+      <c r="I14">
+        <v>401</v>
+      </c>
+      <c r="J14">
+        <v>120</v>
+      </c>
+      <c r="K14">
+        <v>117</v>
+      </c>
+      <c r="L14">
+        <v>186</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>9499</v>
+      </c>
+      <c r="N14">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B15">
+        <v>568</v>
+      </c>
+      <c r="C15">
+        <v>236</v>
+      </c>
+      <c r="D15">
+        <v>87</v>
+      </c>
+      <c r="E15">
+        <v>132</v>
+      </c>
+      <c r="F15">
+        <v>257</v>
+      </c>
+      <c r="G15">
+        <v>516</v>
+      </c>
+      <c r="H15">
+        <v>7413</v>
+      </c>
+      <c r="I15">
+        <v>1949</v>
+      </c>
+      <c r="J15">
+        <v>120</v>
+      </c>
+      <c r="K15">
+        <v>117</v>
+      </c>
+      <c r="L15">
+        <v>186</v>
+      </c>
+      <c r="M15">
+        <v>9110</v>
+      </c>
+      <c r="N15">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B16">
+        <v>568</v>
+      </c>
+      <c r="C16">
+        <v>239</v>
+      </c>
+      <c r="D16">
+        <v>87</v>
+      </c>
+      <c r="E16">
+        <v>132</v>
+      </c>
+      <c r="F16">
+        <v>257</v>
+      </c>
+      <c r="G16">
+        <v>547</v>
+      </c>
+      <c r="H16">
+        <v>7413</v>
+      </c>
+      <c r="I16">
+        <v>401</v>
+      </c>
+      <c r="J16">
+        <v>120</v>
+      </c>
+      <c r="K16">
+        <v>117</v>
+      </c>
+      <c r="L16">
+        <v>186</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ref="M16:M34" si="1">SUM(C16:L16)</f>
+        <v>9499</v>
+      </c>
+      <c r="N16">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>44150</v>
+      </c>
+      <c r="B17">
+        <v>568</v>
+      </c>
+      <c r="C17">
+        <v>239</v>
+      </c>
+      <c r="D17">
+        <v>87</v>
+      </c>
+      <c r="E17">
+        <v>132</v>
+      </c>
+      <c r="F17">
+        <v>257</v>
+      </c>
+      <c r="G17">
+        <v>547</v>
+      </c>
+      <c r="H17">
+        <v>7413</v>
+      </c>
+      <c r="I17">
+        <v>577</v>
+      </c>
+      <c r="J17">
+        <v>120</v>
+      </c>
+      <c r="K17">
+        <v>117</v>
+      </c>
+      <c r="L17">
+        <v>186</v>
+      </c>
+      <c r="M17">
         <f t="shared" si="1"/>
-        <v>8599</v>
-      </c>
-      <c r="K12">
-        <f>J12-J11</f>
-        <v>75</v>
+        <v>9675</v>
+      </c>
+      <c r="N17">
+        <v>577</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
-        <v>44144</v>
-      </c>
-      <c r="B13">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B18">
+        <v>568</v>
+      </c>
+      <c r="C18">
+        <v>236</v>
+      </c>
+      <c r="D18">
+        <v>87</v>
+      </c>
+      <c r="E18">
+        <v>132</v>
+      </c>
+      <c r="F18">
+        <v>257</v>
+      </c>
+      <c r="G18">
+        <v>516</v>
+      </c>
+      <c r="H18">
+        <v>7413</v>
+      </c>
+      <c r="I18">
+        <v>1949</v>
+      </c>
+      <c r="J18">
+        <v>120</v>
+      </c>
+      <c r="K18">
+        <v>117</v>
+      </c>
+      <c r="L18">
+        <v>186</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>11013</v>
+      </c>
+      <c r="N18" cm="1">
+        <f t="array" ref="N18">SUM(ABS(C18:L18-C17:L17))</f>
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B19">
+        <v>568</v>
+      </c>
+      <c r="C19">
+        <v>236</v>
+      </c>
+      <c r="D19">
+        <v>87</v>
+      </c>
+      <c r="E19">
+        <v>132</v>
+      </c>
+      <c r="F19">
+        <v>257</v>
+      </c>
+      <c r="G19">
+        <v>516</v>
+      </c>
+      <c r="H19">
+        <v>7413</v>
+      </c>
+      <c r="I19">
+        <v>2284</v>
+      </c>
+      <c r="J19">
+        <v>120</v>
+      </c>
+      <c r="K19">
+        <v>117</v>
+      </c>
+      <c r="L19">
+        <v>186</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>11348</v>
+      </c>
+      <c r="N19" cm="1">
+        <f t="array" ref="N19">SUM(ABS(C19:L19-C18:L18))</f>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B20">
+        <v>568</v>
+      </c>
+      <c r="C20">
+        <v>236</v>
+      </c>
+      <c r="D20">
+        <v>87</v>
+      </c>
+      <c r="E20">
+        <v>132</v>
+      </c>
+      <c r="F20">
+        <v>257</v>
+      </c>
+      <c r="G20">
+        <v>516</v>
+      </c>
+      <c r="H20">
+        <v>7413</v>
+      </c>
+      <c r="I20">
+        <v>3283</v>
+      </c>
+      <c r="J20">
+        <v>120</v>
+      </c>
+      <c r="K20">
+        <v>117</v>
+      </c>
+      <c r="L20">
+        <v>186</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>12347</v>
+      </c>
+      <c r="N20" cm="1">
+        <f t="array" ref="N20">SUM(ABS(C20:L20-C19:L19))</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>44154</v>
+      </c>
+      <c r="B21">
+        <v>568</v>
+      </c>
+      <c r="C21">
+        <v>236</v>
+      </c>
+      <c r="D21">
+        <v>87</v>
+      </c>
+      <c r="E21">
+        <v>132</v>
+      </c>
+      <c r="F21">
+        <v>257</v>
+      </c>
+      <c r="G21">
+        <v>516</v>
+      </c>
+      <c r="H21">
+        <v>7413</v>
+      </c>
+      <c r="I21">
+        <v>3339</v>
+      </c>
+      <c r="J21">
+        <v>120</v>
+      </c>
+      <c r="K21">
+        <v>117</v>
+      </c>
+      <c r="L21">
+        <v>186</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>12403</v>
+      </c>
+      <c r="N21" cm="1">
+        <f t="array" ref="N21">SUM(ABS(C21:L21-C20:L20))</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B22">
+        <v>568</v>
+      </c>
+      <c r="C22">
+        <v>236</v>
+      </c>
+      <c r="D22">
+        <v>87</v>
+      </c>
+      <c r="E22">
+        <v>132</v>
+      </c>
+      <c r="F22">
+        <v>257</v>
+      </c>
+      <c r="G22">
+        <v>516</v>
+      </c>
+      <c r="H22">
+        <v>7413</v>
+      </c>
+      <c r="I22">
+        <v>4475</v>
+      </c>
+      <c r="J22">
+        <v>120</v>
+      </c>
+      <c r="K22">
+        <v>117</v>
+      </c>
+      <c r="L22">
+        <v>186</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>13539</v>
+      </c>
+      <c r="N22" cm="1">
+        <f t="array" ref="N22">SUM(ABS(C22:L22-C21:L21))</f>
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>44156</v>
+      </c>
+      <c r="B23">
+        <v>568</v>
+      </c>
+      <c r="C23">
+        <v>236</v>
+      </c>
+      <c r="D23">
+        <v>87</v>
+      </c>
+      <c r="E23">
+        <v>132</v>
+      </c>
+      <c r="F23">
+        <v>257</v>
+      </c>
+      <c r="G23">
+        <v>516</v>
+      </c>
+      <c r="H23">
+        <v>7413</v>
+      </c>
+      <c r="I23">
+        <v>5154</v>
+      </c>
+      <c r="J23">
+        <v>120</v>
+      </c>
+      <c r="K23">
+        <v>117</v>
+      </c>
+      <c r="L23">
+        <v>186</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>14218</v>
+      </c>
+      <c r="N23" cm="1">
+        <f t="array" ref="N23">SUM(ABS(C23:L23-C22:L22))</f>
+        <v>679</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>44157</v>
+      </c>
+      <c r="B24">
+        <v>568</v>
+      </c>
+      <c r="C24">
+        <v>236</v>
+      </c>
+      <c r="D24">
+        <v>87</v>
+      </c>
+      <c r="E24">
+        <v>132</v>
+      </c>
+      <c r="F24">
+        <v>257</v>
+      </c>
+      <c r="G24">
+        <v>516</v>
+      </c>
+      <c r="H24">
+        <v>7461</v>
+      </c>
+      <c r="I24">
+        <v>6928</v>
+      </c>
+      <c r="J24">
+        <v>120</v>
+      </c>
+      <c r="K24">
+        <v>117</v>
+      </c>
+      <c r="L24">
+        <v>186</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>16040</v>
+      </c>
+      <c r="N24" cm="1">
+        <f t="array" ref="N24">SUM(ABS(C24:L24-C23:L23))</f>
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>44158</v>
+      </c>
+      <c r="B25">
+        <v>568</v>
+      </c>
+      <c r="C25">
+        <v>236</v>
+      </c>
+      <c r="D25">
+        <v>87</v>
+      </c>
+      <c r="E25">
+        <v>132</v>
+      </c>
+      <c r="F25">
+        <v>257</v>
+      </c>
+      <c r="G25">
+        <v>516</v>
+      </c>
+      <c r="H25">
+        <v>7461</v>
+      </c>
+      <c r="I25">
+        <v>7084</v>
+      </c>
+      <c r="J25">
+        <v>120</v>
+      </c>
+      <c r="K25">
+        <v>117</v>
+      </c>
+      <c r="L25">
+        <v>186</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>16196</v>
+      </c>
+      <c r="N25" cm="1">
+        <f t="array" ref="N25">SUM(ABS(C25:L25-C24:L24))</f>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B26">
+        <v>568</v>
+      </c>
+      <c r="C26">
+        <v>236</v>
+      </c>
+      <c r="D26">
+        <v>87</v>
+      </c>
+      <c r="E26">
+        <v>132</v>
+      </c>
+      <c r="F26">
+        <v>257</v>
+      </c>
+      <c r="G26">
+        <v>516</v>
+      </c>
+      <c r="H26">
+        <v>7562</v>
+      </c>
+      <c r="I26">
+        <v>8611</v>
+      </c>
+      <c r="J26">
+        <v>120</v>
+      </c>
+      <c r="K26">
+        <v>117</v>
+      </c>
+      <c r="L26">
+        <v>186</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>17824</v>
+      </c>
+      <c r="N26" cm="1">
+        <f t="array" ref="N26">SUM(ABS(C26:L26-C25:L25))</f>
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B27">
+        <v>568</v>
+      </c>
+      <c r="C27">
+        <v>236</v>
+      </c>
+      <c r="D27">
+        <v>87</v>
+      </c>
+      <c r="E27">
+        <v>132</v>
+      </c>
+      <c r="F27">
+        <v>257</v>
+      </c>
+      <c r="G27">
+        <v>516</v>
+      </c>
+      <c r="H27">
+        <v>7562</v>
+      </c>
+      <c r="I27">
+        <v>9516</v>
+      </c>
+      <c r="J27">
+        <v>120</v>
+      </c>
+      <c r="K27">
+        <v>117</v>
+      </c>
+      <c r="L27">
+        <v>186</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>18729</v>
+      </c>
+      <c r="N27" cm="1">
+        <f t="array" ref="N27">SUM(ABS(C27:L27-C26:L26))</f>
+        <v>905</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B28">
+        <v>568</v>
+      </c>
+      <c r="C28">
+        <v>236</v>
+      </c>
+      <c r="D28">
+        <v>87</v>
+      </c>
+      <c r="E28">
+        <v>132</v>
+      </c>
+      <c r="F28">
+        <v>257</v>
+      </c>
+      <c r="G28">
+        <v>516</v>
+      </c>
+      <c r="H28">
+        <v>7562</v>
+      </c>
+      <c r="I28">
+        <v>9719</v>
+      </c>
+      <c r="J28">
+        <v>120</v>
+      </c>
+      <c r="K28">
+        <v>117</v>
+      </c>
+      <c r="L28">
+        <v>186</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>18932</v>
+      </c>
+      <c r="N28" cm="1">
+        <f t="array" ref="N28">SUM(ABS(C28:L28-C27:L27))</f>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>44162</v>
+      </c>
+      <c r="B29">
+        <v>568</v>
+      </c>
+      <c r="C29">
+        <v>236</v>
+      </c>
+      <c r="D29">
+        <v>87</v>
+      </c>
+      <c r="E29">
+        <v>132</v>
+      </c>
+      <c r="F29">
+        <v>257</v>
+      </c>
+      <c r="G29">
+        <v>516</v>
+      </c>
+      <c r="H29">
+        <v>7562</v>
+      </c>
+      <c r="I29">
+        <v>10081</v>
+      </c>
+      <c r="J29">
+        <v>120</v>
+      </c>
+      <c r="K29">
+        <v>117</v>
+      </c>
+      <c r="L29">
+        <v>186</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>19294</v>
+      </c>
+      <c r="N29" cm="1">
+        <f t="array" ref="N29">SUM(ABS(C29:L29-C28:L28))</f>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B30">
+        <v>568</v>
+      </c>
+      <c r="C30">
+        <v>236</v>
+      </c>
+      <c r="D30">
+        <v>87</v>
+      </c>
+      <c r="E30">
+        <v>132</v>
+      </c>
+      <c r="F30">
+        <v>257</v>
+      </c>
+      <c r="G30">
+        <v>516</v>
+      </c>
+      <c r="H30">
+        <v>7574</v>
+      </c>
+      <c r="I30">
+        <v>13033</v>
+      </c>
+      <c r="J30">
+        <v>120</v>
+      </c>
+      <c r="K30">
+        <v>117</v>
+      </c>
+      <c r="L30">
+        <v>186</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="1"/>
+        <v>22258</v>
+      </c>
+      <c r="N30" cm="1">
+        <f t="array" ref="N30">SUM(ABS(C30:L30-C29:L29))</f>
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>44164</v>
+      </c>
+      <c r="B31">
+        <v>568</v>
+      </c>
+      <c r="C31">
+        <v>236</v>
+      </c>
+      <c r="D31">
+        <v>87</v>
+      </c>
+      <c r="E31">
+        <v>132</v>
+      </c>
+      <c r="F31">
+        <v>257</v>
+      </c>
+      <c r="G31">
+        <v>516</v>
+      </c>
+      <c r="H31">
+        <v>7574</v>
+      </c>
+      <c r="I31">
+        <v>14905</v>
+      </c>
+      <c r="J31">
+        <v>120</v>
+      </c>
+      <c r="K31">
+        <v>117</v>
+      </c>
+      <c r="L31">
+        <v>186</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>24130</v>
+      </c>
+      <c r="N31" cm="1">
+        <f t="array" ref="N31">SUM(ABS(C31:L31-C30:L30))</f>
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B32">
+        <v>568</v>
+      </c>
+      <c r="C32">
+        <v>236</v>
+      </c>
+      <c r="D32">
+        <v>87</v>
+      </c>
+      <c r="E32">
+        <v>132</v>
+      </c>
+      <c r="F32">
+        <v>257</v>
+      </c>
+      <c r="G32">
+        <v>516</v>
+      </c>
+      <c r="H32">
+        <v>7723</v>
+      </c>
+      <c r="I32">
+        <v>16092</v>
+      </c>
+      <c r="J32">
+        <v>120</v>
+      </c>
+      <c r="K32">
+        <v>117</v>
+      </c>
+      <c r="L32">
+        <v>186</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>25466</v>
+      </c>
+      <c r="N32" cm="1">
+        <f t="array" ref="N32">SUM(ABS(C32:L32-C31:L31))</f>
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B33">
+        <v>568</v>
+      </c>
+      <c r="C33">
+        <v>236</v>
+      </c>
+      <c r="D33">
+        <v>87</v>
+      </c>
+      <c r="E33">
+        <v>132</v>
+      </c>
+      <c r="F33">
+        <v>257</v>
+      </c>
+      <c r="G33">
+        <v>516</v>
+      </c>
+      <c r="H33">
+        <v>7723</v>
+      </c>
+      <c r="I33">
+        <v>18481</v>
+      </c>
+      <c r="J33">
+        <v>120</v>
+      </c>
+      <c r="K33">
+        <v>117</v>
+      </c>
+      <c r="L33">
+        <v>186</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="1"/>
+        <v>27855</v>
+      </c>
+      <c r="N33" cm="1">
+        <f t="array" ref="N33">SUM(ABS(C33:L33-C32:L32))</f>
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B34">
+        <v>568</v>
+      </c>
+      <c r="C34">
+        <v>236</v>
+      </c>
+      <c r="D34">
+        <v>87</v>
+      </c>
+      <c r="E34">
+        <v>191</v>
+      </c>
+      <c r="F34">
+        <v>257</v>
+      </c>
+      <c r="G34">
+        <v>516</v>
+      </c>
+      <c r="H34">
+        <v>7724</v>
+      </c>
+      <c r="I34">
+        <v>20212</v>
+      </c>
+      <c r="J34">
+        <v>120</v>
+      </c>
+      <c r="K34">
+        <v>117</v>
+      </c>
+      <c r="L34">
+        <v>186</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="1"/>
+        <v>29646</v>
+      </c>
+      <c r="N34" cm="1">
+        <f t="array" ref="N34">SUM(ABS(C34:L34-C33:L33))</f>
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B35">
+        <v>568</v>
+      </c>
+      <c r="C35">
+        <v>236</v>
+      </c>
+      <c r="D35">
+        <v>87</v>
+      </c>
+      <c r="E35">
+        <v>198</v>
+      </c>
+      <c r="F35">
+        <v>492</v>
+      </c>
+      <c r="G35">
+        <v>414</v>
+      </c>
+      <c r="H35">
+        <v>7700</v>
+      </c>
+      <c r="I35">
+        <v>20099</v>
+      </c>
+      <c r="J35">
+        <v>120</v>
+      </c>
+      <c r="K35">
+        <v>117</v>
+      </c>
+      <c r="L35">
+        <v>186</v>
+      </c>
+      <c r="M35">
+        <f>SUM(C35:L35)</f>
+        <v>29649</v>
+      </c>
+      <c r="N35" cm="1">
+        <f t="array" ref="N35">SUM(ABS(C35:L35-C34:L34))</f>
+        <v>481</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B36">
+        <v>568</v>
+      </c>
+      <c r="C36">
+        <v>236</v>
+      </c>
+      <c r="D36">
+        <v>87</v>
+      </c>
+      <c r="E36">
+        <v>198</v>
+      </c>
+      <c r="F36">
+        <v>492</v>
+      </c>
+      <c r="G36">
+        <v>414</v>
+      </c>
+      <c r="H36">
+        <v>7700</v>
+      </c>
+      <c r="I36">
+        <v>20099</v>
+      </c>
+      <c r="J36">
+        <v>120</v>
+      </c>
+      <c r="K36">
+        <v>117</v>
+      </c>
+      <c r="L36">
+        <v>186</v>
+      </c>
+      <c r="M36">
+        <f>SUM(C36:L36)</f>
+        <v>29649</v>
+      </c>
+      <c r="N36" cm="1">
+        <f t="array" ref="N36">SUM(ABS(C36:L36-C35:L35))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B37">
+        <v>568</v>
+      </c>
+      <c r="C37">
         <v>239</v>
       </c>
-      <c r="C13">
+      <c r="D37">
         <v>87</v>
       </c>
-      <c r="D13">
-        <v>547</v>
-      </c>
-      <c r="E13">
-        <v>7413</v>
-      </c>
-      <c r="F13">
-        <v>401</v>
-      </c>
-      <c r="G13">
+      <c r="E37">
+        <v>198</v>
+      </c>
+      <c r="F37">
+        <v>492</v>
+      </c>
+      <c r="G37">
+        <v>416</v>
+      </c>
+      <c r="H37">
+        <v>7694</v>
+      </c>
+      <c r="I37">
+        <v>19648</v>
+      </c>
+      <c r="J37">
         <v>120</v>
       </c>
-      <c r="H13">
-        <v>117</v>
-      </c>
-      <c r="I13">
+      <c r="K37">
+        <v>116</v>
+      </c>
+      <c r="L37">
         <v>186</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="1"/>
-        <v>9110</v>
-      </c>
-      <c r="K13">
-        <f>J13-J12</f>
-        <v>511</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="1">
-        <v>44146</v>
-      </c>
-      <c r="B14">
-        <v>239</v>
-      </c>
-      <c r="C14">
-        <v>87</v>
-      </c>
-      <c r="D14">
-        <v>547</v>
-      </c>
-      <c r="E14">
-        <v>7413</v>
-      </c>
-      <c r="F14">
-        <v>401</v>
-      </c>
-      <c r="G14">
-        <v>120</v>
-      </c>
-      <c r="H14">
-        <v>117</v>
-      </c>
-      <c r="I14">
-        <v>186</v>
-      </c>
-      <c r="J14">
-        <f>SUM(B14:I14)</f>
-        <v>9110</v>
-      </c>
-      <c r="K14">
-        <v>2671</v>
+      <c r="M37">
+        <f>SUM(C37:L37)</f>
+        <v>29196</v>
+      </c>
+      <c r="N37" cm="1">
+        <f t="array" ref="N37">SUM(ABS(C37:L37-C36:L36))</f>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="J2:J14" formulaRange="1"/>
-    <ignoredError sqref="K2 K8 K14" calculatedColumn="1"/>
-    <ignoredError sqref="K11" formulaRange="1" calculatedColumn="1"/>
-  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="462" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{374E9537-1254-46EA-B8F6-FCF72BFE24DB}"/>
+  <xr:revisionPtr revIDLastSave="464" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{01241703-5F80-4AA0-9EE5-170192A9B235}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
     <sheet name="writing" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1846,10 +1846,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>195262</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="464" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{01241703-5F80-4AA0-9EE5-170192A9B235}"/>
+  <xr:revisionPtr revIDLastSave="469" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{29E3E711-C12D-4DF5-9389-E6088CA82E04}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
@@ -345,10 +345,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$37</c:f>
+              <c:f>writing!$A$2:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -456,16 +456,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44174</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$N$2:$N$37</c:f>
+              <c:f>writing!$N$2:$N$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -573,6 +576,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -684,10 +690,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$37</c:f>
+              <c:f>writing!$A$2:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -795,16 +801,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44174</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$M$2:$M$37</c:f>
+              <c:f>writing!$M$2:$M$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>2614</c:v>
                 </c:pt>
@@ -912,6 +921,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>29196</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1880,8 +1892,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:N37" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:N37" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:N38" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:N38" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -2221,10 +2233,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+      <selection activeCell="B38" sqref="B38:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3938,6 +3950,52 @@
         <v>463</v>
       </c>
     </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B38">
+        <v>568</v>
+      </c>
+      <c r="C38">
+        <v>239</v>
+      </c>
+      <c r="D38">
+        <v>87</v>
+      </c>
+      <c r="E38">
+        <v>198</v>
+      </c>
+      <c r="F38">
+        <v>492</v>
+      </c>
+      <c r="G38">
+        <v>416</v>
+      </c>
+      <c r="H38">
+        <v>7945</v>
+      </c>
+      <c r="I38">
+        <v>19649</v>
+      </c>
+      <c r="J38">
+        <v>120</v>
+      </c>
+      <c r="K38">
+        <v>116</v>
+      </c>
+      <c r="L38">
+        <v>186</v>
+      </c>
+      <c r="M38">
+        <f>SUM(C38:L38)</f>
+        <v>29448</v>
+      </c>
+      <c r="N38">
+        <f>M38-M37</f>
+        <v>252</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="469" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{29E3E711-C12D-4DF5-9389-E6088CA82E04}"/>
+  <xr:revisionPtr revIDLastSave="473" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3F2BFBE3-C233-402A-A310-C7FB6D30982A}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
@@ -345,10 +345,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$38</c:f>
+              <c:f>writing!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -459,16 +459,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$N$2:$N$38</c:f>
+              <c:f>writing!$N$2:$N$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -579,6 +582,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -690,10 +696,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$38</c:f>
+              <c:f>writing!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -804,16 +810,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$M$2:$M$38</c:f>
+              <c:f>writing!$M$2:$M$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2614</c:v>
                 </c:pt>
@@ -924,6 +933,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>29448</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>29577</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1892,8 +1904,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:N38" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:N38" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:N39" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:N39" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -2220,7 +2232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
@@ -2233,10 +2245,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:G38"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3991,9 +4003,55 @@
         <f>SUM(C38:L38)</f>
         <v>29448</v>
       </c>
-      <c r="N38">
-        <f>M38-M37</f>
+      <c r="N38" cm="1">
+        <f t="array" ref="N38">SUM(ABS(C38:L38-C37:L37))</f>
         <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A39" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B39">
+        <v>568</v>
+      </c>
+      <c r="C39">
+        <v>239</v>
+      </c>
+      <c r="D39">
+        <v>87</v>
+      </c>
+      <c r="E39">
+        <v>198</v>
+      </c>
+      <c r="F39">
+        <v>492</v>
+      </c>
+      <c r="G39">
+        <v>416</v>
+      </c>
+      <c r="H39">
+        <v>8074</v>
+      </c>
+      <c r="I39">
+        <v>19649</v>
+      </c>
+      <c r="J39">
+        <v>120</v>
+      </c>
+      <c r="K39">
+        <v>116</v>
+      </c>
+      <c r="L39">
+        <v>186</v>
+      </c>
+      <c r="M39">
+        <f>SUM(C39:L39)</f>
+        <v>29577</v>
+      </c>
+      <c r="N39" cm="1">
+        <f t="array" ref="N39">SUM(ABS(C39:L39-C38:L38))</f>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="473" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3F2BFBE3-C233-402A-A310-C7FB6D30982A}"/>
+  <xr:revisionPtr revIDLastSave="484" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{38D92726-694C-4A26-A6F6-61DEE65B8363}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
@@ -345,10 +345,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$39</c:f>
+              <c:f>writing!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -462,16 +462,22 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$N$2:$N$39</c:f>
+              <c:f>writing!$N$2:$N$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -585,6 +591,12 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>511</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -696,10 +708,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$39</c:f>
+              <c:f>writing!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -813,16 +825,22 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$M$2:$M$39</c:f>
+              <c:f>writing!$M$2:$M$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>2614</c:v>
                 </c:pt>
@@ -936,6 +954,12 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>29577</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>29714</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>30225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1870,7 +1894,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1904,8 +1928,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:N39" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:N39" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:N41" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:N41" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -2232,8 +2256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z33" sqref="Z33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2245,10 +2269,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3862,7 +3886,7 @@
         <v>186</v>
       </c>
       <c r="M35">
-        <f>SUM(C35:L35)</f>
+        <f t="shared" ref="M35:M40" si="2">SUM(C35:L35)</f>
         <v>29649</v>
       </c>
       <c r="N35" cm="1">
@@ -3908,7 +3932,7 @@
         <v>186</v>
       </c>
       <c r="M36">
-        <f>SUM(C36:L36)</f>
+        <f t="shared" si="2"/>
         <v>29649</v>
       </c>
       <c r="N36" cm="1">
@@ -3954,7 +3978,7 @@
         <v>186</v>
       </c>
       <c r="M37">
-        <f>SUM(C37:L37)</f>
+        <f t="shared" si="2"/>
         <v>29196</v>
       </c>
       <c r="N37" cm="1">
@@ -4000,7 +4024,7 @@
         <v>186</v>
       </c>
       <c r="M38">
-        <f>SUM(C38:L38)</f>
+        <f t="shared" si="2"/>
         <v>29448</v>
       </c>
       <c r="N38" cm="1">
@@ -4046,12 +4070,104 @@
         <v>186</v>
       </c>
       <c r="M39">
-        <f>SUM(C39:L39)</f>
+        <f t="shared" si="2"/>
         <v>29577</v>
       </c>
       <c r="N39" cm="1">
         <f t="array" ref="N39">SUM(ABS(C39:L39-C38:L38))</f>
         <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A40" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B40">
+        <v>568</v>
+      </c>
+      <c r="C40">
+        <v>239</v>
+      </c>
+      <c r="D40">
+        <v>87</v>
+      </c>
+      <c r="E40">
+        <v>198</v>
+      </c>
+      <c r="F40">
+        <v>492</v>
+      </c>
+      <c r="G40">
+        <v>416</v>
+      </c>
+      <c r="H40">
+        <v>8074</v>
+      </c>
+      <c r="I40">
+        <v>19786</v>
+      </c>
+      <c r="J40">
+        <v>120</v>
+      </c>
+      <c r="K40">
+        <v>116</v>
+      </c>
+      <c r="L40">
+        <v>186</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="2"/>
+        <v>29714</v>
+      </c>
+      <c r="N40">
+        <f>M40-M39</f>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A41" s="1">
+        <v>44177</v>
+      </c>
+      <c r="B41">
+        <v>568</v>
+      </c>
+      <c r="C41">
+        <v>239</v>
+      </c>
+      <c r="D41">
+        <v>87</v>
+      </c>
+      <c r="E41">
+        <v>198</v>
+      </c>
+      <c r="F41">
+        <v>492</v>
+      </c>
+      <c r="G41">
+        <v>416</v>
+      </c>
+      <c r="H41">
+        <v>8506</v>
+      </c>
+      <c r="I41">
+        <v>19865</v>
+      </c>
+      <c r="J41">
+        <v>120</v>
+      </c>
+      <c r="K41">
+        <v>116</v>
+      </c>
+      <c r="L41">
+        <v>186</v>
+      </c>
+      <c r="M41">
+        <f>SUM(C41:L41)</f>
+        <v>30225</v>
+      </c>
+      <c r="N41">
+        <f>M41-M40</f>
+        <v>511</v>
       </c>
     </row>
   </sheetData>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="484" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{38D92726-694C-4A26-A6F6-61DEE65B8363}"/>
+  <xr:revisionPtr revIDLastSave="490" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BF15400B-8A26-4490-A955-AE812D1798BA}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
@@ -345,10 +345,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$41</c:f>
+              <c:f>writing!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -468,16 +468,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$N$2:$N$41</c:f>
+              <c:f>writing!$N$2:$N$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -597,6 +600,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -708,10 +714,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$41</c:f>
+              <c:f>writing!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -831,16 +837,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$M$2:$M$41</c:f>
+              <c:f>writing!$M$2:$M$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>2614</c:v>
                 </c:pt>
@@ -960,6 +969,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>30225</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>30224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1928,8 +1940,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:N41" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:N41" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:N42" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:N42" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -2257,7 +2269,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z33" sqref="Z33"/>
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2269,10 +2281,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41:L41"/>
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4119,8 +4131,8 @@
         <f t="shared" si="2"/>
         <v>29714</v>
       </c>
-      <c r="N40">
-        <f>M40-M39</f>
+      <c r="N40" cm="1">
+        <f t="array" ref="N40">SUM(ABS(C40:L40-C39:L39))</f>
         <v>137</v>
       </c>
     </row>
@@ -4165,9 +4177,55 @@
         <f>SUM(C41:L41)</f>
         <v>30225</v>
       </c>
-      <c r="N41">
-        <f>M41-M40</f>
+      <c r="N41" cm="1">
+        <f t="array" ref="N41">SUM(ABS(C41:L41-C40:L40))</f>
         <v>511</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A42" s="1">
+        <v>44178</v>
+      </c>
+      <c r="B42">
+        <v>568</v>
+      </c>
+      <c r="C42">
+        <v>239</v>
+      </c>
+      <c r="D42">
+        <v>87</v>
+      </c>
+      <c r="E42">
+        <v>198</v>
+      </c>
+      <c r="F42">
+        <v>492</v>
+      </c>
+      <c r="G42">
+        <v>416</v>
+      </c>
+      <c r="H42">
+        <v>8506</v>
+      </c>
+      <c r="I42">
+        <v>19864</v>
+      </c>
+      <c r="J42">
+        <v>120</v>
+      </c>
+      <c r="K42">
+        <v>116</v>
+      </c>
+      <c r="L42">
+        <v>186</v>
+      </c>
+      <c r="M42">
+        <f>SUM(C42:L42)</f>
+        <v>30224</v>
+      </c>
+      <c r="N42" cm="1">
+        <f t="array" ref="N42">SUM(ABS(C42:L42-C41:L41))</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="462" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{374E9537-1254-46EA-B8F6-FCF72BFE24DB}"/>
+  <xr:revisionPtr revIDLastSave="490" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BF15400B-8A26-4490-A955-AE812D1798BA}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
     <sheet name="writing" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -345,10 +345,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$37</c:f>
+              <c:f>writing!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -456,16 +456,31 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$N$2:$N$37</c:f>
+              <c:f>writing!$N$2:$N$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -573,6 +588,21 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -684,10 +714,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$37</c:f>
+              <c:f>writing!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -795,16 +825,31 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$M$2:$M$37</c:f>
+              <c:f>writing!$M$2:$M$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>2614</c:v>
                 </c:pt>
@@ -912,6 +957,21 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>29196</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29448</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>29577</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>29714</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>30225</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>30224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1846,10 +1906,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>195262</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1880,8 +1940,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:N37" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:N37" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:N42" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:N42" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -2209,7 +2269,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2221,10 +2281,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3838,7 +3898,7 @@
         <v>186</v>
       </c>
       <c r="M35">
-        <f>SUM(C35:L35)</f>
+        <f t="shared" ref="M35:M40" si="2">SUM(C35:L35)</f>
         <v>29649</v>
       </c>
       <c r="N35" cm="1">
@@ -3884,7 +3944,7 @@
         <v>186</v>
       </c>
       <c r="M36">
-        <f>SUM(C36:L36)</f>
+        <f t="shared" si="2"/>
         <v>29649</v>
       </c>
       <c r="N36" cm="1">
@@ -3930,12 +3990,242 @@
         <v>186</v>
       </c>
       <c r="M37">
-        <f>SUM(C37:L37)</f>
+        <f t="shared" si="2"/>
         <v>29196</v>
       </c>
       <c r="N37" cm="1">
         <f t="array" ref="N37">SUM(ABS(C37:L37-C36:L36))</f>
         <v>463</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B38">
+        <v>568</v>
+      </c>
+      <c r="C38">
+        <v>239</v>
+      </c>
+      <c r="D38">
+        <v>87</v>
+      </c>
+      <c r="E38">
+        <v>198</v>
+      </c>
+      <c r="F38">
+        <v>492</v>
+      </c>
+      <c r="G38">
+        <v>416</v>
+      </c>
+      <c r="H38">
+        <v>7945</v>
+      </c>
+      <c r="I38">
+        <v>19649</v>
+      </c>
+      <c r="J38">
+        <v>120</v>
+      </c>
+      <c r="K38">
+        <v>116</v>
+      </c>
+      <c r="L38">
+        <v>186</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="2"/>
+        <v>29448</v>
+      </c>
+      <c r="N38" cm="1">
+        <f t="array" ref="N38">SUM(ABS(C38:L38-C37:L37))</f>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A39" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B39">
+        <v>568</v>
+      </c>
+      <c r="C39">
+        <v>239</v>
+      </c>
+      <c r="D39">
+        <v>87</v>
+      </c>
+      <c r="E39">
+        <v>198</v>
+      </c>
+      <c r="F39">
+        <v>492</v>
+      </c>
+      <c r="G39">
+        <v>416</v>
+      </c>
+      <c r="H39">
+        <v>8074</v>
+      </c>
+      <c r="I39">
+        <v>19649</v>
+      </c>
+      <c r="J39">
+        <v>120</v>
+      </c>
+      <c r="K39">
+        <v>116</v>
+      </c>
+      <c r="L39">
+        <v>186</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="2"/>
+        <v>29577</v>
+      </c>
+      <c r="N39" cm="1">
+        <f t="array" ref="N39">SUM(ABS(C39:L39-C38:L38))</f>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A40" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B40">
+        <v>568</v>
+      </c>
+      <c r="C40">
+        <v>239</v>
+      </c>
+      <c r="D40">
+        <v>87</v>
+      </c>
+      <c r="E40">
+        <v>198</v>
+      </c>
+      <c r="F40">
+        <v>492</v>
+      </c>
+      <c r="G40">
+        <v>416</v>
+      </c>
+      <c r="H40">
+        <v>8074</v>
+      </c>
+      <c r="I40">
+        <v>19786</v>
+      </c>
+      <c r="J40">
+        <v>120</v>
+      </c>
+      <c r="K40">
+        <v>116</v>
+      </c>
+      <c r="L40">
+        <v>186</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="2"/>
+        <v>29714</v>
+      </c>
+      <c r="N40" cm="1">
+        <f t="array" ref="N40">SUM(ABS(C40:L40-C39:L39))</f>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A41" s="1">
+        <v>44177</v>
+      </c>
+      <c r="B41">
+        <v>568</v>
+      </c>
+      <c r="C41">
+        <v>239</v>
+      </c>
+      <c r="D41">
+        <v>87</v>
+      </c>
+      <c r="E41">
+        <v>198</v>
+      </c>
+      <c r="F41">
+        <v>492</v>
+      </c>
+      <c r="G41">
+        <v>416</v>
+      </c>
+      <c r="H41">
+        <v>8506</v>
+      </c>
+      <c r="I41">
+        <v>19865</v>
+      </c>
+      <c r="J41">
+        <v>120</v>
+      </c>
+      <c r="K41">
+        <v>116</v>
+      </c>
+      <c r="L41">
+        <v>186</v>
+      </c>
+      <c r="M41">
+        <f>SUM(C41:L41)</f>
+        <v>30225</v>
+      </c>
+      <c r="N41" cm="1">
+        <f t="array" ref="N41">SUM(ABS(C41:L41-C40:L40))</f>
+        <v>511</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A42" s="1">
+        <v>44178</v>
+      </c>
+      <c r="B42">
+        <v>568</v>
+      </c>
+      <c r="C42">
+        <v>239</v>
+      </c>
+      <c r="D42">
+        <v>87</v>
+      </c>
+      <c r="E42">
+        <v>198</v>
+      </c>
+      <c r="F42">
+        <v>492</v>
+      </c>
+      <c r="G42">
+        <v>416</v>
+      </c>
+      <c r="H42">
+        <v>8506</v>
+      </c>
+      <c r="I42">
+        <v>19864</v>
+      </c>
+      <c r="J42">
+        <v>120</v>
+      </c>
+      <c r="K42">
+        <v>116</v>
+      </c>
+      <c r="L42">
+        <v>186</v>
+      </c>
+      <c r="M42">
+        <f>SUM(C42:L42)</f>
+        <v>30224</v>
+      </c>
+      <c r="N42" cm="1">
+        <f t="array" ref="N42">SUM(ABS(C42:L42-C41:L41))</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="490" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BF15400B-8A26-4490-A955-AE812D1798BA}"/>
+  <xr:revisionPtr revIDLastSave="494" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{66B0AD50-16EF-40B0-8AAC-57ABF550F5F1}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
@@ -345,10 +345,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$42</c:f>
+              <c:f>writing!$A$2:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -471,16 +471,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$N$2:$N$42</c:f>
+              <c:f>writing!$N$2:$N$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -603,6 +606,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -714,10 +720,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$42</c:f>
+              <c:f>writing!$A$2:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -840,16 +846,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$M$2:$M$42</c:f>
+              <c:f>writing!$M$2:$M$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>2614</c:v>
                 </c:pt>
@@ -972,6 +981,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>30224</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1940,8 +1952,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:N42" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:N42" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:N43" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:N43" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -2268,7 +2280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
@@ -2281,10 +2293,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43:L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4228,6 +4240,52 @@
         <v>1</v>
       </c>
     </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B43">
+        <v>568</v>
+      </c>
+      <c r="C43">
+        <v>239</v>
+      </c>
+      <c r="D43">
+        <v>87</v>
+      </c>
+      <c r="E43">
+        <v>198</v>
+      </c>
+      <c r="F43">
+        <v>492</v>
+      </c>
+      <c r="G43">
+        <v>416</v>
+      </c>
+      <c r="H43">
+        <v>8506</v>
+      </c>
+      <c r="I43">
+        <v>19864</v>
+      </c>
+      <c r="J43">
+        <v>493</v>
+      </c>
+      <c r="K43">
+        <v>116</v>
+      </c>
+      <c r="L43">
+        <v>186</v>
+      </c>
+      <c r="M43">
+        <f>SUM(C43:L43)</f>
+        <v>30597</v>
+      </c>
+      <c r="N43">
+        <f>M43-M42</f>
+        <v>373</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="494" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{66B0AD50-16EF-40B0-8AAC-57ABF550F5F1}"/>
+  <xr:revisionPtr revIDLastSave="506" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{40751E2A-CDC9-4C11-8082-D078BF22E25C}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
@@ -345,10 +345,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$43</c:f>
+              <c:f>writing!$A$2:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -474,16 +474,22 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$N$2:$N$43</c:f>
+              <c:f>writing!$N$2:$N$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -609,6 +615,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>708</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -720,10 +732,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$43</c:f>
+              <c:f>writing!$A$2:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -849,16 +861,22 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$M$2:$M$43</c:f>
+              <c:f>writing!$M$2:$M$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>2614</c:v>
                 </c:pt>
@@ -984,6 +1002,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>30597</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>31305</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>32614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1952,8 +1976,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:N43" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:N43" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:N45" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:N45" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -2293,10 +2317,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43:L43"/>
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4286,6 +4310,98 @@
         <v>373</v>
       </c>
     </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>44180</v>
+      </c>
+      <c r="B44">
+        <v>568</v>
+      </c>
+      <c r="C44">
+        <v>239</v>
+      </c>
+      <c r="D44">
+        <v>87</v>
+      </c>
+      <c r="E44">
+        <v>198</v>
+      </c>
+      <c r="F44">
+        <v>492</v>
+      </c>
+      <c r="G44">
+        <v>416</v>
+      </c>
+      <c r="H44">
+        <v>8506</v>
+      </c>
+      <c r="I44">
+        <v>19864</v>
+      </c>
+      <c r="J44">
+        <v>1201</v>
+      </c>
+      <c r="K44">
+        <v>116</v>
+      </c>
+      <c r="L44">
+        <v>186</v>
+      </c>
+      <c r="M44">
+        <f>SUM(C44:L44)</f>
+        <v>31305</v>
+      </c>
+      <c r="N44">
+        <f>M44-M43</f>
+        <v>708</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B45">
+        <v>568</v>
+      </c>
+      <c r="C45">
+        <v>239</v>
+      </c>
+      <c r="D45">
+        <v>87</v>
+      </c>
+      <c r="E45">
+        <v>198</v>
+      </c>
+      <c r="F45">
+        <v>492</v>
+      </c>
+      <c r="G45">
+        <v>416</v>
+      </c>
+      <c r="H45">
+        <v>8524</v>
+      </c>
+      <c r="I45">
+        <v>19896</v>
+      </c>
+      <c r="J45">
+        <v>2460</v>
+      </c>
+      <c r="K45">
+        <v>116</v>
+      </c>
+      <c r="L45">
+        <v>186</v>
+      </c>
+      <c r="M45">
+        <f>SUM(C45:L45)</f>
+        <v>32614</v>
+      </c>
+      <c r="N45">
+        <f>M45-M44</f>
+        <v>1309</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="506" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{40751E2A-CDC9-4C11-8082-D078BF22E25C}"/>
+  <xr:revisionPtr revIDLastSave="512" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{020EF252-1379-4FA7-880B-58B17FF757A3}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
@@ -345,10 +345,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$45</c:f>
+              <c:f>writing!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -480,16 +480,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>44181</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$N$2:$N$45</c:f>
+              <c:f>writing!$N$2:$N$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -621,6 +624,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1309</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -732,10 +738,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$45</c:f>
+              <c:f>writing!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -867,16 +873,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>44181</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$M$2:$M$45</c:f>
+              <c:f>writing!$M$2:$M$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>2614</c:v>
                 </c:pt>
@@ -1008,6 +1017,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>32614</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>33773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1976,8 +1988,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:N45" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:N45" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:N46" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:N46" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -2304,7 +2316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
@@ -2317,10 +2329,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46:L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4402,6 +4414,52 @@
         <v>1309</v>
       </c>
     </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>44182</v>
+      </c>
+      <c r="B46">
+        <v>568</v>
+      </c>
+      <c r="C46">
+        <v>239</v>
+      </c>
+      <c r="D46">
+        <v>87</v>
+      </c>
+      <c r="E46">
+        <v>198</v>
+      </c>
+      <c r="F46">
+        <v>492</v>
+      </c>
+      <c r="G46">
+        <v>416</v>
+      </c>
+      <c r="H46">
+        <v>8524</v>
+      </c>
+      <c r="I46">
+        <v>19896</v>
+      </c>
+      <c r="J46">
+        <v>3619</v>
+      </c>
+      <c r="K46">
+        <v>116</v>
+      </c>
+      <c r="L46">
+        <v>186</v>
+      </c>
+      <c r="M46">
+        <f>SUM(C46:L46)</f>
+        <v>33773</v>
+      </c>
+      <c r="N46">
+        <f>M46-M45</f>
+        <v>1159</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="512" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{020EF252-1379-4FA7-880B-58B17FF757A3}"/>
+  <xr:revisionPtr revIDLastSave="517" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C3950674-FDFE-4ECB-9BBD-DC5D47CCE28E}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
@@ -345,10 +345,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$46</c:f>
+              <c:f>writing!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -483,16 +483,19 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>44182</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$N$2:$N$46</c:f>
+              <c:f>writing!$N$2:$N$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -627,6 +630,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1159</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>828</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -738,10 +744,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$46</c:f>
+              <c:f>writing!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -876,16 +882,19 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>44182</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$M$2:$M$46</c:f>
+              <c:f>writing!$M$2:$M$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>2614</c:v>
                 </c:pt>
@@ -1020,6 +1029,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>33773</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>34601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1988,8 +2000,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:N46" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:N46" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:N47" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:N47" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -2316,7 +2328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
@@ -2329,10 +2341,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46:L46"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4222,7 +4234,7 @@
         <v>186</v>
       </c>
       <c r="M41">
-        <f>SUM(C41:L41)</f>
+        <f t="shared" ref="M41:M46" si="3">SUM(C41:L41)</f>
         <v>30225</v>
       </c>
       <c r="N41" cm="1">
@@ -4268,7 +4280,7 @@
         <v>186</v>
       </c>
       <c r="M42">
-        <f>SUM(C42:L42)</f>
+        <f t="shared" si="3"/>
         <v>30224</v>
       </c>
       <c r="N42" cm="1">
@@ -4314,11 +4326,11 @@
         <v>186</v>
       </c>
       <c r="M43">
-        <f>SUM(C43:L43)</f>
+        <f t="shared" si="3"/>
         <v>30597</v>
       </c>
-      <c r="N43">
-        <f>M43-M42</f>
+      <c r="N43" cm="1">
+        <f t="array" ref="N43">SUM(ABS(C43:L43-C42:L42))</f>
         <v>373</v>
       </c>
     </row>
@@ -4360,11 +4372,11 @@
         <v>186</v>
       </c>
       <c r="M44">
-        <f>SUM(C44:L44)</f>
+        <f t="shared" si="3"/>
         <v>31305</v>
       </c>
-      <c r="N44">
-        <f>M44-M43</f>
+      <c r="N44" cm="1">
+        <f t="array" ref="N44">SUM(ABS(C44:L44-C43:L43))</f>
         <v>708</v>
       </c>
     </row>
@@ -4406,11 +4418,11 @@
         <v>186</v>
       </c>
       <c r="M45">
-        <f>SUM(C45:L45)</f>
+        <f t="shared" si="3"/>
         <v>32614</v>
       </c>
-      <c r="N45">
-        <f>M45-M44</f>
+      <c r="N45" cm="1">
+        <f t="array" ref="N45">SUM(ABS(C45:L45-C44:L44))</f>
         <v>1309</v>
       </c>
     </row>
@@ -4452,12 +4464,58 @@
         <v>186</v>
       </c>
       <c r="M46">
-        <f>SUM(C46:L46)</f>
+        <f t="shared" si="3"/>
         <v>33773</v>
       </c>
-      <c r="N46">
-        <f>M46-M45</f>
+      <c r="N46" cm="1">
+        <f t="array" ref="N46">SUM(ABS(C46:L46-C45:L45))</f>
         <v>1159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>44189</v>
+      </c>
+      <c r="B47">
+        <v>568</v>
+      </c>
+      <c r="C47">
+        <v>239</v>
+      </c>
+      <c r="D47">
+        <v>87</v>
+      </c>
+      <c r="E47">
+        <v>198</v>
+      </c>
+      <c r="F47">
+        <v>492</v>
+      </c>
+      <c r="G47">
+        <v>416</v>
+      </c>
+      <c r="H47">
+        <v>8524</v>
+      </c>
+      <c r="I47">
+        <v>19896</v>
+      </c>
+      <c r="J47">
+        <v>4447</v>
+      </c>
+      <c r="K47">
+        <v>116</v>
+      </c>
+      <c r="L47">
+        <v>186</v>
+      </c>
+      <c r="M47">
+        <f>SUM(C47:L47)</f>
+        <v>34601</v>
+      </c>
+      <c r="N47" cm="1">
+        <f t="array" ref="N47">SUM(ABS(C47:L47-C46:L46))</f>
+        <v>828</v>
       </c>
     </row>
   </sheetData>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="517" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C3950674-FDFE-4ECB-9BBD-DC5D47CCE28E}"/>
+  <xr:revisionPtr revIDLastSave="522" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{818E1F01-90F8-4BEF-9A44-5065FE531FFF}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
@@ -345,10 +345,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$47</c:f>
+              <c:f>writing!$A$2:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -486,16 +486,19 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>44189</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$N$2:$N$47</c:f>
+              <c:f>writing!$N$2:$N$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -633,6 +636,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>828</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -744,10 +750,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$47</c:f>
+              <c:f>writing!$A$2:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -885,16 +891,19 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>44189</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$M$2:$M$47</c:f>
+              <c:f>writing!$M$2:$M$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>2614</c:v>
                 </c:pt>
@@ -1032,6 +1041,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>34601</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>35788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2000,8 +2012,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:N47" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:N47" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:N48" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:N48" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -2328,7 +2340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
@@ -2341,10 +2353,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48:L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4518,6 +4530,52 @@
         <v>828</v>
       </c>
     </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>44194</v>
+      </c>
+      <c r="B48">
+        <v>568</v>
+      </c>
+      <c r="C48">
+        <v>239</v>
+      </c>
+      <c r="D48">
+        <v>87</v>
+      </c>
+      <c r="E48">
+        <v>198</v>
+      </c>
+      <c r="F48">
+        <v>492</v>
+      </c>
+      <c r="G48">
+        <v>416</v>
+      </c>
+      <c r="H48">
+        <v>8524</v>
+      </c>
+      <c r="I48">
+        <v>19896</v>
+      </c>
+      <c r="J48">
+        <v>5634</v>
+      </c>
+      <c r="K48">
+        <v>116</v>
+      </c>
+      <c r="L48">
+        <v>186</v>
+      </c>
+      <c r="M48">
+        <f>SUM(C48:L48)</f>
+        <v>35788</v>
+      </c>
+      <c r="N48">
+        <f>M48-M47</f>
+        <v>1187</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="522" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{818E1F01-90F8-4BEF-9A44-5065FE531FFF}"/>
+  <xr:revisionPtr revIDLastSave="567" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4956A7C5-72D1-4F1B-827E-2C537E62D803}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>CV</t>
+  </si>
+  <si>
+    <t>App: Grammars</t>
+  </si>
+  <si>
+    <t>App: 100-items</t>
+  </si>
+  <si>
+    <t>App: Annotations</t>
   </si>
 </sst>
 </file>
@@ -269,7 +278,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>writing!$N$1</c:f>
+              <c:f>writing!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -345,10 +354,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$48</c:f>
+              <c:f>writing!$A$2:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -489,16 +498,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>44194</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$N$2:$N$48</c:f>
+              <c:f>writing!$Q$2:$Q$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -518,7 +530,7 @@
                   <c:v>1511</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>621</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>811</c:v>
@@ -533,19 +545,19 @@
                   <c:v>439</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>584</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>843</c:v>
+                  <c:v>511</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>511</c:v>
+                  <c:v>1582</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2671</c:v>
+                  <c:v>1582</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>577</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1406</c:v>
@@ -581,7 +593,7 @@
                   <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>362</c:v>
+                  <c:v>859</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2964</c:v>
@@ -632,13 +644,16 @@
                   <c:v>1309</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1159</c:v>
+                  <c:v>1175</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>828</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1187</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -669,7 +684,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>writing!$M$1</c:f>
+              <c:f>writing!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -750,10 +765,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$48</c:f>
+              <c:f>writing!$A$2:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -894,16 +909,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>44194</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$M$2:$M$48</c:f>
+              <c:f>writing!$P$2:$P$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>2614</c:v>
                 </c:pt>
@@ -944,7 +962,7 @@
                   <c:v>9499</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9110</c:v>
+                  <c:v>11013</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>9499</c:v>
@@ -986,64 +1004,67 @@
                   <c:v>18932</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>19294</c:v>
+                  <c:v>19791</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>22258</c:v>
+                  <c:v>22755</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>24130</c:v>
+                  <c:v>24627</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>25466</c:v>
+                  <c:v>25963</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>27855</c:v>
+                  <c:v>28352</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>29646</c:v>
+                  <c:v>30143</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>29649</c:v>
+                  <c:v>30146</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>29649</c:v>
+                  <c:v>30146</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>29196</c:v>
+                  <c:v>29693</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>29448</c:v>
+                  <c:v>29945</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>29577</c:v>
+                  <c:v>30074</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>29714</c:v>
+                  <c:v>30211</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>30225</c:v>
+                  <c:v>30722</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>30224</c:v>
+                  <c:v>30721</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>30597</c:v>
+                  <c:v>31094</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>31305</c:v>
+                  <c:v>31802</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>32614</c:v>
+                  <c:v>33111</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>33773</c:v>
+                  <c:v>34286</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>34601</c:v>
+                  <c:v>35114</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>35788</c:v>
+                  <c:v>36301</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>40046</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2012,12 +2033,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:N48" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:N48" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:Q49" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:Q49" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q18">
     <sortCondition ref="A1:A18"/>
   </sortState>
-  <tableColumns count="14">
+  <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{BEA871B4-EEE2-4F93-9DBC-4AFC40E06E5F}" name="Date" dataDxfId="1"/>
     <tableColumn id="15" xr3:uid="{1B7B50EE-D1EF-4405-B2B9-09BEA9C0CE20}" name="CV" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{3081B1F4-64BE-4187-A6E1-DC702177CD85}" name="Abstract"/>
@@ -2030,11 +2051,14 @@
     <tableColumn id="7" xr3:uid="{DBDA4A9C-3B12-453F-B457-620D99362FF4}" name="3: Data &amp; Methods"/>
     <tableColumn id="8" xr3:uid="{C2A4C48B-7471-4014-9277-4A1B1EF3B40B}" name="4: Results"/>
     <tableColumn id="9" xr3:uid="{58756D61-0637-4214-BD00-EE98CC70539C}" name="5: Conclusion"/>
+    <tableColumn id="14" xr3:uid="{A0B27E14-9B88-430C-9991-860F493F768F}" name="App: Grammars"/>
+    <tableColumn id="16" xr3:uid="{070AEEBA-EE16-4E1A-AEF6-19497CCE82B9}" name="App: 100-items"/>
+    <tableColumn id="17" xr3:uid="{BE87AA87-E374-40DC-9D81-405C193B82BF}" name="App: Annotations"/>
     <tableColumn id="10" xr3:uid="{457CFC5C-BE64-406D-A9FB-BB2DBEA65B42}" name="Total">
-      <calculatedColumnFormula>SUM(C2:L2)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(C2:O2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{778E3DE4-F274-4416-84BC-FF498402E770}" name="Daily">
-      <calculatedColumnFormula>M2-M1</calculatedColumnFormula>
+      <calculatedColumnFormula>P2-P1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2353,10 +2377,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48:L48"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2373,12 +2397,12 @@
     <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.9296875" customWidth="1"/>
-    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.06640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2416,13 +2440,22 @@
         <v>8</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>44130</v>
       </c>
@@ -2460,14 +2493,23 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2:M14" si="0">SUM(C2:L2)</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>SUM(C2:O2)</f>
         <v>2614</v>
       </c>
-      <c r="N2">
+      <c r="Q2">
         <v>1360</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>44131</v>
       </c>
@@ -2505,15 +2547,24 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P49" si="0">SUM(C3:O3)</f>
         <v>3628</v>
       </c>
-      <c r="N3" cm="1">
-        <f t="array" ref="N3">SUM(ABS(C3:L3-C2:L2))</f>
+      <c r="Q3" cm="1">
+        <f t="array" ref="Q3">SUM(ABS(C3:O3-C2:O2))</f>
         <v>1014</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>44132</v>
       </c>
@@ -2551,15 +2602,24 @@
         <v>0</v>
       </c>
       <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
         <f t="shared" si="0"/>
         <v>4429</v>
       </c>
-      <c r="N4" cm="1">
-        <f t="array" ref="N4">SUM(ABS(C4:L4-C3:L3))</f>
+      <c r="Q4" cm="1">
+        <f t="array" ref="Q4">SUM(ABS(C4:O4-C3:O3))</f>
         <v>801</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44133</v>
       </c>
@@ -2597,15 +2657,24 @@
         <v>0</v>
       </c>
       <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
         <f t="shared" si="0"/>
         <v>5670</v>
       </c>
-      <c r="N5" cm="1">
-        <f t="array" ref="N5">SUM(ABS(C5:L5-C4:L4))</f>
+      <c r="Q5" cm="1">
+        <f t="array" ref="Q5">SUM(ABS(C5:O5-C4:O4))</f>
         <v>1241</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>44134</v>
       </c>
@@ -2643,15 +2712,24 @@
         <v>0</v>
       </c>
       <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <f t="shared" si="0"/>
         <v>6433</v>
       </c>
-      <c r="N6" cm="1">
-        <f t="array" ref="N6">SUM(ABS(C6:L6-C5:L5))</f>
+      <c r="Q6" cm="1">
+        <f t="array" ref="Q6">SUM(ABS(C6:O6-C5:O5))</f>
         <v>763</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>44135</v>
       </c>
@@ -2689,15 +2767,24 @@
         <v>5</v>
       </c>
       <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
         <f t="shared" si="0"/>
         <v>7922</v>
       </c>
-      <c r="N7" cm="1">
-        <f t="array" ref="N7">SUM(ABS(C7:L7-C6:L6))</f>
+      <c r="Q7" cm="1">
+        <f t="array" ref="Q7">SUM(ABS(C7:O7-C6:O6))</f>
         <v>1511</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>44136</v>
       </c>
@@ -2735,14 +2822,24 @@
         <v>5</v>
       </c>
       <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="0"/>
         <v>7922</v>
       </c>
-      <c r="N8">
-        <v>621</v>
+      <c r="Q8" cm="1">
+        <f t="array" ref="Q8">SUM(ABS(C8:O8-C7:O7))</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>44137</v>
       </c>
@@ -2780,15 +2877,24 @@
         <v>5</v>
       </c>
       <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="0"/>
         <v>8733</v>
       </c>
-      <c r="N9" cm="1">
-        <f t="array" ref="N9">SUM(ABS(C9:L9-C8:L8))</f>
+      <c r="Q9" cm="1">
+        <f t="array" ref="Q9">SUM(ABS(C9:O9-C8:O8))</f>
         <v>811</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>44138</v>
       </c>
@@ -2826,15 +2932,24 @@
         <v>5</v>
       </c>
       <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
         <f t="shared" si="0"/>
         <v>8943</v>
       </c>
-      <c r="N10" cm="1">
-        <f t="array" ref="N10">SUM(ABS(C10:L10-C9:L9))</f>
+      <c r="Q10" cm="1">
+        <f t="array" ref="Q10">SUM(ABS(C10:O10-C9:O9))</f>
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>44139</v>
       </c>
@@ -2872,15 +2987,24 @@
         <v>5</v>
       </c>
       <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
         <f t="shared" si="0"/>
         <v>8913</v>
       </c>
-      <c r="N11" cm="1">
-        <f t="array" ref="N11">SUM(ABS(C11:L11-C10:L10))</f>
+      <c r="Q11" cm="1">
+        <f t="array" ref="Q11">SUM(ABS(C11:O11-C10:O10))</f>
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>44142</v>
       </c>
@@ -2918,15 +3042,24 @@
         <v>5</v>
       </c>
       <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
         <f t="shared" si="0"/>
         <v>8988</v>
       </c>
-      <c r="N12" cm="1">
-        <f t="array" ref="N12">SUM(ABS(C12:L12-C11:L11))</f>
+      <c r="Q12" cm="1">
+        <f t="array" ref="Q12">SUM(ABS(C12:O12-C11:O11))</f>
         <v>439</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>44143</v>
       </c>
@@ -2964,14 +3097,24 @@
         <v>5</v>
       </c>
       <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
         <f t="shared" si="0"/>
         <v>8988</v>
       </c>
-      <c r="N13">
-        <v>584</v>
+      <c r="Q13" cm="1">
+        <f t="array" ref="Q13">SUM(ABS(C13:O13-C12:O12))</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>44144</v>
       </c>
@@ -3009,14 +3152,24 @@
         <v>186</v>
       </c>
       <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
         <f t="shared" si="0"/>
         <v>9499</v>
       </c>
-      <c r="N14">
-        <v>843</v>
+      <c r="Q14" cm="1">
+        <f t="array" ref="Q14">SUM(ABS(C14:O14-C13:O13))</f>
+        <v>511</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>44145</v>
       </c>
@@ -3054,13 +3207,24 @@
         <v>186</v>
       </c>
       <c r="M15">
-        <v>9110</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>511</v>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>11013</v>
+      </c>
+      <c r="Q15" cm="1">
+        <f t="array" ref="Q15">SUM(ABS(C15:O15-C14:O14))</f>
+        <v>1582</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>44146</v>
       </c>
@@ -3098,14 +3262,24 @@
         <v>186</v>
       </c>
       <c r="M16">
-        <f t="shared" ref="M16:M34" si="1">SUM(C16:L16)</f>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
         <v>9499</v>
       </c>
-      <c r="N16">
-        <v>2671</v>
+      <c r="Q16" cm="1">
+        <f t="array" ref="Q16">SUM(ABS(C16:O16-C15:O15))</f>
+        <v>1582</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>44150</v>
       </c>
@@ -3143,14 +3317,24 @@
         <v>186</v>
       </c>
       <c r="M17">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
         <v>9675</v>
       </c>
-      <c r="N17">
-        <v>577</v>
+      <c r="Q17" cm="1">
+        <f t="array" ref="Q17">SUM(ABS(C17:O17-C16:O16))</f>
+        <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>44151</v>
       </c>
@@ -3188,15 +3372,24 @@
         <v>186</v>
       </c>
       <c r="M18">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
         <v>11013</v>
       </c>
-      <c r="N18" cm="1">
-        <f t="array" ref="N18">SUM(ABS(C18:L18-C17:L17))</f>
+      <c r="Q18" cm="1">
+        <f t="array" ref="Q18">SUM(ABS(C18:O18-C17:O17))</f>
         <v>1406</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>44152</v>
       </c>
@@ -3234,15 +3427,24 @@
         <v>186</v>
       </c>
       <c r="M19">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
         <v>11348</v>
       </c>
-      <c r="N19" cm="1">
-        <f t="array" ref="N19">SUM(ABS(C19:L19-C18:L18))</f>
+      <c r="Q19" cm="1">
+        <f t="array" ref="Q19">SUM(ABS(C19:O19-C18:O18))</f>
         <v>335</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>44153</v>
       </c>
@@ -3280,15 +3482,24 @@
         <v>186</v>
       </c>
       <c r="M20">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
         <v>12347</v>
       </c>
-      <c r="N20" cm="1">
-        <f t="array" ref="N20">SUM(ABS(C20:L20-C19:L19))</f>
+      <c r="Q20" cm="1">
+        <f t="array" ref="Q20">SUM(ABS(C20:O20-C19:O19))</f>
         <v>999</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>44154</v>
       </c>
@@ -3326,15 +3537,24 @@
         <v>186</v>
       </c>
       <c r="M21">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
         <v>12403</v>
       </c>
-      <c r="N21" cm="1">
-        <f t="array" ref="N21">SUM(ABS(C21:L21-C20:L20))</f>
+      <c r="Q21" cm="1">
+        <f t="array" ref="Q21">SUM(ABS(C21:O21-C20:O20))</f>
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>44155</v>
       </c>
@@ -3372,15 +3592,24 @@
         <v>186</v>
       </c>
       <c r="M22">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="0"/>
         <v>13539</v>
       </c>
-      <c r="N22" cm="1">
-        <f t="array" ref="N22">SUM(ABS(C22:L22-C21:L21))</f>
+      <c r="Q22" cm="1">
+        <f t="array" ref="Q22">SUM(ABS(C22:O22-C21:O21))</f>
         <v>1136</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>44156</v>
       </c>
@@ -3418,15 +3647,24 @@
         <v>186</v>
       </c>
       <c r="M23">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
         <v>14218</v>
       </c>
-      <c r="N23" cm="1">
-        <f t="array" ref="N23">SUM(ABS(C23:L23-C22:L22))</f>
+      <c r="Q23" cm="1">
+        <f t="array" ref="Q23">SUM(ABS(C23:O23-C22:O22))</f>
         <v>679</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>44157</v>
       </c>
@@ -3464,15 +3702,24 @@
         <v>186</v>
       </c>
       <c r="M24">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
         <v>16040</v>
       </c>
-      <c r="N24" cm="1">
-        <f t="array" ref="N24">SUM(ABS(C24:L24-C23:L23))</f>
+      <c r="Q24" cm="1">
+        <f t="array" ref="Q24">SUM(ABS(C24:O24-C23:O23))</f>
         <v>1822</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>44158</v>
       </c>
@@ -3510,15 +3757,24 @@
         <v>186</v>
       </c>
       <c r="M25">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="0"/>
         <v>16196</v>
       </c>
-      <c r="N25" cm="1">
-        <f t="array" ref="N25">SUM(ABS(C25:L25-C24:L24))</f>
+      <c r="Q25" cm="1">
+        <f t="array" ref="Q25">SUM(ABS(C25:O25-C24:O24))</f>
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>44159</v>
       </c>
@@ -3556,15 +3812,24 @@
         <v>186</v>
       </c>
       <c r="M26">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="0"/>
         <v>17824</v>
       </c>
-      <c r="N26" cm="1">
-        <f t="array" ref="N26">SUM(ABS(C26:L26-C25:L25))</f>
+      <c r="Q26" cm="1">
+        <f t="array" ref="Q26">SUM(ABS(C26:O26-C25:O25))</f>
         <v>1628</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>44160</v>
       </c>
@@ -3602,15 +3867,24 @@
         <v>186</v>
       </c>
       <c r="M27">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="0"/>
         <v>18729</v>
       </c>
-      <c r="N27" cm="1">
-        <f t="array" ref="N27">SUM(ABS(C27:L27-C26:L26))</f>
+      <c r="Q27" cm="1">
+        <f t="array" ref="Q27">SUM(ABS(C27:O27-C26:O26))</f>
         <v>905</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>44161</v>
       </c>
@@ -3648,15 +3922,24 @@
         <v>186</v>
       </c>
       <c r="M28">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
         <v>18932</v>
       </c>
-      <c r="N28" cm="1">
-        <f t="array" ref="N28">SUM(ABS(C28:L28-C27:L27))</f>
+      <c r="Q28" cm="1">
+        <f t="array" ref="Q28">SUM(ABS(C28:O28-C27:O27))</f>
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>44162</v>
       </c>
@@ -3694,15 +3977,24 @@
         <v>186</v>
       </c>
       <c r="M29">
-        <f t="shared" si="1"/>
-        <v>19294</v>
-      </c>
-      <c r="N29" cm="1">
-        <f t="array" ref="N29">SUM(ABS(C29:L29-C28:L28))</f>
-        <v>362</v>
+        <v>497</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>19791</v>
+      </c>
+      <c r="Q29" cm="1">
+        <f t="array" ref="Q29">SUM(ABS(C29:O29-C28:O28))</f>
+        <v>859</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>44163</v>
       </c>
@@ -3740,15 +4032,24 @@
         <v>186</v>
       </c>
       <c r="M30">
-        <f t="shared" si="1"/>
-        <v>22258</v>
-      </c>
-      <c r="N30" cm="1">
-        <f t="array" ref="N30">SUM(ABS(C30:L30-C29:L29))</f>
+        <v>497</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>22755</v>
+      </c>
+      <c r="Q30" cm="1">
+        <f t="array" ref="Q30">SUM(ABS(C30:O30-C29:O29))</f>
         <v>2964</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>44164</v>
       </c>
@@ -3786,15 +4087,24 @@
         <v>186</v>
       </c>
       <c r="M31">
-        <f t="shared" si="1"/>
-        <v>24130</v>
-      </c>
-      <c r="N31" cm="1">
-        <f t="array" ref="N31">SUM(ABS(C31:L31-C30:L30))</f>
+        <v>497</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>24627</v>
+      </c>
+      <c r="Q31" cm="1">
+        <f t="array" ref="Q31">SUM(ABS(C31:O31-C30:O30))</f>
         <v>1872</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>44166</v>
       </c>
@@ -3832,15 +4142,24 @@
         <v>186</v>
       </c>
       <c r="M32">
-        <f t="shared" si="1"/>
-        <v>25466</v>
-      </c>
-      <c r="N32" cm="1">
-        <f t="array" ref="N32">SUM(ABS(C32:L32-C31:L31))</f>
+        <v>497</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>25963</v>
+      </c>
+      <c r="Q32" cm="1">
+        <f t="array" ref="Q32">SUM(ABS(C32:O32-C31:O31))</f>
         <v>1336</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>44167</v>
       </c>
@@ -3878,15 +4197,24 @@
         <v>186</v>
       </c>
       <c r="M33">
-        <f t="shared" si="1"/>
-        <v>27855</v>
-      </c>
-      <c r="N33" cm="1">
-        <f t="array" ref="N33">SUM(ABS(C33:L33-C32:L32))</f>
+        <v>497</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>28352</v>
+      </c>
+      <c r="Q33" cm="1">
+        <f t="array" ref="Q33">SUM(ABS(C33:O33-C32:O32))</f>
         <v>2389</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>44168</v>
       </c>
@@ -3924,15 +4252,24 @@
         <v>186</v>
       </c>
       <c r="M34">
-        <f t="shared" si="1"/>
-        <v>29646</v>
-      </c>
-      <c r="N34" cm="1">
-        <f t="array" ref="N34">SUM(ABS(C34:L34-C33:L33))</f>
+        <v>497</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="0"/>
+        <v>30143</v>
+      </c>
+      <c r="Q34" cm="1">
+        <f t="array" ref="Q34">SUM(ABS(C34:O34-C33:O33))</f>
         <v>1791</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>44169</v>
       </c>
@@ -3970,15 +4307,24 @@
         <v>186</v>
       </c>
       <c r="M35">
-        <f t="shared" ref="M35:M40" si="2">SUM(C35:L35)</f>
-        <v>29649</v>
-      </c>
-      <c r="N35" cm="1">
-        <f t="array" ref="N35">SUM(ABS(C35:L35-C34:L34))</f>
+        <v>497</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="0"/>
+        <v>30146</v>
+      </c>
+      <c r="Q35" cm="1">
+        <f t="array" ref="Q35">SUM(ABS(C35:O35-C34:O34))</f>
         <v>481</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>44170</v>
       </c>
@@ -4016,15 +4362,24 @@
         <v>186</v>
       </c>
       <c r="M36">
-        <f t="shared" si="2"/>
-        <v>29649</v>
-      </c>
-      <c r="N36" cm="1">
-        <f t="array" ref="N36">SUM(ABS(C36:L36-C35:L35))</f>
+        <v>497</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="0"/>
+        <v>30146</v>
+      </c>
+      <c r="Q36" cm="1">
+        <f t="array" ref="Q36">SUM(ABS(C36:O36-C35:O35))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>44173</v>
       </c>
@@ -4062,15 +4417,24 @@
         <v>186</v>
       </c>
       <c r="M37">
-        <f t="shared" si="2"/>
-        <v>29196</v>
-      </c>
-      <c r="N37" cm="1">
-        <f t="array" ref="N37">SUM(ABS(C37:L37-C36:L36))</f>
+        <v>497</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="0"/>
+        <v>29693</v>
+      </c>
+      <c r="Q37" cm="1">
+        <f t="array" ref="Q37">SUM(ABS(C37:O37-C36:O36))</f>
         <v>463</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>44174</v>
       </c>
@@ -4108,15 +4472,24 @@
         <v>186</v>
       </c>
       <c r="M38">
-        <f t="shared" si="2"/>
-        <v>29448</v>
-      </c>
-      <c r="N38" cm="1">
-        <f t="array" ref="N38">SUM(ABS(C38:L38-C37:L37))</f>
+        <v>497</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="0"/>
+        <v>29945</v>
+      </c>
+      <c r="Q38" cm="1">
+        <f t="array" ref="Q38">SUM(ABS(C38:O38-C37:O37))</f>
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>44175</v>
       </c>
@@ -4154,15 +4527,24 @@
         <v>186</v>
       </c>
       <c r="M39">
-        <f t="shared" si="2"/>
-        <v>29577</v>
-      </c>
-      <c r="N39" cm="1">
-        <f t="array" ref="N39">SUM(ABS(C39:L39-C38:L38))</f>
+        <v>497</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="0"/>
+        <v>30074</v>
+      </c>
+      <c r="Q39" cm="1">
+        <f t="array" ref="Q39">SUM(ABS(C39:O39-C38:O38))</f>
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>44176</v>
       </c>
@@ -4200,15 +4582,24 @@
         <v>186</v>
       </c>
       <c r="M40">
-        <f t="shared" si="2"/>
-        <v>29714</v>
-      </c>
-      <c r="N40" cm="1">
-        <f t="array" ref="N40">SUM(ABS(C40:L40-C39:L39))</f>
+        <v>497</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="0"/>
+        <v>30211</v>
+      </c>
+      <c r="Q40" cm="1">
+        <f t="array" ref="Q40">SUM(ABS(C40:O40-C39:O39))</f>
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>44177</v>
       </c>
@@ -4246,15 +4637,24 @@
         <v>186</v>
       </c>
       <c r="M41">
-        <f t="shared" ref="M41:M46" si="3">SUM(C41:L41)</f>
-        <v>30225</v>
-      </c>
-      <c r="N41" cm="1">
-        <f t="array" ref="N41">SUM(ABS(C41:L41-C40:L40))</f>
+        <v>497</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="0"/>
+        <v>30722</v>
+      </c>
+      <c r="Q41" cm="1">
+        <f t="array" ref="Q41">SUM(ABS(C41:O41-C40:O40))</f>
         <v>511</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>44178</v>
       </c>
@@ -4292,15 +4692,24 @@
         <v>186</v>
       </c>
       <c r="M42">
-        <f t="shared" si="3"/>
-        <v>30224</v>
-      </c>
-      <c r="N42" cm="1">
-        <f t="array" ref="N42">SUM(ABS(C42:L42-C41:L41))</f>
+        <v>497</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="0"/>
+        <v>30721</v>
+      </c>
+      <c r="Q42" cm="1">
+        <f t="array" ref="Q42">SUM(ABS(C42:O42-C41:O41))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>44179</v>
       </c>
@@ -4338,15 +4747,24 @@
         <v>186</v>
       </c>
       <c r="M43">
-        <f t="shared" si="3"/>
-        <v>30597</v>
-      </c>
-      <c r="N43" cm="1">
-        <f t="array" ref="N43">SUM(ABS(C43:L43-C42:L42))</f>
+        <v>497</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="0"/>
+        <v>31094</v>
+      </c>
+      <c r="Q43" cm="1">
+        <f t="array" ref="Q43">SUM(ABS(C43:O43-C42:O42))</f>
         <v>373</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>44180</v>
       </c>
@@ -4384,15 +4802,24 @@
         <v>186</v>
       </c>
       <c r="M44">
-        <f t="shared" si="3"/>
-        <v>31305</v>
-      </c>
-      <c r="N44" cm="1">
-        <f t="array" ref="N44">SUM(ABS(C44:L44-C43:L43))</f>
+        <v>497</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="0"/>
+        <v>31802</v>
+      </c>
+      <c r="Q44" cm="1">
+        <f t="array" ref="Q44">SUM(ABS(C44:O44-C43:O43))</f>
         <v>708</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>44181</v>
       </c>
@@ -4430,15 +4857,24 @@
         <v>186</v>
       </c>
       <c r="M45">
-        <f t="shared" si="3"/>
-        <v>32614</v>
-      </c>
-      <c r="N45" cm="1">
-        <f t="array" ref="N45">SUM(ABS(C45:L45-C44:L44))</f>
+        <v>497</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="0"/>
+        <v>33111</v>
+      </c>
+      <c r="Q45" cm="1">
+        <f t="array" ref="Q45">SUM(ABS(C45:O45-C44:O44))</f>
         <v>1309</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>44182</v>
       </c>
@@ -4476,15 +4912,24 @@
         <v>186</v>
       </c>
       <c r="M46">
-        <f t="shared" si="3"/>
-        <v>33773</v>
-      </c>
-      <c r="N46" cm="1">
-        <f t="array" ref="N46">SUM(ABS(C46:L46-C45:L45))</f>
-        <v>1159</v>
+        <v>497</v>
+      </c>
+      <c r="N46">
+        <v>9</v>
+      </c>
+      <c r="O46">
+        <v>7</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="0"/>
+        <v>34286</v>
+      </c>
+      <c r="Q46" cm="1">
+        <f t="array" ref="Q46">SUM(ABS(C46:O46-C45:O45))</f>
+        <v>1175</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>44189</v>
       </c>
@@ -4522,15 +4967,24 @@
         <v>186</v>
       </c>
       <c r="M47">
-        <f>SUM(C47:L47)</f>
-        <v>34601</v>
-      </c>
-      <c r="N47" cm="1">
-        <f t="array" ref="N47">SUM(ABS(C47:L47-C46:L46))</f>
+        <v>497</v>
+      </c>
+      <c r="N47">
+        <v>9</v>
+      </c>
+      <c r="O47">
+        <v>7</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="0"/>
+        <v>35114</v>
+      </c>
+      <c r="Q47" cm="1">
+        <f t="array" ref="Q47">SUM(ABS(C47:O47-C46:O46))</f>
         <v>828</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>44194</v>
       </c>
@@ -4568,12 +5022,76 @@
         <v>186</v>
       </c>
       <c r="M48">
-        <f>SUM(C48:L48)</f>
-        <v>35788</v>
+        <v>497</v>
       </c>
       <c r="N48">
-        <f>M48-M47</f>
+        <v>9</v>
+      </c>
+      <c r="O48">
+        <v>7</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="0"/>
+        <v>36301</v>
+      </c>
+      <c r="Q48" cm="1">
+        <f t="array" ref="Q48">SUM(ABS(C48:O48-C47:O47))</f>
         <v>1187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B49">
+        <v>568</v>
+      </c>
+      <c r="C49">
+        <v>239</v>
+      </c>
+      <c r="D49">
+        <v>87</v>
+      </c>
+      <c r="E49">
+        <v>229</v>
+      </c>
+      <c r="F49">
+        <v>492</v>
+      </c>
+      <c r="G49">
+        <v>416</v>
+      </c>
+      <c r="H49">
+        <v>8498</v>
+      </c>
+      <c r="I49">
+        <v>19876</v>
+      </c>
+      <c r="J49">
+        <v>5844</v>
+      </c>
+      <c r="K49">
+        <v>116</v>
+      </c>
+      <c r="L49">
+        <v>186</v>
+      </c>
+      <c r="M49">
+        <v>497</v>
+      </c>
+      <c r="N49">
+        <v>3559</v>
+      </c>
+      <c r="O49">
+        <v>7</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="0"/>
+        <v>40046</v>
+      </c>
+      <c r="Q49" cm="1">
+        <f t="array" ref="Q49">SUM(ABS(C49:O49-C48:O48))</f>
+        <v>3837</v>
       </c>
     </row>
   </sheetData>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="567" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4956A7C5-72D1-4F1B-827E-2C537E62D803}"/>
+  <xr:revisionPtr revIDLastSave="575" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{152839AF-9948-4374-BAE2-CE5D5653F561}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
     <sheet name="writing" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -354,10 +354,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$49</c:f>
+              <c:f>writing!$A$2:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -501,16 +501,19 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>44195</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$Q$2:$Q$49</c:f>
+              <c:f>writing!$Q$2:$Q$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -654,6 +657,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>3837</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -765,10 +771,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$49</c:f>
+              <c:f>writing!$A$2:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -912,16 +918,19 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>44195</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$P$2:$P$49</c:f>
+              <c:f>writing!$P$2:$P$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>2614</c:v>
                 </c:pt>
@@ -1065,6 +1074,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>40046</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41369</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2033,8 +2045,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:Q49" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:Q49" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:Q50" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:Q50" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -2365,7 +2377,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+      <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2377,10 +2389,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P49"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5094,6 +5106,61 @@
         <v>3837</v>
       </c>
     </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B50">
+        <v>568</v>
+      </c>
+      <c r="C50">
+        <v>239</v>
+      </c>
+      <c r="D50">
+        <v>87</v>
+      </c>
+      <c r="E50">
+        <v>229</v>
+      </c>
+      <c r="F50">
+        <v>492</v>
+      </c>
+      <c r="G50">
+        <v>416</v>
+      </c>
+      <c r="H50">
+        <v>8498</v>
+      </c>
+      <c r="I50">
+        <v>19876</v>
+      </c>
+      <c r="J50">
+        <v>5844</v>
+      </c>
+      <c r="K50">
+        <v>117</v>
+      </c>
+      <c r="L50">
+        <v>186</v>
+      </c>
+      <c r="M50">
+        <v>497</v>
+      </c>
+      <c r="N50">
+        <v>3559</v>
+      </c>
+      <c r="O50">
+        <v>1329</v>
+      </c>
+      <c r="P50">
+        <f>SUM(C50:O50)</f>
+        <v>41369</v>
+      </c>
+      <c r="Q50" cm="1">
+        <f t="array" ref="Q50">SUM(ABS(C50:O50-C49:O49))</f>
+        <v>1323</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="575" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{152839AF-9948-4374-BAE2-CE5D5653F561}"/>
+  <xr:revisionPtr revIDLastSave="590" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9B25A348-6647-4EC7-9B25-74414C03AF50}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
     <sheet name="writing" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -354,10 +354,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$50</c:f>
+              <c:f>writing!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -504,16 +504,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$Q$2:$Q$50</c:f>
+              <c:f>writing!$Q$2:$Q$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -660,6 +663,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1323</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>350</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -771,10 +777,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$50</c:f>
+              <c:f>writing!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -921,16 +927,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$P$2:$P$50</c:f>
+              <c:f>writing!$P$2:$P$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>2614</c:v>
                 </c:pt>
@@ -1077,6 +1086,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>41369</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2045,8 +2057,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:Q50" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:Q50" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:Q51" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:Q51" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -2376,7 +2388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
@@ -2389,10 +2401,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="P51" sqref="P51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5111,7 +5123,7 @@
         <v>44197</v>
       </c>
       <c r="B50">
-        <v>568</v>
+        <v>631</v>
       </c>
       <c r="C50">
         <v>239</v>
@@ -5159,6 +5171,61 @@
       <c r="Q50" cm="1">
         <f t="array" ref="Q50">SUM(ABS(C50:O50-C49:O49))</f>
         <v>1323</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>44198</v>
+      </c>
+      <c r="B51">
+        <v>631</v>
+      </c>
+      <c r="C51">
+        <v>260</v>
+      </c>
+      <c r="D51">
+        <v>87</v>
+      </c>
+      <c r="E51">
+        <v>229</v>
+      </c>
+      <c r="F51">
+        <v>492</v>
+      </c>
+      <c r="G51">
+        <v>416</v>
+      </c>
+      <c r="H51">
+        <v>8550</v>
+      </c>
+      <c r="I51">
+        <v>19876</v>
+      </c>
+      <c r="J51">
+        <v>6122</v>
+      </c>
+      <c r="K51">
+        <v>117</v>
+      </c>
+      <c r="L51">
+        <v>186</v>
+      </c>
+      <c r="M51">
+        <v>496</v>
+      </c>
+      <c r="N51">
+        <v>3559</v>
+      </c>
+      <c r="O51">
+        <v>1329</v>
+      </c>
+      <c r="P51">
+        <f>SUM(C51:O51)</f>
+        <v>41719</v>
+      </c>
+      <c r="Q51">
+        <f>P51-P50</f>
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="590" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9B25A348-6647-4EC7-9B25-74414C03AF50}"/>
+  <xr:revisionPtr revIDLastSave="592" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{ABCA1320-68BE-3B4E-9554-DC5B7F8111C8}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
@@ -161,10 +161,10 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -356,7 +356,7 @@
             <c:numRef>
               <c:f>writing!$A$2:$A$51</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
@@ -779,7 +779,7 @@
             <c:numRef>
               <c:f>writing!$A$2:$A$51</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
@@ -1120,7 +1120,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1378,7 +1378,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2024,7 +2024,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>218966</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2388,11 +2388,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S35" sqref="S35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2403,30 +2403,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="P51" sqref="P51"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46:L46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.22265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.16015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.390625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.43359375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.06640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.52734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.29296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.76171875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.94921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.4296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44130</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44131</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P49" si="0">SUM(C3:O3)</f>
+        <f>SUM(C3:O3)</f>
         <v>3628</v>
       </c>
       <c r="Q3" cm="1">
@@ -2588,7 +2588,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44132</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <f t="shared" si="0"/>
+        <f>SUM(C4:O4)</f>
         <v>4429</v>
       </c>
       <c r="Q4" cm="1">
@@ -2643,7 +2643,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44133</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <f t="shared" si="0"/>
+        <f>SUM(C5:O5)</f>
         <v>5670</v>
       </c>
       <c r="Q5" cm="1">
@@ -2698,7 +2698,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44134</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <f t="shared" si="0"/>
+        <f>SUM(C6:O6)</f>
         <v>6433</v>
       </c>
       <c r="Q6" cm="1">
@@ -2753,7 +2753,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44135</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <f t="shared" si="0"/>
+        <f>SUM(C7:O7)</f>
         <v>7922</v>
       </c>
       <c r="Q7" cm="1">
@@ -2808,7 +2808,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44136</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <f t="shared" si="0"/>
+        <f>SUM(C8:O8)</f>
         <v>7922</v>
       </c>
       <c r="Q8" cm="1">
@@ -2863,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44137</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <f t="shared" si="0"/>
+        <f>SUM(C9:O9)</f>
         <v>8733</v>
       </c>
       <c r="Q9" cm="1">
@@ -2918,7 +2918,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44138</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <f t="shared" si="0"/>
+        <f>SUM(C10:O10)</f>
         <v>8943</v>
       </c>
       <c r="Q10" cm="1">
@@ -2973,7 +2973,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44139</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <f t="shared" si="0"/>
+        <f>SUM(C11:O11)</f>
         <v>8913</v>
       </c>
       <c r="Q11" cm="1">
@@ -3028,7 +3028,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44142</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <f t="shared" si="0"/>
+        <f>SUM(C12:O12)</f>
         <v>8988</v>
       </c>
       <c r="Q12" cm="1">
@@ -3083,7 +3083,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44143</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <f t="shared" si="0"/>
+        <f>SUM(C13:O13)</f>
         <v>8988</v>
       </c>
       <c r="Q13" cm="1">
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44144</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <f t="shared" si="0"/>
+        <f>SUM(C14:O14)</f>
         <v>9499</v>
       </c>
       <c r="Q14" cm="1">
@@ -3193,7 +3193,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44145</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <f t="shared" si="0"/>
+        <f>SUM(C15:O15)</f>
         <v>11013</v>
       </c>
       <c r="Q15" cm="1">
@@ -3248,7 +3248,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44146</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <f t="shared" si="0"/>
+        <f>SUM(C16:O16)</f>
         <v>9499</v>
       </c>
       <c r="Q16" cm="1">
@@ -3303,7 +3303,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44150</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <f t="shared" si="0"/>
+        <f>SUM(C17:O17)</f>
         <v>9675</v>
       </c>
       <c r="Q17" cm="1">
@@ -3358,7 +3358,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44151</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <f t="shared" si="0"/>
+        <f>SUM(C18:O18)</f>
         <v>11013</v>
       </c>
       <c r="Q18" cm="1">
@@ -3413,7 +3413,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44152</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <f t="shared" si="0"/>
+        <f>SUM(C19:O19)</f>
         <v>11348</v>
       </c>
       <c r="Q19" cm="1">
@@ -3468,7 +3468,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44153</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <f t="shared" si="0"/>
+        <f>SUM(C20:O20)</f>
         <v>12347</v>
       </c>
       <c r="Q20" cm="1">
@@ -3523,7 +3523,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44154</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <f t="shared" si="0"/>
+        <f>SUM(C21:O21)</f>
         <v>12403</v>
       </c>
       <c r="Q21" cm="1">
@@ -3578,7 +3578,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44155</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <f t="shared" si="0"/>
+        <f>SUM(C22:O22)</f>
         <v>13539</v>
       </c>
       <c r="Q22" cm="1">
@@ -3633,7 +3633,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44156</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <f t="shared" si="0"/>
+        <f>SUM(C23:O23)</f>
         <v>14218</v>
       </c>
       <c r="Q23" cm="1">
@@ -3688,7 +3688,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44157</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <f t="shared" si="0"/>
+        <f>SUM(C24:O24)</f>
         <v>16040</v>
       </c>
       <c r="Q24" cm="1">
@@ -3743,7 +3743,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44158</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <f t="shared" si="0"/>
+        <f>SUM(C25:O25)</f>
         <v>16196</v>
       </c>
       <c r="Q25" cm="1">
@@ -3798,7 +3798,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44159</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="P26">
-        <f t="shared" si="0"/>
+        <f>SUM(C26:O26)</f>
         <v>17824</v>
       </c>
       <c r="Q26" cm="1">
@@ -3853,7 +3853,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44160</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="P27">
-        <f t="shared" si="0"/>
+        <f>SUM(C27:O27)</f>
         <v>18729</v>
       </c>
       <c r="Q27" cm="1">
@@ -3908,7 +3908,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44161</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="P28">
-        <f t="shared" si="0"/>
+        <f>SUM(C28:O28)</f>
         <v>18932</v>
       </c>
       <c r="Q28" cm="1">
@@ -3963,7 +3963,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44162</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="P29">
-        <f t="shared" si="0"/>
+        <f>SUM(C29:O29)</f>
         <v>19791</v>
       </c>
       <c r="Q29" cm="1">
@@ -4018,7 +4018,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44163</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="P30">
-        <f t="shared" si="0"/>
+        <f>SUM(C30:O30)</f>
         <v>22755</v>
       </c>
       <c r="Q30" cm="1">
@@ -4073,7 +4073,7 @@
         <v>2964</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44164</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <f t="shared" si="0"/>
+        <f>SUM(C31:O31)</f>
         <v>24627</v>
       </c>
       <c r="Q31" cm="1">
@@ -4128,7 +4128,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44166</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <f t="shared" si="0"/>
+        <f>SUM(C32:O32)</f>
         <v>25963</v>
       </c>
       <c r="Q32" cm="1">
@@ -4183,7 +4183,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44167</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="P33">
-        <f t="shared" si="0"/>
+        <f>SUM(C33:O33)</f>
         <v>28352</v>
       </c>
       <c r="Q33" cm="1">
@@ -4238,7 +4238,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44168</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="P34">
-        <f t="shared" si="0"/>
+        <f>SUM(C34:O34)</f>
         <v>30143</v>
       </c>
       <c r="Q34" cm="1">
@@ -4293,7 +4293,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44169</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="P35">
-        <f t="shared" si="0"/>
+        <f>SUM(C35:O35)</f>
         <v>30146</v>
       </c>
       <c r="Q35" cm="1">
@@ -4348,7 +4348,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44170</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="P36">
-        <f t="shared" si="0"/>
+        <f>SUM(C36:O36)</f>
         <v>30146</v>
       </c>
       <c r="Q36" cm="1">
@@ -4403,7 +4403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44173</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="P37">
-        <f t="shared" si="0"/>
+        <f>SUM(C37:O37)</f>
         <v>29693</v>
       </c>
       <c r="Q37" cm="1">
@@ -4458,7 +4458,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44174</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="P38">
-        <f t="shared" si="0"/>
+        <f>SUM(C38:O38)</f>
         <v>29945</v>
       </c>
       <c r="Q38" cm="1">
@@ -4513,7 +4513,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44175</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="P39">
-        <f t="shared" si="0"/>
+        <f>SUM(C39:O39)</f>
         <v>30074</v>
       </c>
       <c r="Q39" cm="1">
@@ -4568,7 +4568,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44176</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="P40">
-        <f t="shared" si="0"/>
+        <f>SUM(C40:O40)</f>
         <v>30211</v>
       </c>
       <c r="Q40" cm="1">
@@ -4623,7 +4623,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44177</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="P41">
-        <f t="shared" si="0"/>
+        <f>SUM(C41:O41)</f>
         <v>30722</v>
       </c>
       <c r="Q41" cm="1">
@@ -4678,7 +4678,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>44178</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="P42">
-        <f t="shared" si="0"/>
+        <f>SUM(C42:O42)</f>
         <v>30721</v>
       </c>
       <c r="Q42" cm="1">
@@ -4733,7 +4733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>44179</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="P43">
-        <f t="shared" si="0"/>
+        <f>SUM(C43:O43)</f>
         <v>31094</v>
       </c>
       <c r="Q43" cm="1">
@@ -4788,7 +4788,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44180</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <f t="shared" si="0"/>
+        <f>SUM(C44:O44)</f>
         <v>31802</v>
       </c>
       <c r="Q44" cm="1">
@@ -4843,7 +4843,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44181</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="P45">
-        <f t="shared" si="0"/>
+        <f>SUM(C45:O45)</f>
         <v>33111</v>
       </c>
       <c r="Q45" cm="1">
@@ -4898,7 +4898,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44182</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>7</v>
       </c>
       <c r="P46">
-        <f t="shared" si="0"/>
+        <f>SUM(C46:O46)</f>
         <v>34286</v>
       </c>
       <c r="Q46" cm="1">
@@ -4953,7 +4953,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>44189</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>7</v>
       </c>
       <c r="P47">
-        <f t="shared" si="0"/>
+        <f>SUM(C47:O47)</f>
         <v>35114</v>
       </c>
       <c r="Q47" cm="1">
@@ -5008,7 +5008,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>44194</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>7</v>
       </c>
       <c r="P48">
-        <f t="shared" si="0"/>
+        <f>SUM(C48:O48)</f>
         <v>36301</v>
       </c>
       <c r="Q48" cm="1">
@@ -5063,7 +5063,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>44195</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>7</v>
       </c>
       <c r="P49">
-        <f t="shared" si="0"/>
+        <f>SUM(C49:O49)</f>
         <v>40046</v>
       </c>
       <c r="Q49" cm="1">
@@ -5118,7 +5118,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>44197</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>44198</v>
       </c>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="490" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BF15400B-8A26-4490-A955-AE812D1798BA}"/>
+  <xr:revisionPtr revIDLastSave="592" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{ABCA1320-68BE-3B4E-9554-DC5B7F8111C8}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>CV</t>
+  </si>
+  <si>
+    <t>App: Grammars</t>
+  </si>
+  <si>
+    <t>App: 100-items</t>
+  </si>
+  <si>
+    <t>App: Annotations</t>
   </si>
 </sst>
 </file>
@@ -152,10 +161,10 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -269,7 +278,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>writing!$N$1</c:f>
+              <c:f>writing!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -345,10 +354,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$42</c:f>
+              <c:f>writing!$A$2:$A$51</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -471,16 +480,43 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44181</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44182</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44189</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44194</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44195</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$N$2:$N$42</c:f>
+              <c:f>writing!$Q$2:$Q$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -500,7 +536,7 @@
                   <c:v>1511</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>621</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>811</c:v>
@@ -515,19 +551,19 @@
                   <c:v>439</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>584</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>843</c:v>
+                  <c:v>511</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>511</c:v>
+                  <c:v>1582</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2671</c:v>
+                  <c:v>1582</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>577</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1406</c:v>
@@ -563,7 +599,7 @@
                   <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>362</c:v>
+                  <c:v>859</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2964</c:v>
@@ -603,6 +639,33 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>708</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1309</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1175</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>828</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1187</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3837</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1323</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>350</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -633,7 +696,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>writing!$M$1</c:f>
+              <c:f>writing!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -714,10 +777,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$42</c:f>
+              <c:f>writing!$A$2:$A$51</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -840,16 +903,43 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44181</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44182</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44189</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44194</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44195</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$M$2:$M$42</c:f>
+              <c:f>writing!$P$2:$P$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>2614</c:v>
                 </c:pt>
@@ -890,7 +980,7 @@
                   <c:v>9499</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9110</c:v>
+                  <c:v>11013</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>9499</c:v>
@@ -932,46 +1022,73 @@
                   <c:v>18932</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>19294</c:v>
+                  <c:v>19791</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>22258</c:v>
+                  <c:v>22755</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>24130</c:v>
+                  <c:v>24627</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>25466</c:v>
+                  <c:v>25963</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>27855</c:v>
+                  <c:v>28352</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>29646</c:v>
+                  <c:v>30143</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>29649</c:v>
+                  <c:v>30146</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>29649</c:v>
+                  <c:v>30146</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>29196</c:v>
+                  <c:v>29693</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>29448</c:v>
+                  <c:v>29945</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>29577</c:v>
+                  <c:v>30074</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>29714</c:v>
+                  <c:v>30211</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>30225</c:v>
+                  <c:v>30722</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>30224</c:v>
+                  <c:v>30721</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>31094</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>31802</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>33111</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>34286</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>35114</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>36301</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>40046</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41369</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1003,7 +1120,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1261,7 +1378,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1907,7 +2024,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>218966</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1940,12 +2057,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:N42" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:N42" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:Q51" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:Q51" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q18">
     <sortCondition ref="A1:A18"/>
   </sortState>
-  <tableColumns count="14">
+  <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{BEA871B4-EEE2-4F93-9DBC-4AFC40E06E5F}" name="Date" dataDxfId="1"/>
     <tableColumn id="15" xr3:uid="{1B7B50EE-D1EF-4405-B2B9-09BEA9C0CE20}" name="CV" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{3081B1F4-64BE-4187-A6E1-DC702177CD85}" name="Abstract"/>
@@ -1958,11 +2075,14 @@
     <tableColumn id="7" xr3:uid="{DBDA4A9C-3B12-453F-B457-620D99362FF4}" name="3: Data &amp; Methods"/>
     <tableColumn id="8" xr3:uid="{C2A4C48B-7471-4014-9277-4A1B1EF3B40B}" name="4: Results"/>
     <tableColumn id="9" xr3:uid="{58756D61-0637-4214-BD00-EE98CC70539C}" name="5: Conclusion"/>
+    <tableColumn id="14" xr3:uid="{A0B27E14-9B88-430C-9991-860F493F768F}" name="App: Grammars"/>
+    <tableColumn id="16" xr3:uid="{070AEEBA-EE16-4E1A-AEF6-19497CCE82B9}" name="App: 100-items"/>
+    <tableColumn id="17" xr3:uid="{BE87AA87-E374-40DC-9D81-405C193B82BF}" name="App: Annotations"/>
     <tableColumn id="10" xr3:uid="{457CFC5C-BE64-406D-A9FB-BB2DBEA65B42}" name="Total">
-      <calculatedColumnFormula>SUM(C2:L2)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(C2:O2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{778E3DE4-F274-4416-84BC-FF498402E770}" name="Daily">
-      <calculatedColumnFormula>M2-M1</calculatedColumnFormula>
+      <calculatedColumnFormula>P2-P1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2272,7 +2392,7 @@
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2281,32 +2401,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+      <selection activeCell="K46" sqref="K46:L46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.22265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.16015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.390625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.43359375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.9296875" customWidth="1"/>
-    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.52734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.29296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.76171875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.94921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.4296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2344,13 +2464,22 @@
         <v>8</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44130</v>
       </c>
@@ -2388,14 +2517,23 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2:M14" si="0">SUM(C2:L2)</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>SUM(C2:O2)</f>
         <v>2614</v>
       </c>
-      <c r="N2">
+      <c r="Q2">
         <v>1360</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44131</v>
       </c>
@@ -2433,15 +2571,24 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>SUM(C3:O3)</f>
         <v>3628</v>
       </c>
-      <c r="N3" cm="1">
-        <f t="array" ref="N3">SUM(ABS(C3:L3-C2:L2))</f>
+      <c r="Q3" cm="1">
+        <f t="array" ref="Q3">SUM(ABS(C3:O3-C2:O2))</f>
         <v>1014</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44132</v>
       </c>
@@ -2479,15 +2626,24 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f>SUM(C4:O4)</f>
         <v>4429</v>
       </c>
-      <c r="N4" cm="1">
-        <f t="array" ref="N4">SUM(ABS(C4:L4-C3:L3))</f>
+      <c r="Q4" cm="1">
+        <f t="array" ref="Q4">SUM(ABS(C4:O4-C3:O3))</f>
         <v>801</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44133</v>
       </c>
@@ -2525,15 +2681,24 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f>SUM(C5:O5)</f>
         <v>5670</v>
       </c>
-      <c r="N5" cm="1">
-        <f t="array" ref="N5">SUM(ABS(C5:L5-C4:L4))</f>
+      <c r="Q5" cm="1">
+        <f t="array" ref="Q5">SUM(ABS(C5:O5-C4:O4))</f>
         <v>1241</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44134</v>
       </c>
@@ -2571,15 +2736,24 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f>SUM(C6:O6)</f>
         <v>6433</v>
       </c>
-      <c r="N6" cm="1">
-        <f t="array" ref="N6">SUM(ABS(C6:L6-C5:L5))</f>
+      <c r="Q6" cm="1">
+        <f t="array" ref="Q6">SUM(ABS(C6:O6-C5:O5))</f>
         <v>763</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44135</v>
       </c>
@@ -2617,15 +2791,24 @@
         <v>5</v>
       </c>
       <c r="M7">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f>SUM(C7:O7)</f>
         <v>7922</v>
       </c>
-      <c r="N7" cm="1">
-        <f t="array" ref="N7">SUM(ABS(C7:L7-C6:L6))</f>
+      <c r="Q7" cm="1">
+        <f t="array" ref="Q7">SUM(ABS(C7:O7-C6:O6))</f>
         <v>1511</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44136</v>
       </c>
@@ -2663,14 +2846,24 @@
         <v>5</v>
       </c>
       <c r="M8">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f>SUM(C8:O8)</f>
         <v>7922</v>
       </c>
-      <c r="N8">
-        <v>621</v>
+      <c r="Q8" cm="1">
+        <f t="array" ref="Q8">SUM(ABS(C8:O8-C7:O7))</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44137</v>
       </c>
@@ -2708,15 +2901,24 @@
         <v>5</v>
       </c>
       <c r="M9">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f>SUM(C9:O9)</f>
         <v>8733</v>
       </c>
-      <c r="N9" cm="1">
-        <f t="array" ref="N9">SUM(ABS(C9:L9-C8:L8))</f>
+      <c r="Q9" cm="1">
+        <f t="array" ref="Q9">SUM(ABS(C9:O9-C8:O8))</f>
         <v>811</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44138</v>
       </c>
@@ -2754,15 +2956,24 @@
         <v>5</v>
       </c>
       <c r="M10">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f>SUM(C10:O10)</f>
         <v>8943</v>
       </c>
-      <c r="N10" cm="1">
-        <f t="array" ref="N10">SUM(ABS(C10:L10-C9:L9))</f>
+      <c r="Q10" cm="1">
+        <f t="array" ref="Q10">SUM(ABS(C10:O10-C9:O9))</f>
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44139</v>
       </c>
@@ -2800,15 +3011,24 @@
         <v>5</v>
       </c>
       <c r="M11">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f>SUM(C11:O11)</f>
         <v>8913</v>
       </c>
-      <c r="N11" cm="1">
-        <f t="array" ref="N11">SUM(ABS(C11:L11-C10:L10))</f>
+      <c r="Q11" cm="1">
+        <f t="array" ref="Q11">SUM(ABS(C11:O11-C10:O10))</f>
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44142</v>
       </c>
@@ -2846,15 +3066,24 @@
         <v>5</v>
       </c>
       <c r="M12">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f>SUM(C12:O12)</f>
         <v>8988</v>
       </c>
-      <c r="N12" cm="1">
-        <f t="array" ref="N12">SUM(ABS(C12:L12-C11:L11))</f>
+      <c r="Q12" cm="1">
+        <f t="array" ref="Q12">SUM(ABS(C12:O12-C11:O11))</f>
         <v>439</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44143</v>
       </c>
@@ -2892,14 +3121,24 @@
         <v>5</v>
       </c>
       <c r="M13">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f>SUM(C13:O13)</f>
         <v>8988</v>
       </c>
-      <c r="N13">
-        <v>584</v>
+      <c r="Q13" cm="1">
+        <f t="array" ref="Q13">SUM(ABS(C13:O13-C12:O12))</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44144</v>
       </c>
@@ -2937,14 +3176,24 @@
         <v>186</v>
       </c>
       <c r="M14">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f>SUM(C14:O14)</f>
         <v>9499</v>
       </c>
-      <c r="N14">
-        <v>843</v>
+      <c r="Q14" cm="1">
+        <f t="array" ref="Q14">SUM(ABS(C14:O14-C13:O13))</f>
+        <v>511</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44145</v>
       </c>
@@ -2982,13 +3231,24 @@
         <v>186</v>
       </c>
       <c r="M15">
-        <v>9110</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>511</v>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f>SUM(C15:O15)</f>
+        <v>11013</v>
+      </c>
+      <c r="Q15" cm="1">
+        <f t="array" ref="Q15">SUM(ABS(C15:O15-C14:O14))</f>
+        <v>1582</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44146</v>
       </c>
@@ -3026,14 +3286,24 @@
         <v>186</v>
       </c>
       <c r="M16">
-        <f t="shared" ref="M16:M34" si="1">SUM(C16:L16)</f>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f>SUM(C16:O16)</f>
         <v>9499</v>
       </c>
-      <c r="N16">
-        <v>2671</v>
+      <c r="Q16" cm="1">
+        <f t="array" ref="Q16">SUM(ABS(C16:O16-C15:O15))</f>
+        <v>1582</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44150</v>
       </c>
@@ -3071,14 +3341,24 @@
         <v>186</v>
       </c>
       <c r="M17">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f>SUM(C17:O17)</f>
         <v>9675</v>
       </c>
-      <c r="N17">
-        <v>577</v>
+      <c r="Q17" cm="1">
+        <f t="array" ref="Q17">SUM(ABS(C17:O17-C16:O16))</f>
+        <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44151</v>
       </c>
@@ -3116,15 +3396,24 @@
         <v>186</v>
       </c>
       <c r="M18">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f>SUM(C18:O18)</f>
         <v>11013</v>
       </c>
-      <c r="N18" cm="1">
-        <f t="array" ref="N18">SUM(ABS(C18:L18-C17:L17))</f>
+      <c r="Q18" cm="1">
+        <f t="array" ref="Q18">SUM(ABS(C18:O18-C17:O17))</f>
         <v>1406</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44152</v>
       </c>
@@ -3162,15 +3451,24 @@
         <v>186</v>
       </c>
       <c r="M19">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f>SUM(C19:O19)</f>
         <v>11348</v>
       </c>
-      <c r="N19" cm="1">
-        <f t="array" ref="N19">SUM(ABS(C19:L19-C18:L18))</f>
+      <c r="Q19" cm="1">
+        <f t="array" ref="Q19">SUM(ABS(C19:O19-C18:O18))</f>
         <v>335</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44153</v>
       </c>
@@ -3208,15 +3506,24 @@
         <v>186</v>
       </c>
       <c r="M20">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f>SUM(C20:O20)</f>
         <v>12347</v>
       </c>
-      <c r="N20" cm="1">
-        <f t="array" ref="N20">SUM(ABS(C20:L20-C19:L19))</f>
+      <c r="Q20" cm="1">
+        <f t="array" ref="Q20">SUM(ABS(C20:O20-C19:O19))</f>
         <v>999</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44154</v>
       </c>
@@ -3254,15 +3561,24 @@
         <v>186</v>
       </c>
       <c r="M21">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f>SUM(C21:O21)</f>
         <v>12403</v>
       </c>
-      <c r="N21" cm="1">
-        <f t="array" ref="N21">SUM(ABS(C21:L21-C20:L20))</f>
+      <c r="Q21" cm="1">
+        <f t="array" ref="Q21">SUM(ABS(C21:O21-C20:O20))</f>
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44155</v>
       </c>
@@ -3300,15 +3616,24 @@
         <v>186</v>
       </c>
       <c r="M22">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f>SUM(C22:O22)</f>
         <v>13539</v>
       </c>
-      <c r="N22" cm="1">
-        <f t="array" ref="N22">SUM(ABS(C22:L22-C21:L21))</f>
+      <c r="Q22" cm="1">
+        <f t="array" ref="Q22">SUM(ABS(C22:O22-C21:O21))</f>
         <v>1136</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44156</v>
       </c>
@@ -3346,15 +3671,24 @@
         <v>186</v>
       </c>
       <c r="M23">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f>SUM(C23:O23)</f>
         <v>14218</v>
       </c>
-      <c r="N23" cm="1">
-        <f t="array" ref="N23">SUM(ABS(C23:L23-C22:L22))</f>
+      <c r="Q23" cm="1">
+        <f t="array" ref="Q23">SUM(ABS(C23:O23-C22:O22))</f>
         <v>679</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44157</v>
       </c>
@@ -3392,15 +3726,24 @@
         <v>186</v>
       </c>
       <c r="M24">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f>SUM(C24:O24)</f>
         <v>16040</v>
       </c>
-      <c r="N24" cm="1">
-        <f t="array" ref="N24">SUM(ABS(C24:L24-C23:L23))</f>
+      <c r="Q24" cm="1">
+        <f t="array" ref="Q24">SUM(ABS(C24:O24-C23:O23))</f>
         <v>1822</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44158</v>
       </c>
@@ -3438,15 +3781,24 @@
         <v>186</v>
       </c>
       <c r="M25">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f>SUM(C25:O25)</f>
         <v>16196</v>
       </c>
-      <c r="N25" cm="1">
-        <f t="array" ref="N25">SUM(ABS(C25:L25-C24:L24))</f>
+      <c r="Q25" cm="1">
+        <f t="array" ref="Q25">SUM(ABS(C25:O25-C24:O24))</f>
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44159</v>
       </c>
@@ -3484,15 +3836,24 @@
         <v>186</v>
       </c>
       <c r="M26">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f>SUM(C26:O26)</f>
         <v>17824</v>
       </c>
-      <c r="N26" cm="1">
-        <f t="array" ref="N26">SUM(ABS(C26:L26-C25:L25))</f>
+      <c r="Q26" cm="1">
+        <f t="array" ref="Q26">SUM(ABS(C26:O26-C25:O25))</f>
         <v>1628</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44160</v>
       </c>
@@ -3530,15 +3891,24 @@
         <v>186</v>
       </c>
       <c r="M27">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f>SUM(C27:O27)</f>
         <v>18729</v>
       </c>
-      <c r="N27" cm="1">
-        <f t="array" ref="N27">SUM(ABS(C27:L27-C26:L26))</f>
+      <c r="Q27" cm="1">
+        <f t="array" ref="Q27">SUM(ABS(C27:O27-C26:O26))</f>
         <v>905</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44161</v>
       </c>
@@ -3576,15 +3946,24 @@
         <v>186</v>
       </c>
       <c r="M28">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f>SUM(C28:O28)</f>
         <v>18932</v>
       </c>
-      <c r="N28" cm="1">
-        <f t="array" ref="N28">SUM(ABS(C28:L28-C27:L27))</f>
+      <c r="Q28" cm="1">
+        <f t="array" ref="Q28">SUM(ABS(C28:O28-C27:O27))</f>
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44162</v>
       </c>
@@ -3622,15 +4001,24 @@
         <v>186</v>
       </c>
       <c r="M29">
-        <f t="shared" si="1"/>
-        <v>19294</v>
-      </c>
-      <c r="N29" cm="1">
-        <f t="array" ref="N29">SUM(ABS(C29:L29-C28:L28))</f>
-        <v>362</v>
+        <v>497</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f>SUM(C29:O29)</f>
+        <v>19791</v>
+      </c>
+      <c r="Q29" cm="1">
+        <f t="array" ref="Q29">SUM(ABS(C29:O29-C28:O28))</f>
+        <v>859</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44163</v>
       </c>
@@ -3668,15 +4056,24 @@
         <v>186</v>
       </c>
       <c r="M30">
-        <f t="shared" si="1"/>
-        <v>22258</v>
-      </c>
-      <c r="N30" cm="1">
-        <f t="array" ref="N30">SUM(ABS(C30:L30-C29:L29))</f>
+        <v>497</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f>SUM(C30:O30)</f>
+        <v>22755</v>
+      </c>
+      <c r="Q30" cm="1">
+        <f t="array" ref="Q30">SUM(ABS(C30:O30-C29:O29))</f>
         <v>2964</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44164</v>
       </c>
@@ -3714,15 +4111,24 @@
         <v>186</v>
       </c>
       <c r="M31">
-        <f t="shared" si="1"/>
-        <v>24130</v>
-      </c>
-      <c r="N31" cm="1">
-        <f t="array" ref="N31">SUM(ABS(C31:L31-C30:L30))</f>
+        <v>497</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f>SUM(C31:O31)</f>
+        <v>24627</v>
+      </c>
+      <c r="Q31" cm="1">
+        <f t="array" ref="Q31">SUM(ABS(C31:O31-C30:O30))</f>
         <v>1872</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44166</v>
       </c>
@@ -3760,15 +4166,24 @@
         <v>186</v>
       </c>
       <c r="M32">
-        <f t="shared" si="1"/>
-        <v>25466</v>
-      </c>
-      <c r="N32" cm="1">
-        <f t="array" ref="N32">SUM(ABS(C32:L32-C31:L31))</f>
+        <v>497</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f>SUM(C32:O32)</f>
+        <v>25963</v>
+      </c>
+      <c r="Q32" cm="1">
+        <f t="array" ref="Q32">SUM(ABS(C32:O32-C31:O31))</f>
         <v>1336</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44167</v>
       </c>
@@ -3806,15 +4221,24 @@
         <v>186</v>
       </c>
       <c r="M33">
-        <f t="shared" si="1"/>
-        <v>27855</v>
-      </c>
-      <c r="N33" cm="1">
-        <f t="array" ref="N33">SUM(ABS(C33:L33-C32:L32))</f>
+        <v>497</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f>SUM(C33:O33)</f>
+        <v>28352</v>
+      </c>
+      <c r="Q33" cm="1">
+        <f t="array" ref="Q33">SUM(ABS(C33:O33-C32:O32))</f>
         <v>2389</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44168</v>
       </c>
@@ -3852,15 +4276,24 @@
         <v>186</v>
       </c>
       <c r="M34">
-        <f t="shared" si="1"/>
-        <v>29646</v>
-      </c>
-      <c r="N34" cm="1">
-        <f t="array" ref="N34">SUM(ABS(C34:L34-C33:L33))</f>
+        <v>497</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f>SUM(C34:O34)</f>
+        <v>30143</v>
+      </c>
+      <c r="Q34" cm="1">
+        <f t="array" ref="Q34">SUM(ABS(C34:O34-C33:O33))</f>
         <v>1791</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44169</v>
       </c>
@@ -3898,15 +4331,24 @@
         <v>186</v>
       </c>
       <c r="M35">
-        <f t="shared" ref="M35:M40" si="2">SUM(C35:L35)</f>
-        <v>29649</v>
-      </c>
-      <c r="N35" cm="1">
-        <f t="array" ref="N35">SUM(ABS(C35:L35-C34:L34))</f>
+        <v>497</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f>SUM(C35:O35)</f>
+        <v>30146</v>
+      </c>
+      <c r="Q35" cm="1">
+        <f t="array" ref="Q35">SUM(ABS(C35:O35-C34:O34))</f>
         <v>481</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44170</v>
       </c>
@@ -3944,15 +4386,24 @@
         <v>186</v>
       </c>
       <c r="M36">
-        <f t="shared" si="2"/>
-        <v>29649</v>
-      </c>
-      <c r="N36" cm="1">
-        <f t="array" ref="N36">SUM(ABS(C36:L36-C35:L35))</f>
+        <v>497</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f>SUM(C36:O36)</f>
+        <v>30146</v>
+      </c>
+      <c r="Q36" cm="1">
+        <f t="array" ref="Q36">SUM(ABS(C36:O36-C35:O35))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44173</v>
       </c>
@@ -3990,15 +4441,24 @@
         <v>186</v>
       </c>
       <c r="M37">
-        <f t="shared" si="2"/>
-        <v>29196</v>
-      </c>
-      <c r="N37" cm="1">
-        <f t="array" ref="N37">SUM(ABS(C37:L37-C36:L36))</f>
+        <v>497</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f>SUM(C37:O37)</f>
+        <v>29693</v>
+      </c>
+      <c r="Q37" cm="1">
+        <f t="array" ref="Q37">SUM(ABS(C37:O37-C36:O36))</f>
         <v>463</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44174</v>
       </c>
@@ -4036,15 +4496,24 @@
         <v>186</v>
       </c>
       <c r="M38">
-        <f t="shared" si="2"/>
-        <v>29448</v>
-      </c>
-      <c r="N38" cm="1">
-        <f t="array" ref="N38">SUM(ABS(C38:L38-C37:L37))</f>
+        <v>497</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f>SUM(C38:O38)</f>
+        <v>29945</v>
+      </c>
+      <c r="Q38" cm="1">
+        <f t="array" ref="Q38">SUM(ABS(C38:O38-C37:O37))</f>
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44175</v>
       </c>
@@ -4082,15 +4551,24 @@
         <v>186</v>
       </c>
       <c r="M39">
-        <f t="shared" si="2"/>
-        <v>29577</v>
-      </c>
-      <c r="N39" cm="1">
-        <f t="array" ref="N39">SUM(ABS(C39:L39-C38:L38))</f>
+        <v>497</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f>SUM(C39:O39)</f>
+        <v>30074</v>
+      </c>
+      <c r="Q39" cm="1">
+        <f t="array" ref="Q39">SUM(ABS(C39:O39-C38:O38))</f>
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44176</v>
       </c>
@@ -4128,15 +4606,24 @@
         <v>186</v>
       </c>
       <c r="M40">
-        <f t="shared" si="2"/>
-        <v>29714</v>
-      </c>
-      <c r="N40" cm="1">
-        <f t="array" ref="N40">SUM(ABS(C40:L40-C39:L39))</f>
+        <v>497</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <f>SUM(C40:O40)</f>
+        <v>30211</v>
+      </c>
+      <c r="Q40" cm="1">
+        <f t="array" ref="Q40">SUM(ABS(C40:O40-C39:O39))</f>
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44177</v>
       </c>
@@ -4174,15 +4661,24 @@
         <v>186</v>
       </c>
       <c r="M41">
-        <f>SUM(C41:L41)</f>
-        <v>30225</v>
-      </c>
-      <c r="N41" cm="1">
-        <f t="array" ref="N41">SUM(ABS(C41:L41-C40:L40))</f>
+        <v>497</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <f>SUM(C41:O41)</f>
+        <v>30722</v>
+      </c>
+      <c r="Q41" cm="1">
+        <f t="array" ref="Q41">SUM(ABS(C41:O41-C40:O40))</f>
         <v>511</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>44178</v>
       </c>
@@ -4220,12 +4716,516 @@
         <v>186</v>
       </c>
       <c r="M42">
-        <f>SUM(C42:L42)</f>
-        <v>30224</v>
-      </c>
-      <c r="N42" cm="1">
-        <f t="array" ref="N42">SUM(ABS(C42:L42-C41:L41))</f>
+        <v>497</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <f>SUM(C42:O42)</f>
+        <v>30721</v>
+      </c>
+      <c r="Q42" cm="1">
+        <f t="array" ref="Q42">SUM(ABS(C42:O42-C41:O41))</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B43">
+        <v>568</v>
+      </c>
+      <c r="C43">
+        <v>239</v>
+      </c>
+      <c r="D43">
+        <v>87</v>
+      </c>
+      <c r="E43">
+        <v>198</v>
+      </c>
+      <c r="F43">
+        <v>492</v>
+      </c>
+      <c r="G43">
+        <v>416</v>
+      </c>
+      <c r="H43">
+        <v>8506</v>
+      </c>
+      <c r="I43">
+        <v>19864</v>
+      </c>
+      <c r="J43">
+        <v>493</v>
+      </c>
+      <c r="K43">
+        <v>116</v>
+      </c>
+      <c r="L43">
+        <v>186</v>
+      </c>
+      <c r="M43">
+        <v>497</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f>SUM(C43:O43)</f>
+        <v>31094</v>
+      </c>
+      <c r="Q43" cm="1">
+        <f t="array" ref="Q43">SUM(ABS(C43:O43-C42:O42))</f>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>44180</v>
+      </c>
+      <c r="B44">
+        <v>568</v>
+      </c>
+      <c r="C44">
+        <v>239</v>
+      </c>
+      <c r="D44">
+        <v>87</v>
+      </c>
+      <c r="E44">
+        <v>198</v>
+      </c>
+      <c r="F44">
+        <v>492</v>
+      </c>
+      <c r="G44">
+        <v>416</v>
+      </c>
+      <c r="H44">
+        <v>8506</v>
+      </c>
+      <c r="I44">
+        <v>19864</v>
+      </c>
+      <c r="J44">
+        <v>1201</v>
+      </c>
+      <c r="K44">
+        <v>116</v>
+      </c>
+      <c r="L44">
+        <v>186</v>
+      </c>
+      <c r="M44">
+        <v>497</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <f>SUM(C44:O44)</f>
+        <v>31802</v>
+      </c>
+      <c r="Q44" cm="1">
+        <f t="array" ref="Q44">SUM(ABS(C44:O44-C43:O43))</f>
+        <v>708</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B45">
+        <v>568</v>
+      </c>
+      <c r="C45">
+        <v>239</v>
+      </c>
+      <c r="D45">
+        <v>87</v>
+      </c>
+      <c r="E45">
+        <v>198</v>
+      </c>
+      <c r="F45">
+        <v>492</v>
+      </c>
+      <c r="G45">
+        <v>416</v>
+      </c>
+      <c r="H45">
+        <v>8524</v>
+      </c>
+      <c r="I45">
+        <v>19896</v>
+      </c>
+      <c r="J45">
+        <v>2460</v>
+      </c>
+      <c r="K45">
+        <v>116</v>
+      </c>
+      <c r="L45">
+        <v>186</v>
+      </c>
+      <c r="M45">
+        <v>497</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <f>SUM(C45:O45)</f>
+        <v>33111</v>
+      </c>
+      <c r="Q45" cm="1">
+        <f t="array" ref="Q45">SUM(ABS(C45:O45-C44:O44))</f>
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>44182</v>
+      </c>
+      <c r="B46">
+        <v>568</v>
+      </c>
+      <c r="C46">
+        <v>239</v>
+      </c>
+      <c r="D46">
+        <v>87</v>
+      </c>
+      <c r="E46">
+        <v>198</v>
+      </c>
+      <c r="F46">
+        <v>492</v>
+      </c>
+      <c r="G46">
+        <v>416</v>
+      </c>
+      <c r="H46">
+        <v>8524</v>
+      </c>
+      <c r="I46">
+        <v>19896</v>
+      </c>
+      <c r="J46">
+        <v>3619</v>
+      </c>
+      <c r="K46">
+        <v>116</v>
+      </c>
+      <c r="L46">
+        <v>186</v>
+      </c>
+      <c r="M46">
+        <v>497</v>
+      </c>
+      <c r="N46">
+        <v>9</v>
+      </c>
+      <c r="O46">
+        <v>7</v>
+      </c>
+      <c r="P46">
+        <f>SUM(C46:O46)</f>
+        <v>34286</v>
+      </c>
+      <c r="Q46" cm="1">
+        <f t="array" ref="Q46">SUM(ABS(C46:O46-C45:O45))</f>
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>44189</v>
+      </c>
+      <c r="B47">
+        <v>568</v>
+      </c>
+      <c r="C47">
+        <v>239</v>
+      </c>
+      <c r="D47">
+        <v>87</v>
+      </c>
+      <c r="E47">
+        <v>198</v>
+      </c>
+      <c r="F47">
+        <v>492</v>
+      </c>
+      <c r="G47">
+        <v>416</v>
+      </c>
+      <c r="H47">
+        <v>8524</v>
+      </c>
+      <c r="I47">
+        <v>19896</v>
+      </c>
+      <c r="J47">
+        <v>4447</v>
+      </c>
+      <c r="K47">
+        <v>116</v>
+      </c>
+      <c r="L47">
+        <v>186</v>
+      </c>
+      <c r="M47">
+        <v>497</v>
+      </c>
+      <c r="N47">
+        <v>9</v>
+      </c>
+      <c r="O47">
+        <v>7</v>
+      </c>
+      <c r="P47">
+        <f>SUM(C47:O47)</f>
+        <v>35114</v>
+      </c>
+      <c r="Q47" cm="1">
+        <f t="array" ref="Q47">SUM(ABS(C47:O47-C46:O46))</f>
+        <v>828</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>44194</v>
+      </c>
+      <c r="B48">
+        <v>568</v>
+      </c>
+      <c r="C48">
+        <v>239</v>
+      </c>
+      <c r="D48">
+        <v>87</v>
+      </c>
+      <c r="E48">
+        <v>198</v>
+      </c>
+      <c r="F48">
+        <v>492</v>
+      </c>
+      <c r="G48">
+        <v>416</v>
+      </c>
+      <c r="H48">
+        <v>8524</v>
+      </c>
+      <c r="I48">
+        <v>19896</v>
+      </c>
+      <c r="J48">
+        <v>5634</v>
+      </c>
+      <c r="K48">
+        <v>116</v>
+      </c>
+      <c r="L48">
+        <v>186</v>
+      </c>
+      <c r="M48">
+        <v>497</v>
+      </c>
+      <c r="N48">
+        <v>9</v>
+      </c>
+      <c r="O48">
+        <v>7</v>
+      </c>
+      <c r="P48">
+        <f>SUM(C48:O48)</f>
+        <v>36301</v>
+      </c>
+      <c r="Q48" cm="1">
+        <f t="array" ref="Q48">SUM(ABS(C48:O48-C47:O47))</f>
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B49">
+        <v>568</v>
+      </c>
+      <c r="C49">
+        <v>239</v>
+      </c>
+      <c r="D49">
+        <v>87</v>
+      </c>
+      <c r="E49">
+        <v>229</v>
+      </c>
+      <c r="F49">
+        <v>492</v>
+      </c>
+      <c r="G49">
+        <v>416</v>
+      </c>
+      <c r="H49">
+        <v>8498</v>
+      </c>
+      <c r="I49">
+        <v>19876</v>
+      </c>
+      <c r="J49">
+        <v>5844</v>
+      </c>
+      <c r="K49">
+        <v>116</v>
+      </c>
+      <c r="L49">
+        <v>186</v>
+      </c>
+      <c r="M49">
+        <v>497</v>
+      </c>
+      <c r="N49">
+        <v>3559</v>
+      </c>
+      <c r="O49">
+        <v>7</v>
+      </c>
+      <c r="P49">
+        <f>SUM(C49:O49)</f>
+        <v>40046</v>
+      </c>
+      <c r="Q49" cm="1">
+        <f t="array" ref="Q49">SUM(ABS(C49:O49-C48:O48))</f>
+        <v>3837</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B50">
+        <v>631</v>
+      </c>
+      <c r="C50">
+        <v>239</v>
+      </c>
+      <c r="D50">
+        <v>87</v>
+      </c>
+      <c r="E50">
+        <v>229</v>
+      </c>
+      <c r="F50">
+        <v>492</v>
+      </c>
+      <c r="G50">
+        <v>416</v>
+      </c>
+      <c r="H50">
+        <v>8498</v>
+      </c>
+      <c r="I50">
+        <v>19876</v>
+      </c>
+      <c r="J50">
+        <v>5844</v>
+      </c>
+      <c r="K50">
+        <v>117</v>
+      </c>
+      <c r="L50">
+        <v>186</v>
+      </c>
+      <c r="M50">
+        <v>497</v>
+      </c>
+      <c r="N50">
+        <v>3559</v>
+      </c>
+      <c r="O50">
+        <v>1329</v>
+      </c>
+      <c r="P50">
+        <f>SUM(C50:O50)</f>
+        <v>41369</v>
+      </c>
+      <c r="Q50" cm="1">
+        <f t="array" ref="Q50">SUM(ABS(C50:O50-C49:O49))</f>
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>44198</v>
+      </c>
+      <c r="B51">
+        <v>631</v>
+      </c>
+      <c r="C51">
+        <v>260</v>
+      </c>
+      <c r="D51">
+        <v>87</v>
+      </c>
+      <c r="E51">
+        <v>229</v>
+      </c>
+      <c r="F51">
+        <v>492</v>
+      </c>
+      <c r="G51">
+        <v>416</v>
+      </c>
+      <c r="H51">
+        <v>8550</v>
+      </c>
+      <c r="I51">
+        <v>19876</v>
+      </c>
+      <c r="J51">
+        <v>6122</v>
+      </c>
+      <c r="K51">
+        <v>117</v>
+      </c>
+      <c r="L51">
+        <v>186</v>
+      </c>
+      <c r="M51">
+        <v>496</v>
+      </c>
+      <c r="N51">
+        <v>3559</v>
+      </c>
+      <c r="O51">
+        <v>1329</v>
+      </c>
+      <c r="P51">
+        <f>SUM(C51:O51)</f>
+        <v>41719</v>
+      </c>
+      <c r="Q51">
+        <f>P51-P50</f>
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="592" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{ABCA1320-68BE-3B4E-9554-DC5B7F8111C8}"/>
+  <xr:revisionPtr revIDLastSave="596" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{123504E3-4933-4BCF-B556-499C3BF8550E}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
@@ -161,10 +161,10 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -354,10 +354,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$51</c:f>
+              <c:f>writing!$A$2:$A$52</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -507,16 +507,19 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>44198</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44210</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$Q$2:$Q$51</c:f>
+              <c:f>writing!$Q$2:$Q$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -666,6 +669,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -777,10 +783,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$51</c:f>
+              <c:f>writing!$A$2:$A$52</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -930,16 +936,19 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>44198</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44210</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$P$2:$P$51</c:f>
+              <c:f>writing!$P$2:$P$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>2614</c:v>
                 </c:pt>
@@ -1089,6 +1098,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>41719</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41953</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1120,7 +1132,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1378,7 +1390,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2057,8 +2069,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:Q51" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:Q51" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:Q52" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:Q52" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -2388,11 +2400,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2401,32 +2413,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46:L46"/>
+    <sheetView tabSelected="1" topLeftCell="F35" workbookViewId="0">
+      <selection activeCell="Q52" sqref="Q52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.22265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.68359375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.16015625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.390625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.43359375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.52734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.29296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.76171875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.94921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.4296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.9296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.53125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2479,7 +2491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>44130</v>
       </c>
@@ -2526,14 +2538,14 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <f>SUM(C2:O2)</f>
+        <f t="shared" ref="P2:P33" si="0">SUM(C2:O2)</f>
         <v>2614</v>
       </c>
       <c r="Q2">
         <v>1360</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>44131</v>
       </c>
@@ -2580,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <f>SUM(C3:O3)</f>
+        <f t="shared" si="0"/>
         <v>3628</v>
       </c>
       <c r="Q3" cm="1">
@@ -2588,7 +2600,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>44132</v>
       </c>
@@ -2635,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <f>SUM(C4:O4)</f>
+        <f t="shared" si="0"/>
         <v>4429</v>
       </c>
       <c r="Q4" cm="1">
@@ -2643,7 +2655,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44133</v>
       </c>
@@ -2690,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <f>SUM(C5:O5)</f>
+        <f t="shared" si="0"/>
         <v>5670</v>
       </c>
       <c r="Q5" cm="1">
@@ -2698,7 +2710,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>44134</v>
       </c>
@@ -2745,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <f>SUM(C6:O6)</f>
+        <f t="shared" si="0"/>
         <v>6433</v>
       </c>
       <c r="Q6" cm="1">
@@ -2753,7 +2765,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>44135</v>
       </c>
@@ -2800,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <f>SUM(C7:O7)</f>
+        <f t="shared" si="0"/>
         <v>7922</v>
       </c>
       <c r="Q7" cm="1">
@@ -2808,7 +2820,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>44136</v>
       </c>
@@ -2855,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <f>SUM(C8:O8)</f>
+        <f t="shared" si="0"/>
         <v>7922</v>
       </c>
       <c r="Q8" cm="1">
@@ -2863,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>44137</v>
       </c>
@@ -2910,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <f>SUM(C9:O9)</f>
+        <f t="shared" si="0"/>
         <v>8733</v>
       </c>
       <c r="Q9" cm="1">
@@ -2918,7 +2930,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>44138</v>
       </c>
@@ -2965,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <f>SUM(C10:O10)</f>
+        <f t="shared" si="0"/>
         <v>8943</v>
       </c>
       <c r="Q10" cm="1">
@@ -2973,7 +2985,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>44139</v>
       </c>
@@ -3020,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <f>SUM(C11:O11)</f>
+        <f t="shared" si="0"/>
         <v>8913</v>
       </c>
       <c r="Q11" cm="1">
@@ -3028,7 +3040,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>44142</v>
       </c>
@@ -3075,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <f>SUM(C12:O12)</f>
+        <f t="shared" si="0"/>
         <v>8988</v>
       </c>
       <c r="Q12" cm="1">
@@ -3083,7 +3095,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>44143</v>
       </c>
@@ -3130,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <f>SUM(C13:O13)</f>
+        <f t="shared" si="0"/>
         <v>8988</v>
       </c>
       <c r="Q13" cm="1">
@@ -3138,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>44144</v>
       </c>
@@ -3185,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <f>SUM(C14:O14)</f>
+        <f t="shared" si="0"/>
         <v>9499</v>
       </c>
       <c r="Q14" cm="1">
@@ -3193,7 +3205,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>44145</v>
       </c>
@@ -3240,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <f>SUM(C15:O15)</f>
+        <f t="shared" si="0"/>
         <v>11013</v>
       </c>
       <c r="Q15" cm="1">
@@ -3248,7 +3260,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>44146</v>
       </c>
@@ -3295,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <f>SUM(C16:O16)</f>
+        <f t="shared" si="0"/>
         <v>9499</v>
       </c>
       <c r="Q16" cm="1">
@@ -3303,7 +3315,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>44150</v>
       </c>
@@ -3350,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <f>SUM(C17:O17)</f>
+        <f t="shared" si="0"/>
         <v>9675</v>
       </c>
       <c r="Q17" cm="1">
@@ -3358,7 +3370,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>44151</v>
       </c>
@@ -3405,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <f>SUM(C18:O18)</f>
+        <f t="shared" si="0"/>
         <v>11013</v>
       </c>
       <c r="Q18" cm="1">
@@ -3413,7 +3425,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>44152</v>
       </c>
@@ -3460,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <f>SUM(C19:O19)</f>
+        <f t="shared" si="0"/>
         <v>11348</v>
       </c>
       <c r="Q19" cm="1">
@@ -3468,7 +3480,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>44153</v>
       </c>
@@ -3515,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <f>SUM(C20:O20)</f>
+        <f t="shared" si="0"/>
         <v>12347</v>
       </c>
       <c r="Q20" cm="1">
@@ -3523,7 +3535,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>44154</v>
       </c>
@@ -3570,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <f>SUM(C21:O21)</f>
+        <f t="shared" si="0"/>
         <v>12403</v>
       </c>
       <c r="Q21" cm="1">
@@ -3578,7 +3590,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>44155</v>
       </c>
@@ -3625,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <f>SUM(C22:O22)</f>
+        <f t="shared" si="0"/>
         <v>13539</v>
       </c>
       <c r="Q22" cm="1">
@@ -3633,7 +3645,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>44156</v>
       </c>
@@ -3680,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <f>SUM(C23:O23)</f>
+        <f t="shared" si="0"/>
         <v>14218</v>
       </c>
       <c r="Q23" cm="1">
@@ -3688,7 +3700,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>44157</v>
       </c>
@@ -3735,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <f>SUM(C24:O24)</f>
+        <f t="shared" si="0"/>
         <v>16040</v>
       </c>
       <c r="Q24" cm="1">
@@ -3743,7 +3755,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>44158</v>
       </c>
@@ -3790,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <f>SUM(C25:O25)</f>
+        <f t="shared" si="0"/>
         <v>16196</v>
       </c>
       <c r="Q25" cm="1">
@@ -3798,7 +3810,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>44159</v>
       </c>
@@ -3845,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="P26">
-        <f>SUM(C26:O26)</f>
+        <f t="shared" si="0"/>
         <v>17824</v>
       </c>
       <c r="Q26" cm="1">
@@ -3853,7 +3865,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>44160</v>
       </c>
@@ -3900,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="P27">
-        <f>SUM(C27:O27)</f>
+        <f t="shared" si="0"/>
         <v>18729</v>
       </c>
       <c r="Q27" cm="1">
@@ -3908,7 +3920,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>44161</v>
       </c>
@@ -3955,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="P28">
-        <f>SUM(C28:O28)</f>
+        <f t="shared" si="0"/>
         <v>18932</v>
       </c>
       <c r="Q28" cm="1">
@@ -3963,7 +3975,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>44162</v>
       </c>
@@ -4010,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="P29">
-        <f>SUM(C29:O29)</f>
+        <f t="shared" si="0"/>
         <v>19791</v>
       </c>
       <c r="Q29" cm="1">
@@ -4018,7 +4030,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>44163</v>
       </c>
@@ -4065,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="P30">
-        <f>SUM(C30:O30)</f>
+        <f t="shared" si="0"/>
         <v>22755</v>
       </c>
       <c r="Q30" cm="1">
@@ -4073,7 +4085,7 @@
         <v>2964</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>44164</v>
       </c>
@@ -4120,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <f>SUM(C31:O31)</f>
+        <f t="shared" si="0"/>
         <v>24627</v>
       </c>
       <c r="Q31" cm="1">
@@ -4128,7 +4140,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>44166</v>
       </c>
@@ -4175,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <f>SUM(C32:O32)</f>
+        <f t="shared" si="0"/>
         <v>25963</v>
       </c>
       <c r="Q32" cm="1">
@@ -4183,7 +4195,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>44167</v>
       </c>
@@ -4230,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="P33">
-        <f>SUM(C33:O33)</f>
+        <f t="shared" si="0"/>
         <v>28352</v>
       </c>
       <c r="Q33" cm="1">
@@ -4238,7 +4250,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>44168</v>
       </c>
@@ -4285,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="P34">
-        <f>SUM(C34:O34)</f>
+        <f t="shared" ref="P34:P65" si="1">SUM(C34:O34)</f>
         <v>30143</v>
       </c>
       <c r="Q34" cm="1">
@@ -4293,7 +4305,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>44169</v>
       </c>
@@ -4340,7 +4352,7 @@
         <v>0</v>
       </c>
       <c r="P35">
-        <f>SUM(C35:O35)</f>
+        <f t="shared" si="1"/>
         <v>30146</v>
       </c>
       <c r="Q35" cm="1">
@@ -4348,7 +4360,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>44170</v>
       </c>
@@ -4395,7 +4407,7 @@
         <v>0</v>
       </c>
       <c r="P36">
-        <f>SUM(C36:O36)</f>
+        <f t="shared" si="1"/>
         <v>30146</v>
       </c>
       <c r="Q36" cm="1">
@@ -4403,7 +4415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>44173</v>
       </c>
@@ -4450,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="P37">
-        <f>SUM(C37:O37)</f>
+        <f t="shared" si="1"/>
         <v>29693</v>
       </c>
       <c r="Q37" cm="1">
@@ -4458,7 +4470,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>44174</v>
       </c>
@@ -4505,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="P38">
-        <f>SUM(C38:O38)</f>
+        <f t="shared" si="1"/>
         <v>29945</v>
       </c>
       <c r="Q38" cm="1">
@@ -4513,7 +4525,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>44175</v>
       </c>
@@ -4560,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="P39">
-        <f>SUM(C39:O39)</f>
+        <f t="shared" si="1"/>
         <v>30074</v>
       </c>
       <c r="Q39" cm="1">
@@ -4568,7 +4580,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>44176</v>
       </c>
@@ -4615,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="P40">
-        <f>SUM(C40:O40)</f>
+        <f t="shared" si="1"/>
         <v>30211</v>
       </c>
       <c r="Q40" cm="1">
@@ -4623,7 +4635,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>44177</v>
       </c>
@@ -4670,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="P41">
-        <f>SUM(C41:O41)</f>
+        <f t="shared" si="1"/>
         <v>30722</v>
       </c>
       <c r="Q41" cm="1">
@@ -4678,7 +4690,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>44178</v>
       </c>
@@ -4725,7 +4737,7 @@
         <v>0</v>
       </c>
       <c r="P42">
-        <f>SUM(C42:O42)</f>
+        <f t="shared" si="1"/>
         <v>30721</v>
       </c>
       <c r="Q42" cm="1">
@@ -4733,7 +4745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>44179</v>
       </c>
@@ -4780,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="P43">
-        <f>SUM(C43:O43)</f>
+        <f t="shared" si="1"/>
         <v>31094</v>
       </c>
       <c r="Q43" cm="1">
@@ -4788,7 +4800,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>44180</v>
       </c>
@@ -4835,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <f>SUM(C44:O44)</f>
+        <f t="shared" si="1"/>
         <v>31802</v>
       </c>
       <c r="Q44" cm="1">
@@ -4843,7 +4855,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>44181</v>
       </c>
@@ -4890,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="P45">
-        <f>SUM(C45:O45)</f>
+        <f t="shared" si="1"/>
         <v>33111</v>
       </c>
       <c r="Q45" cm="1">
@@ -4898,7 +4910,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>44182</v>
       </c>
@@ -4945,7 +4957,7 @@
         <v>7</v>
       </c>
       <c r="P46">
-        <f>SUM(C46:O46)</f>
+        <f t="shared" si="1"/>
         <v>34286</v>
       </c>
       <c r="Q46" cm="1">
@@ -4953,7 +4965,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>44189</v>
       </c>
@@ -5000,7 +5012,7 @@
         <v>7</v>
       </c>
       <c r="P47">
-        <f>SUM(C47:O47)</f>
+        <f t="shared" si="1"/>
         <v>35114</v>
       </c>
       <c r="Q47" cm="1">
@@ -5008,7 +5020,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>44194</v>
       </c>
@@ -5055,7 +5067,7 @@
         <v>7</v>
       </c>
       <c r="P48">
-        <f>SUM(C48:O48)</f>
+        <f t="shared" si="1"/>
         <v>36301</v>
       </c>
       <c r="Q48" cm="1">
@@ -5063,7 +5075,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>44195</v>
       </c>
@@ -5110,7 +5122,7 @@
         <v>7</v>
       </c>
       <c r="P49">
-        <f>SUM(C49:O49)</f>
+        <f t="shared" si="1"/>
         <v>40046</v>
       </c>
       <c r="Q49" cm="1">
@@ -5118,7 +5130,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>44197</v>
       </c>
@@ -5165,7 +5177,7 @@
         <v>1329</v>
       </c>
       <c r="P50">
-        <f>SUM(C50:O50)</f>
+        <f t="shared" si="1"/>
         <v>41369</v>
       </c>
       <c r="Q50" cm="1">
@@ -5173,7 +5185,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>44198</v>
       </c>
@@ -5220,12 +5232,67 @@
         <v>1329</v>
       </c>
       <c r="P51">
-        <f>SUM(C51:O51)</f>
+        <f t="shared" si="1"/>
         <v>41719</v>
       </c>
       <c r="Q51">
         <f>P51-P50</f>
         <v>350</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>44210</v>
+      </c>
+      <c r="B52">
+        <v>631</v>
+      </c>
+      <c r="C52">
+        <v>260</v>
+      </c>
+      <c r="D52">
+        <v>87</v>
+      </c>
+      <c r="E52">
+        <v>229</v>
+      </c>
+      <c r="F52">
+        <v>492</v>
+      </c>
+      <c r="G52">
+        <v>416</v>
+      </c>
+      <c r="H52">
+        <v>8550</v>
+      </c>
+      <c r="I52">
+        <v>19876</v>
+      </c>
+      <c r="J52">
+        <v>6122</v>
+      </c>
+      <c r="K52">
+        <v>351</v>
+      </c>
+      <c r="L52">
+        <v>186</v>
+      </c>
+      <c r="M52">
+        <v>496</v>
+      </c>
+      <c r="N52">
+        <v>3559</v>
+      </c>
+      <c r="O52">
+        <v>1329</v>
+      </c>
+      <c r="P52">
+        <f>SUM(C52:O52)</f>
+        <v>41953</v>
+      </c>
+      <c r="Q52">
+        <f>P52-P51</f>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="596" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{123504E3-4933-4BCF-B556-499C3BF8550E}"/>
+  <xr:revisionPtr revIDLastSave="597" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{39BB63AA-9CDE-412E-AF89-1F0DA78EC461}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
@@ -671,7 +671,7 @@
                   <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>234</c:v>
+                  <c:v>336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1100,7 +1100,7 @@
                   <c:v>41719</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>41953</c:v>
+                  <c:v>42055</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2416,7 +2416,7 @@
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F35" workbookViewId="0">
-      <selection activeCell="Q52" sqref="Q52"/>
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4297,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="P34">
-        <f t="shared" ref="P34:P65" si="1">SUM(C34:O34)</f>
+        <f t="shared" ref="P34:P51" si="1">SUM(C34:O34)</f>
         <v>30143</v>
       </c>
       <c r="Q34" cm="1">
@@ -5272,7 +5272,7 @@
         <v>6122</v>
       </c>
       <c r="K52">
-        <v>351</v>
+        <v>453</v>
       </c>
       <c r="L52">
         <v>186</v>
@@ -5288,11 +5288,11 @@
       </c>
       <c r="P52">
         <f>SUM(C52:O52)</f>
-        <v>41953</v>
+        <v>42055</v>
       </c>
       <c r="Q52">
         <f>P52-P51</f>
-        <v>234</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="597" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{39BB63AA-9CDE-412E-AF89-1F0DA78EC461}"/>
+  <xr:revisionPtr revIDLastSave="616" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{33152130-83BD-4685-A6B9-C6F8D36C8A70}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
@@ -354,10 +354,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$52</c:f>
+              <c:f>writing!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -510,16 +510,19 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>44210</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$Q$2:$Q$52</c:f>
+              <c:f>writing!$Q$2:$Q$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -668,10 +671,13 @@
                   <c:v>1323</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>350</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -783,10 +789,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$52</c:f>
+              <c:f>writing!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -939,16 +945,19 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>44210</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$P$2:$P$52</c:f>
+              <c:f>writing!$P$2:$P$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>2614</c:v>
                 </c:pt>
@@ -1101,6 +1110,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>42055</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2069,8 +2081,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:Q52" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:Q52" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:Q53" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:Q53" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -2400,7 +2412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
@@ -2413,10 +2425,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F35" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5235,9 +5247,9 @@
         <f t="shared" si="1"/>
         <v>41719</v>
       </c>
-      <c r="Q51">
-        <f>P51-P50</f>
-        <v>350</v>
+      <c r="Q51" cm="1">
+        <f t="array" ref="Q51">SUM(ABS(C51:O51-C50:O50))</f>
+        <v>352</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.45">
@@ -5290,9 +5302,64 @@
         <f>SUM(C52:O52)</f>
         <v>42055</v>
       </c>
-      <c r="Q52">
-        <f>P52-P51</f>
+      <c r="Q52" cm="1">
+        <f t="array" ref="Q52">SUM(ABS(C52:O52-C51:O51))</f>
         <v>336</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>44211</v>
+      </c>
+      <c r="B53">
+        <v>631</v>
+      </c>
+      <c r="C53">
+        <v>260</v>
+      </c>
+      <c r="D53">
+        <v>87</v>
+      </c>
+      <c r="E53">
+        <v>229</v>
+      </c>
+      <c r="F53">
+        <v>492</v>
+      </c>
+      <c r="G53">
+        <v>416</v>
+      </c>
+      <c r="H53">
+        <v>8587</v>
+      </c>
+      <c r="I53">
+        <v>19876</v>
+      </c>
+      <c r="J53">
+        <v>6417</v>
+      </c>
+      <c r="K53">
+        <v>1081</v>
+      </c>
+      <c r="L53">
+        <v>186</v>
+      </c>
+      <c r="M53">
+        <v>496</v>
+      </c>
+      <c r="N53">
+        <v>3575</v>
+      </c>
+      <c r="O53">
+        <v>1329</v>
+      </c>
+      <c r="P53">
+        <f>SUM(C53:O53)</f>
+        <v>43031</v>
+      </c>
+      <c r="Q53" cm="1">
+        <f t="array" ref="Q53">SUM(ABS(C53:O53-C52:O52))</f>
+        <v>976</v>
       </c>
     </row>
   </sheetData>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="616" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{33152130-83BD-4685-A6B9-C6F8D36C8A70}"/>
+  <xr:revisionPtr revIDLastSave="618" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{885B32DF-3C59-40E5-B2D2-85E2E0B3BFC8}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
@@ -677,7 +677,7 @@
                   <c:v>336</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>976</c:v>
+                  <c:v>1134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1112,7 +1112,7 @@
                   <c:v>42055</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>43031</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2427,8 +2427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView topLeftCell="F35" workbookViewId="0">
+      <selection activeCell="Q53" sqref="Q53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5330,13 +5330,13 @@
         <v>416</v>
       </c>
       <c r="H53">
-        <v>8587</v>
+        <v>8725</v>
       </c>
       <c r="I53">
         <v>19876</v>
       </c>
       <c r="J53">
-        <v>6417</v>
+        <v>6437</v>
       </c>
       <c r="K53">
         <v>1081</v>
@@ -5355,11 +5355,11 @@
       </c>
       <c r="P53">
         <f>SUM(C53:O53)</f>
-        <v>43031</v>
+        <v>43189</v>
       </c>
       <c r="Q53" cm="1">
         <f t="array" ref="Q53">SUM(ABS(C53:O53-C52:O52))</f>
-        <v>976</v>
+        <v>1134</v>
       </c>
     </row>
   </sheetData>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="618" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{885B32DF-3C59-40E5-B2D2-85E2E0B3BFC8}"/>
+  <xr:revisionPtr revIDLastSave="630" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8A8185CA-6C84-4349-9F38-463CD39C4AE5}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
     <sheet name="writing" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -354,10 +354,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$53</c:f>
+              <c:f>writing!$A$2:$A$54</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -513,16 +513,19 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>44211</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$Q$2:$Q$53</c:f>
+              <c:f>writing!$Q$2:$Q$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -678,6 +681,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>1134</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1914</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -789,10 +795,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$53</c:f>
+              <c:f>writing!$A$2:$A$54</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -948,16 +954,19 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>44211</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$P$2:$P$53</c:f>
+              <c:f>writing!$P$2:$P$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>2614</c:v>
                 </c:pt>
@@ -1113,6 +1122,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>43189</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2081,8 +2093,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:Q53" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:Q53" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:Q54" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:Q54" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -2425,10 +2437,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView topLeftCell="F35" workbookViewId="0">
-      <selection activeCell="Q53" sqref="Q53"/>
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5362,6 +5374,61 @@
         <v>1134</v>
       </c>
     </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>44212</v>
+      </c>
+      <c r="B54">
+        <v>631</v>
+      </c>
+      <c r="C54">
+        <v>260</v>
+      </c>
+      <c r="D54">
+        <v>87</v>
+      </c>
+      <c r="E54">
+        <v>229</v>
+      </c>
+      <c r="F54">
+        <v>492</v>
+      </c>
+      <c r="G54">
+        <v>416</v>
+      </c>
+      <c r="H54">
+        <v>8725</v>
+      </c>
+      <c r="I54">
+        <v>19876</v>
+      </c>
+      <c r="J54">
+        <v>6562</v>
+      </c>
+      <c r="K54">
+        <v>2870</v>
+      </c>
+      <c r="L54">
+        <v>186</v>
+      </c>
+      <c r="M54">
+        <v>496</v>
+      </c>
+      <c r="N54">
+        <v>3575</v>
+      </c>
+      <c r="O54">
+        <v>1329</v>
+      </c>
+      <c r="P54">
+        <f>SUM(C54:O54)</f>
+        <v>45103</v>
+      </c>
+      <c r="Q54" cm="1">
+        <f t="array" ref="Q54">SUM(ABS(C54:O54-C53:O53))</f>
+        <v>1914</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="630" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8A8185CA-6C84-4349-9F38-463CD39C4AE5}"/>
+  <xr:revisionPtr revIDLastSave="640" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{67185CBF-2EEE-4EE0-8076-C1E573B4CAC8}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
@@ -354,10 +354,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$54</c:f>
+              <c:f>writing!$A$2:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -516,16 +516,19 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>44212</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$Q$2:$Q$54</c:f>
+              <c:f>writing!$Q$2:$Q$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -684,6 +687,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>1914</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2550</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -795,10 +801,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$54</c:f>
+              <c:f>writing!$A$2:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -957,16 +963,19 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>44212</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$P$2:$P$54</c:f>
+              <c:f>writing!$P$2:$P$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>2614</c:v>
                 </c:pt>
@@ -1125,6 +1134,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45103</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>47653</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2093,8 +2105,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:Q54" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:Q54" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:Q55" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:Q55" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -2424,7 +2436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
@@ -2437,10 +2449,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView topLeftCell="F35" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+    <sheetView tabSelected="1" topLeftCell="F35" workbookViewId="0">
+      <selection activeCell="Q55" sqref="Q55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5429,6 +5441,61 @@
         <v>1914</v>
       </c>
     </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>44219</v>
+      </c>
+      <c r="B55">
+        <v>631</v>
+      </c>
+      <c r="C55">
+        <v>260</v>
+      </c>
+      <c r="D55">
+        <v>87</v>
+      </c>
+      <c r="E55">
+        <v>229</v>
+      </c>
+      <c r="F55">
+        <v>492</v>
+      </c>
+      <c r="G55">
+        <v>416</v>
+      </c>
+      <c r="H55">
+        <v>8725</v>
+      </c>
+      <c r="I55">
+        <v>19876</v>
+      </c>
+      <c r="J55">
+        <v>6562</v>
+      </c>
+      <c r="K55">
+        <v>5420</v>
+      </c>
+      <c r="L55">
+        <v>186</v>
+      </c>
+      <c r="M55">
+        <v>496</v>
+      </c>
+      <c r="N55">
+        <v>3575</v>
+      </c>
+      <c r="O55">
+        <v>1329</v>
+      </c>
+      <c r="P55">
+        <f>SUM(C55:O55)</f>
+        <v>47653</v>
+      </c>
+      <c r="Q55">
+        <f>P55-P54</f>
+        <v>2550</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="640" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{67185CBF-2EEE-4EE0-8076-C1E573B4CAC8}"/>
+  <xr:revisionPtr revIDLastSave="644" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{239E330F-381D-451F-8AD5-665516688A4C}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
@@ -354,10 +354,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$55</c:f>
+              <c:f>writing!$A$2:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -519,16 +519,19 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>44219</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44220</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$Q$2:$Q$55</c:f>
+              <c:f>writing!$Q$2:$Q$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -690,6 +693,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -801,10 +807,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$55</c:f>
+              <c:f>writing!$A$2:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -966,16 +972,19 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>44219</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44220</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$P$2:$P$55</c:f>
+              <c:f>writing!$P$2:$P$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>2614</c:v>
                 </c:pt>
@@ -1137,6 +1146,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>47653</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>49165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2105,8 +2117,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:Q55" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:Q55" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:Q56" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:Q56" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -2449,10 +2461,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F35" workbookViewId="0">
-      <selection activeCell="Q55" sqref="Q55"/>
+    <sheetView tabSelected="1" topLeftCell="E35" workbookViewId="0">
+      <selection activeCell="P56" sqref="P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5496,6 +5508,61 @@
         <v>2550</v>
       </c>
     </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>44220</v>
+      </c>
+      <c r="B56">
+        <v>631</v>
+      </c>
+      <c r="C56">
+        <v>260</v>
+      </c>
+      <c r="D56">
+        <v>87</v>
+      </c>
+      <c r="E56">
+        <v>229</v>
+      </c>
+      <c r="F56">
+        <v>492</v>
+      </c>
+      <c r="G56">
+        <v>416</v>
+      </c>
+      <c r="H56">
+        <v>8725</v>
+      </c>
+      <c r="I56">
+        <v>19876</v>
+      </c>
+      <c r="J56">
+        <v>6562</v>
+      </c>
+      <c r="K56">
+        <v>6932</v>
+      </c>
+      <c r="L56">
+        <v>186</v>
+      </c>
+      <c r="M56">
+        <v>496</v>
+      </c>
+      <c r="N56">
+        <v>3575</v>
+      </c>
+      <c r="O56">
+        <v>1329</v>
+      </c>
+      <c r="P56">
+        <f>SUM(C56:O56)</f>
+        <v>49165</v>
+      </c>
+      <c r="Q56">
+        <f>P56-P55</f>
+        <v>1512</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -10,13 +10,13 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="644" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{239E330F-381D-451F-8AD5-665516688A4C}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
     <sheet name="writing" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2448,7 +2448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
@@ -2463,7 +2463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E35" workbookViewId="0">
+    <sheetView topLeftCell="E35" workbookViewId="0">
       <selection activeCell="P56" sqref="P56"/>
     </sheetView>
   </sheetViews>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="644" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{239E330F-381D-451F-8AD5-665516688A4C}"/>
+  <xr:revisionPtr revIDLastSave="653" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CA96596B-603C-4349-9688-40D01F046137}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
     <sheet name="writing" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -354,10 +354,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$56</c:f>
+              <c:f>writing!$A$2:$A$57</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -522,16 +522,19 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>44220</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$Q$2:$Q$56</c:f>
+              <c:f>writing!$Q$2:$Q$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -696,6 +699,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>1512</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -807,10 +813,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$56</c:f>
+              <c:f>writing!$A$2:$A$57</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -975,16 +981,19 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>44220</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$P$2:$P$56</c:f>
+              <c:f>writing!$P$2:$P$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>2614</c:v>
                 </c:pt>
@@ -1149,6 +1158,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>49165</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>50587</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2117,8 +2129,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:Q56" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:Q56" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:Q57" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:Q57" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -2461,10 +2473,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView topLeftCell="E35" workbookViewId="0">
-      <selection activeCell="P56" sqref="P56"/>
+    <sheetView topLeftCell="F35" workbookViewId="0">
+      <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5503,8 +5515,8 @@
         <f>SUM(C55:O55)</f>
         <v>47653</v>
       </c>
-      <c r="Q55">
-        <f>P55-P54</f>
+      <c r="Q55" cm="1">
+        <f t="array" ref="Q55">SUM(ABS(C55:O55-C54:O54))</f>
         <v>2550</v>
       </c>
     </row>
@@ -5558,9 +5570,64 @@
         <f>SUM(C56:O56)</f>
         <v>49165</v>
       </c>
-      <c r="Q56">
-        <f>P56-P55</f>
+      <c r="Q56" cm="1">
+        <f t="array" ref="Q56">SUM(ABS(C56:O56-C55:O55))</f>
         <v>1512</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>44223</v>
+      </c>
+      <c r="B57">
+        <v>631</v>
+      </c>
+      <c r="C57">
+        <v>260</v>
+      </c>
+      <c r="D57">
+        <v>87</v>
+      </c>
+      <c r="E57">
+        <v>229</v>
+      </c>
+      <c r="F57">
+        <v>492</v>
+      </c>
+      <c r="G57">
+        <v>416</v>
+      </c>
+      <c r="H57">
+        <v>8758</v>
+      </c>
+      <c r="I57">
+        <v>19876</v>
+      </c>
+      <c r="J57">
+        <v>6446</v>
+      </c>
+      <c r="K57">
+        <v>8437</v>
+      </c>
+      <c r="L57">
+        <v>186</v>
+      </c>
+      <c r="M57">
+        <v>496</v>
+      </c>
+      <c r="N57">
+        <v>3575</v>
+      </c>
+      <c r="O57">
+        <v>1329</v>
+      </c>
+      <c r="P57">
+        <f>SUM(C57:O57)</f>
+        <v>50587</v>
+      </c>
+      <c r="Q57" cm="1">
+        <f t="array" ref="Q57">SUM(ABS(C57:O57-C56:O56))</f>
+        <v>1654</v>
       </c>
     </row>
   </sheetData>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="653" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CA96596B-603C-4349-9688-40D01F046137}"/>
+  <xr:revisionPtr revIDLastSave="662" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{235BA3A1-0BCF-4956-9D4D-DB67BC5C4A71}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
     <sheet name="writing" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -354,10 +354,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$57</c:f>
+              <c:f>writing!$A$2:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -525,16 +525,19 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$Q$2:$Q$57</c:f>
+              <c:f>writing!$Q$2:$Q$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -702,6 +705,9 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>1654</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -813,10 +819,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$57</c:f>
+              <c:f>writing!$A$2:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -984,16 +990,19 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$P$2:$P$57</c:f>
+              <c:f>writing!$P$2:$P$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>2614</c:v>
                 </c:pt>
@@ -1161,6 +1170,9 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>50587</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>50658</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2129,8 +2141,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:Q57" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:Q57" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:Q58" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:Q58" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -2473,10 +2485,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView topLeftCell="F35" workbookViewId="0">
-      <selection activeCell="O47" sqref="O47"/>
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5347,7 +5359,7 @@
         <v>1329</v>
       </c>
       <c r="P52">
-        <f>SUM(C52:O52)</f>
+        <f t="shared" ref="P52:P57" si="2">SUM(C52:O52)</f>
         <v>42055</v>
       </c>
       <c r="Q52" cm="1">
@@ -5402,7 +5414,7 @@
         <v>1329</v>
       </c>
       <c r="P53">
-        <f>SUM(C53:O53)</f>
+        <f t="shared" si="2"/>
         <v>43189</v>
       </c>
       <c r="Q53" cm="1">
@@ -5457,7 +5469,7 @@
         <v>1329</v>
       </c>
       <c r="P54">
-        <f>SUM(C54:O54)</f>
+        <f t="shared" si="2"/>
         <v>45103</v>
       </c>
       <c r="Q54" cm="1">
@@ -5512,7 +5524,7 @@
         <v>1329</v>
       </c>
       <c r="P55">
-        <f>SUM(C55:O55)</f>
+        <f t="shared" si="2"/>
         <v>47653</v>
       </c>
       <c r="Q55" cm="1">
@@ -5567,7 +5579,7 @@
         <v>1329</v>
       </c>
       <c r="P56">
-        <f>SUM(C56:O56)</f>
+        <f t="shared" si="2"/>
         <v>49165</v>
       </c>
       <c r="Q56" cm="1">
@@ -5622,12 +5634,67 @@
         <v>1329</v>
       </c>
       <c r="P57">
-        <f>SUM(C57:O57)</f>
+        <f t="shared" si="2"/>
         <v>50587</v>
       </c>
       <c r="Q57" cm="1">
         <f t="array" ref="Q57">SUM(ABS(C57:O57-C56:O56))</f>
         <v>1654</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>44224</v>
+      </c>
+      <c r="B58">
+        <v>631</v>
+      </c>
+      <c r="C58">
+        <v>260</v>
+      </c>
+      <c r="D58">
+        <v>87</v>
+      </c>
+      <c r="E58">
+        <v>229</v>
+      </c>
+      <c r="F58">
+        <v>492</v>
+      </c>
+      <c r="G58">
+        <v>416</v>
+      </c>
+      <c r="H58">
+        <v>8758</v>
+      </c>
+      <c r="I58">
+        <v>19876</v>
+      </c>
+      <c r="J58">
+        <v>6457</v>
+      </c>
+      <c r="K58">
+        <v>8497</v>
+      </c>
+      <c r="L58">
+        <v>186</v>
+      </c>
+      <c r="M58">
+        <v>496</v>
+      </c>
+      <c r="N58">
+        <v>3575</v>
+      </c>
+      <c r="O58">
+        <v>1329</v>
+      </c>
+      <c r="P58">
+        <f>SUM(C58:O58)</f>
+        <v>50658</v>
+      </c>
+      <c r="Q58" cm="1">
+        <f t="array" ref="Q58">SUM(ABS(C58:O58-C57:O57))</f>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="592" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{ABCA1320-68BE-3B4E-9554-DC5B7F8111C8}"/>
+  <xr:revisionPtr revIDLastSave="662" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{235BA3A1-0BCF-4956-9D4D-DB67BC5C4A71}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
@@ -161,10 +161,10 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -354,10 +354,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$51</c:f>
+              <c:f>writing!$A$2:$A$58</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -507,16 +507,37 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>44198</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44210</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44211</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44212</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44219</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44220</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$Q$2:$Q$51</c:f>
+              <c:f>writing!$Q$2:$Q$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -665,7 +686,28 @@
                   <c:v>1323</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>350</c:v>
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1134</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1914</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1512</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1654</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -777,10 +819,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$51</c:f>
+              <c:f>writing!$A$2:$A$58</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -930,16 +972,37 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>44198</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44210</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44211</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44212</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44219</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44220</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$P$2:$P$51</c:f>
+              <c:f>writing!$P$2:$P$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>2614</c:v>
                 </c:pt>
@@ -1089,6 +1152,27 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>41719</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42055</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43189</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45103</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>47653</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>49165</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>50587</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>50658</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1120,7 +1204,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1378,7 +1462,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2057,8 +2141,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:Q51" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:Q51" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:Q58" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:Q58" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -2388,11 +2472,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2401,32 +2485,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46:L46"/>
+    <sheetView topLeftCell="F35" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.22265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.68359375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.16015625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.390625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.43359375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.52734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.29296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.76171875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.94921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.4296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.9296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.53125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2479,7 +2563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>44130</v>
       </c>
@@ -2526,14 +2610,14 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <f>SUM(C2:O2)</f>
+        <f t="shared" ref="P2:P33" si="0">SUM(C2:O2)</f>
         <v>2614</v>
       </c>
       <c r="Q2">
         <v>1360</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>44131</v>
       </c>
@@ -2580,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <f>SUM(C3:O3)</f>
+        <f t="shared" si="0"/>
         <v>3628</v>
       </c>
       <c r="Q3" cm="1">
@@ -2588,7 +2672,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>44132</v>
       </c>
@@ -2635,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <f>SUM(C4:O4)</f>
+        <f t="shared" si="0"/>
         <v>4429</v>
       </c>
       <c r="Q4" cm="1">
@@ -2643,7 +2727,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44133</v>
       </c>
@@ -2690,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <f>SUM(C5:O5)</f>
+        <f t="shared" si="0"/>
         <v>5670</v>
       </c>
       <c r="Q5" cm="1">
@@ -2698,7 +2782,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>44134</v>
       </c>
@@ -2745,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <f>SUM(C6:O6)</f>
+        <f t="shared" si="0"/>
         <v>6433</v>
       </c>
       <c r="Q6" cm="1">
@@ -2753,7 +2837,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>44135</v>
       </c>
@@ -2800,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <f>SUM(C7:O7)</f>
+        <f t="shared" si="0"/>
         <v>7922</v>
       </c>
       <c r="Q7" cm="1">
@@ -2808,7 +2892,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>44136</v>
       </c>
@@ -2855,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <f>SUM(C8:O8)</f>
+        <f t="shared" si="0"/>
         <v>7922</v>
       </c>
       <c r="Q8" cm="1">
@@ -2863,7 +2947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>44137</v>
       </c>
@@ -2910,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <f>SUM(C9:O9)</f>
+        <f t="shared" si="0"/>
         <v>8733</v>
       </c>
       <c r="Q9" cm="1">
@@ -2918,7 +3002,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>44138</v>
       </c>
@@ -2965,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <f>SUM(C10:O10)</f>
+        <f t="shared" si="0"/>
         <v>8943</v>
       </c>
       <c r="Q10" cm="1">
@@ -2973,7 +3057,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>44139</v>
       </c>
@@ -3020,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <f>SUM(C11:O11)</f>
+        <f t="shared" si="0"/>
         <v>8913</v>
       </c>
       <c r="Q11" cm="1">
@@ -3028,7 +3112,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>44142</v>
       </c>
@@ -3075,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <f>SUM(C12:O12)</f>
+        <f t="shared" si="0"/>
         <v>8988</v>
       </c>
       <c r="Q12" cm="1">
@@ -3083,7 +3167,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>44143</v>
       </c>
@@ -3130,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <f>SUM(C13:O13)</f>
+        <f t="shared" si="0"/>
         <v>8988</v>
       </c>
       <c r="Q13" cm="1">
@@ -3138,7 +3222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>44144</v>
       </c>
@@ -3185,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <f>SUM(C14:O14)</f>
+        <f t="shared" si="0"/>
         <v>9499</v>
       </c>
       <c r="Q14" cm="1">
@@ -3193,7 +3277,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>44145</v>
       </c>
@@ -3240,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <f>SUM(C15:O15)</f>
+        <f t="shared" si="0"/>
         <v>11013</v>
       </c>
       <c r="Q15" cm="1">
@@ -3248,7 +3332,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>44146</v>
       </c>
@@ -3295,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <f>SUM(C16:O16)</f>
+        <f t="shared" si="0"/>
         <v>9499</v>
       </c>
       <c r="Q16" cm="1">
@@ -3303,7 +3387,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>44150</v>
       </c>
@@ -3350,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <f>SUM(C17:O17)</f>
+        <f t="shared" si="0"/>
         <v>9675</v>
       </c>
       <c r="Q17" cm="1">
@@ -3358,7 +3442,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>44151</v>
       </c>
@@ -3405,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <f>SUM(C18:O18)</f>
+        <f t="shared" si="0"/>
         <v>11013</v>
       </c>
       <c r="Q18" cm="1">
@@ -3413,7 +3497,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>44152</v>
       </c>
@@ -3460,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <f>SUM(C19:O19)</f>
+        <f t="shared" si="0"/>
         <v>11348</v>
       </c>
       <c r="Q19" cm="1">
@@ -3468,7 +3552,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>44153</v>
       </c>
@@ -3515,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <f>SUM(C20:O20)</f>
+        <f t="shared" si="0"/>
         <v>12347</v>
       </c>
       <c r="Q20" cm="1">
@@ -3523,7 +3607,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>44154</v>
       </c>
@@ -3570,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <f>SUM(C21:O21)</f>
+        <f t="shared" si="0"/>
         <v>12403</v>
       </c>
       <c r="Q21" cm="1">
@@ -3578,7 +3662,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>44155</v>
       </c>
@@ -3625,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <f>SUM(C22:O22)</f>
+        <f t="shared" si="0"/>
         <v>13539</v>
       </c>
       <c r="Q22" cm="1">
@@ -3633,7 +3717,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>44156</v>
       </c>
@@ -3680,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <f>SUM(C23:O23)</f>
+        <f t="shared" si="0"/>
         <v>14218</v>
       </c>
       <c r="Q23" cm="1">
@@ -3688,7 +3772,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>44157</v>
       </c>
@@ -3735,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <f>SUM(C24:O24)</f>
+        <f t="shared" si="0"/>
         <v>16040</v>
       </c>
       <c r="Q24" cm="1">
@@ -3743,7 +3827,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>44158</v>
       </c>
@@ -3790,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <f>SUM(C25:O25)</f>
+        <f t="shared" si="0"/>
         <v>16196</v>
       </c>
       <c r="Q25" cm="1">
@@ -3798,7 +3882,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>44159</v>
       </c>
@@ -3845,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="P26">
-        <f>SUM(C26:O26)</f>
+        <f t="shared" si="0"/>
         <v>17824</v>
       </c>
       <c r="Q26" cm="1">
@@ -3853,7 +3937,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>44160</v>
       </c>
@@ -3900,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="P27">
-        <f>SUM(C27:O27)</f>
+        <f t="shared" si="0"/>
         <v>18729</v>
       </c>
       <c r="Q27" cm="1">
@@ -3908,7 +3992,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>44161</v>
       </c>
@@ -3955,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="P28">
-        <f>SUM(C28:O28)</f>
+        <f t="shared" si="0"/>
         <v>18932</v>
       </c>
       <c r="Q28" cm="1">
@@ -3963,7 +4047,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>44162</v>
       </c>
@@ -4010,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="P29">
-        <f>SUM(C29:O29)</f>
+        <f t="shared" si="0"/>
         <v>19791</v>
       </c>
       <c r="Q29" cm="1">
@@ -4018,7 +4102,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>44163</v>
       </c>
@@ -4065,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="P30">
-        <f>SUM(C30:O30)</f>
+        <f t="shared" si="0"/>
         <v>22755</v>
       </c>
       <c r="Q30" cm="1">
@@ -4073,7 +4157,7 @@
         <v>2964</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>44164</v>
       </c>
@@ -4120,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <f>SUM(C31:O31)</f>
+        <f t="shared" si="0"/>
         <v>24627</v>
       </c>
       <c r="Q31" cm="1">
@@ -4128,7 +4212,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>44166</v>
       </c>
@@ -4175,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <f>SUM(C32:O32)</f>
+        <f t="shared" si="0"/>
         <v>25963</v>
       </c>
       <c r="Q32" cm="1">
@@ -4183,7 +4267,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>44167</v>
       </c>
@@ -4230,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="P33">
-        <f>SUM(C33:O33)</f>
+        <f t="shared" si="0"/>
         <v>28352</v>
       </c>
       <c r="Q33" cm="1">
@@ -4238,7 +4322,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>44168</v>
       </c>
@@ -4285,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="P34">
-        <f>SUM(C34:O34)</f>
+        <f t="shared" ref="P34:P51" si="1">SUM(C34:O34)</f>
         <v>30143</v>
       </c>
       <c r="Q34" cm="1">
@@ -4293,7 +4377,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>44169</v>
       </c>
@@ -4340,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="P35">
-        <f>SUM(C35:O35)</f>
+        <f t="shared" si="1"/>
         <v>30146</v>
       </c>
       <c r="Q35" cm="1">
@@ -4348,7 +4432,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>44170</v>
       </c>
@@ -4395,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="P36">
-        <f>SUM(C36:O36)</f>
+        <f t="shared" si="1"/>
         <v>30146</v>
       </c>
       <c r="Q36" cm="1">
@@ -4403,7 +4487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>44173</v>
       </c>
@@ -4450,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="P37">
-        <f>SUM(C37:O37)</f>
+        <f t="shared" si="1"/>
         <v>29693</v>
       </c>
       <c r="Q37" cm="1">
@@ -4458,7 +4542,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>44174</v>
       </c>
@@ -4505,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="P38">
-        <f>SUM(C38:O38)</f>
+        <f t="shared" si="1"/>
         <v>29945</v>
       </c>
       <c r="Q38" cm="1">
@@ -4513,7 +4597,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>44175</v>
       </c>
@@ -4560,7 +4644,7 @@
         <v>0</v>
       </c>
       <c r="P39">
-        <f>SUM(C39:O39)</f>
+        <f t="shared" si="1"/>
         <v>30074</v>
       </c>
       <c r="Q39" cm="1">
@@ -4568,7 +4652,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>44176</v>
       </c>
@@ -4615,7 +4699,7 @@
         <v>0</v>
       </c>
       <c r="P40">
-        <f>SUM(C40:O40)</f>
+        <f t="shared" si="1"/>
         <v>30211</v>
       </c>
       <c r="Q40" cm="1">
@@ -4623,7 +4707,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>44177</v>
       </c>
@@ -4670,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="P41">
-        <f>SUM(C41:O41)</f>
+        <f t="shared" si="1"/>
         <v>30722</v>
       </c>
       <c r="Q41" cm="1">
@@ -4678,7 +4762,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>44178</v>
       </c>
@@ -4725,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="P42">
-        <f>SUM(C42:O42)</f>
+        <f t="shared" si="1"/>
         <v>30721</v>
       </c>
       <c r="Q42" cm="1">
@@ -4733,7 +4817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>44179</v>
       </c>
@@ -4780,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="P43">
-        <f>SUM(C43:O43)</f>
+        <f t="shared" si="1"/>
         <v>31094</v>
       </c>
       <c r="Q43" cm="1">
@@ -4788,7 +4872,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>44180</v>
       </c>
@@ -4835,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <f>SUM(C44:O44)</f>
+        <f t="shared" si="1"/>
         <v>31802</v>
       </c>
       <c r="Q44" cm="1">
@@ -4843,7 +4927,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>44181</v>
       </c>
@@ -4890,7 +4974,7 @@
         <v>0</v>
       </c>
       <c r="P45">
-        <f>SUM(C45:O45)</f>
+        <f t="shared" si="1"/>
         <v>33111</v>
       </c>
       <c r="Q45" cm="1">
@@ -4898,7 +4982,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>44182</v>
       </c>
@@ -4945,7 +5029,7 @@
         <v>7</v>
       </c>
       <c r="P46">
-        <f>SUM(C46:O46)</f>
+        <f t="shared" si="1"/>
         <v>34286</v>
       </c>
       <c r="Q46" cm="1">
@@ -4953,7 +5037,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>44189</v>
       </c>
@@ -5000,7 +5084,7 @@
         <v>7</v>
       </c>
       <c r="P47">
-        <f>SUM(C47:O47)</f>
+        <f t="shared" si="1"/>
         <v>35114</v>
       </c>
       <c r="Q47" cm="1">
@@ -5008,7 +5092,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>44194</v>
       </c>
@@ -5055,7 +5139,7 @@
         <v>7</v>
       </c>
       <c r="P48">
-        <f>SUM(C48:O48)</f>
+        <f t="shared" si="1"/>
         <v>36301</v>
       </c>
       <c r="Q48" cm="1">
@@ -5063,7 +5147,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>44195</v>
       </c>
@@ -5110,7 +5194,7 @@
         <v>7</v>
       </c>
       <c r="P49">
-        <f>SUM(C49:O49)</f>
+        <f t="shared" si="1"/>
         <v>40046</v>
       </c>
       <c r="Q49" cm="1">
@@ -5118,7 +5202,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>44197</v>
       </c>
@@ -5165,7 +5249,7 @@
         <v>1329</v>
       </c>
       <c r="P50">
-        <f>SUM(C50:O50)</f>
+        <f t="shared" si="1"/>
         <v>41369</v>
       </c>
       <c r="Q50" cm="1">
@@ -5173,7 +5257,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>44198</v>
       </c>
@@ -5220,12 +5304,397 @@
         <v>1329</v>
       </c>
       <c r="P51">
-        <f>SUM(C51:O51)</f>
+        <f t="shared" si="1"/>
         <v>41719</v>
       </c>
-      <c r="Q51">
-        <f>P51-P50</f>
-        <v>350</v>
+      <c r="Q51" cm="1">
+        <f t="array" ref="Q51">SUM(ABS(C51:O51-C50:O50))</f>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>44210</v>
+      </c>
+      <c r="B52">
+        <v>631</v>
+      </c>
+      <c r="C52">
+        <v>260</v>
+      </c>
+      <c r="D52">
+        <v>87</v>
+      </c>
+      <c r="E52">
+        <v>229</v>
+      </c>
+      <c r="F52">
+        <v>492</v>
+      </c>
+      <c r="G52">
+        <v>416</v>
+      </c>
+      <c r="H52">
+        <v>8550</v>
+      </c>
+      <c r="I52">
+        <v>19876</v>
+      </c>
+      <c r="J52">
+        <v>6122</v>
+      </c>
+      <c r="K52">
+        <v>453</v>
+      </c>
+      <c r="L52">
+        <v>186</v>
+      </c>
+      <c r="M52">
+        <v>496</v>
+      </c>
+      <c r="N52">
+        <v>3559</v>
+      </c>
+      <c r="O52">
+        <v>1329</v>
+      </c>
+      <c r="P52">
+        <f t="shared" ref="P52:P57" si="2">SUM(C52:O52)</f>
+        <v>42055</v>
+      </c>
+      <c r="Q52" cm="1">
+        <f t="array" ref="Q52">SUM(ABS(C52:O52-C51:O51))</f>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>44211</v>
+      </c>
+      <c r="B53">
+        <v>631</v>
+      </c>
+      <c r="C53">
+        <v>260</v>
+      </c>
+      <c r="D53">
+        <v>87</v>
+      </c>
+      <c r="E53">
+        <v>229</v>
+      </c>
+      <c r="F53">
+        <v>492</v>
+      </c>
+      <c r="G53">
+        <v>416</v>
+      </c>
+      <c r="H53">
+        <v>8725</v>
+      </c>
+      <c r="I53">
+        <v>19876</v>
+      </c>
+      <c r="J53">
+        <v>6437</v>
+      </c>
+      <c r="K53">
+        <v>1081</v>
+      </c>
+      <c r="L53">
+        <v>186</v>
+      </c>
+      <c r="M53">
+        <v>496</v>
+      </c>
+      <c r="N53">
+        <v>3575</v>
+      </c>
+      <c r="O53">
+        <v>1329</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="2"/>
+        <v>43189</v>
+      </c>
+      <c r="Q53" cm="1">
+        <f t="array" ref="Q53">SUM(ABS(C53:O53-C52:O52))</f>
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>44212</v>
+      </c>
+      <c r="B54">
+        <v>631</v>
+      </c>
+      <c r="C54">
+        <v>260</v>
+      </c>
+      <c r="D54">
+        <v>87</v>
+      </c>
+      <c r="E54">
+        <v>229</v>
+      </c>
+      <c r="F54">
+        <v>492</v>
+      </c>
+      <c r="G54">
+        <v>416</v>
+      </c>
+      <c r="H54">
+        <v>8725</v>
+      </c>
+      <c r="I54">
+        <v>19876</v>
+      </c>
+      <c r="J54">
+        <v>6562</v>
+      </c>
+      <c r="K54">
+        <v>2870</v>
+      </c>
+      <c r="L54">
+        <v>186</v>
+      </c>
+      <c r="M54">
+        <v>496</v>
+      </c>
+      <c r="N54">
+        <v>3575</v>
+      </c>
+      <c r="O54">
+        <v>1329</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="2"/>
+        <v>45103</v>
+      </c>
+      <c r="Q54" cm="1">
+        <f t="array" ref="Q54">SUM(ABS(C54:O54-C53:O53))</f>
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>44219</v>
+      </c>
+      <c r="B55">
+        <v>631</v>
+      </c>
+      <c r="C55">
+        <v>260</v>
+      </c>
+      <c r="D55">
+        <v>87</v>
+      </c>
+      <c r="E55">
+        <v>229</v>
+      </c>
+      <c r="F55">
+        <v>492</v>
+      </c>
+      <c r="G55">
+        <v>416</v>
+      </c>
+      <c r="H55">
+        <v>8725</v>
+      </c>
+      <c r="I55">
+        <v>19876</v>
+      </c>
+      <c r="J55">
+        <v>6562</v>
+      </c>
+      <c r="K55">
+        <v>5420</v>
+      </c>
+      <c r="L55">
+        <v>186</v>
+      </c>
+      <c r="M55">
+        <v>496</v>
+      </c>
+      <c r="N55">
+        <v>3575</v>
+      </c>
+      <c r="O55">
+        <v>1329</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="2"/>
+        <v>47653</v>
+      </c>
+      <c r="Q55" cm="1">
+        <f t="array" ref="Q55">SUM(ABS(C55:O55-C54:O54))</f>
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>44220</v>
+      </c>
+      <c r="B56">
+        <v>631</v>
+      </c>
+      <c r="C56">
+        <v>260</v>
+      </c>
+      <c r="D56">
+        <v>87</v>
+      </c>
+      <c r="E56">
+        <v>229</v>
+      </c>
+      <c r="F56">
+        <v>492</v>
+      </c>
+      <c r="G56">
+        <v>416</v>
+      </c>
+      <c r="H56">
+        <v>8725</v>
+      </c>
+      <c r="I56">
+        <v>19876</v>
+      </c>
+      <c r="J56">
+        <v>6562</v>
+      </c>
+      <c r="K56">
+        <v>6932</v>
+      </c>
+      <c r="L56">
+        <v>186</v>
+      </c>
+      <c r="M56">
+        <v>496</v>
+      </c>
+      <c r="N56">
+        <v>3575</v>
+      </c>
+      <c r="O56">
+        <v>1329</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="2"/>
+        <v>49165</v>
+      </c>
+      <c r="Q56" cm="1">
+        <f t="array" ref="Q56">SUM(ABS(C56:O56-C55:O55))</f>
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>44223</v>
+      </c>
+      <c r="B57">
+        <v>631</v>
+      </c>
+      <c r="C57">
+        <v>260</v>
+      </c>
+      <c r="D57">
+        <v>87</v>
+      </c>
+      <c r="E57">
+        <v>229</v>
+      </c>
+      <c r="F57">
+        <v>492</v>
+      </c>
+      <c r="G57">
+        <v>416</v>
+      </c>
+      <c r="H57">
+        <v>8758</v>
+      </c>
+      <c r="I57">
+        <v>19876</v>
+      </c>
+      <c r="J57">
+        <v>6446</v>
+      </c>
+      <c r="K57">
+        <v>8437</v>
+      </c>
+      <c r="L57">
+        <v>186</v>
+      </c>
+      <c r="M57">
+        <v>496</v>
+      </c>
+      <c r="N57">
+        <v>3575</v>
+      </c>
+      <c r="O57">
+        <v>1329</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="2"/>
+        <v>50587</v>
+      </c>
+      <c r="Q57" cm="1">
+        <f t="array" ref="Q57">SUM(ABS(C57:O57-C56:O56))</f>
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>44224</v>
+      </c>
+      <c r="B58">
+        <v>631</v>
+      </c>
+      <c r="C58">
+        <v>260</v>
+      </c>
+      <c r="D58">
+        <v>87</v>
+      </c>
+      <c r="E58">
+        <v>229</v>
+      </c>
+      <c r="F58">
+        <v>492</v>
+      </c>
+      <c r="G58">
+        <v>416</v>
+      </c>
+      <c r="H58">
+        <v>8758</v>
+      </c>
+      <c r="I58">
+        <v>19876</v>
+      </c>
+      <c r="J58">
+        <v>6457</v>
+      </c>
+      <c r="K58">
+        <v>8497</v>
+      </c>
+      <c r="L58">
+        <v>186</v>
+      </c>
+      <c r="M58">
+        <v>496</v>
+      </c>
+      <c r="N58">
+        <v>3575</v>
+      </c>
+      <c r="O58">
+        <v>1329</v>
+      </c>
+      <c r="P58">
+        <f>SUM(C58:O58)</f>
+        <v>50658</v>
+      </c>
+      <c r="Q58" cm="1">
+        <f t="array" ref="Q58">SUM(ABS(C58:O58-C57:O57))</f>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="662" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{235BA3A1-0BCF-4956-9D4D-DB67BC5C4A71}"/>
+  <xr:revisionPtr revIDLastSave="669" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{61550F54-ED4F-4FA0-9D96-E26054E1C32F}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
@@ -354,10 +354,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$58</c:f>
+              <c:f>writing!$A$2:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -528,16 +528,19 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>44224</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$Q$2:$Q$58</c:f>
+              <c:f>writing!$Q$2:$Q$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -708,6 +711,9 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -819,10 +825,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$58</c:f>
+              <c:f>writing!$A$2:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -993,16 +999,19 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>44224</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$P$2:$P$58</c:f>
+              <c:f>writing!$P$2:$P$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>2614</c:v>
                 </c:pt>
@@ -1173,6 +1182,9 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>50658</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>50588</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2141,8 +2153,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:Q58" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:Q58" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:Q59" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:Q59" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -2472,7 +2484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
@@ -2485,10 +2497,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView topLeftCell="F35" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+    <sheetView tabSelected="1" topLeftCell="F35" workbookViewId="0">
+      <selection activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5697,6 +5709,61 @@
         <v>71</v>
       </c>
     </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>44225</v>
+      </c>
+      <c r="B59">
+        <v>631</v>
+      </c>
+      <c r="C59">
+        <v>260</v>
+      </c>
+      <c r="D59">
+        <v>87</v>
+      </c>
+      <c r="E59">
+        <v>229</v>
+      </c>
+      <c r="F59">
+        <v>492</v>
+      </c>
+      <c r="G59">
+        <v>416</v>
+      </c>
+      <c r="H59">
+        <v>8656</v>
+      </c>
+      <c r="I59">
+        <v>19908</v>
+      </c>
+      <c r="J59">
+        <v>6457</v>
+      </c>
+      <c r="K59">
+        <v>8497</v>
+      </c>
+      <c r="L59">
+        <v>186</v>
+      </c>
+      <c r="M59">
+        <v>496</v>
+      </c>
+      <c r="N59">
+        <v>3575</v>
+      </c>
+      <c r="O59">
+        <v>1329</v>
+      </c>
+      <c r="P59">
+        <f>SUM(C59:O59)</f>
+        <v>50588</v>
+      </c>
+      <c r="Q59" cm="1">
+        <f t="array" ref="Q59">SUM(ABS(C59:O59-C58:O58))</f>
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="669" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{61550F54-ED4F-4FA0-9D96-E26054E1C32F}"/>
+  <xr:revisionPtr revIDLastSave="686" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C5DAF290-22F8-4AD5-AE62-C07DA243B8A5}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
     <sheet name="writing" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -354,10 +354,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$59</c:f>
+              <c:f>writing!$A$2:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -531,16 +531,19 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>44225</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$Q$2:$Q$59</c:f>
+              <c:f>writing!$Q$2:$Q$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -714,6 +717,9 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2603</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -825,10 +831,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$59</c:f>
+              <c:f>writing!$A$2:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -1002,16 +1008,19 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>44225</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$P$2:$P$59</c:f>
+              <c:f>writing!$P$2:$P$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>2614</c:v>
                 </c:pt>
@@ -1185,6 +1194,9 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>50588</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>53191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2153,8 +2165,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:Q59" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:Q59" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:Q60" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:Q60" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -2484,7 +2496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
@@ -2497,10 +2509,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F35" workbookViewId="0">
-      <selection activeCell="N56" sqref="N56"/>
+    <sheetView topLeftCell="F35" workbookViewId="0">
+      <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5764,6 +5776,61 @@
         <v>134</v>
       </c>
     </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>44226</v>
+      </c>
+      <c r="B60">
+        <v>631</v>
+      </c>
+      <c r="C60">
+        <v>260</v>
+      </c>
+      <c r="D60">
+        <v>87</v>
+      </c>
+      <c r="E60">
+        <v>229</v>
+      </c>
+      <c r="F60">
+        <v>492</v>
+      </c>
+      <c r="G60">
+        <v>416</v>
+      </c>
+      <c r="H60">
+        <v>8656</v>
+      </c>
+      <c r="I60">
+        <v>19909</v>
+      </c>
+      <c r="J60">
+        <v>6457</v>
+      </c>
+      <c r="K60">
+        <v>8498</v>
+      </c>
+      <c r="L60">
+        <v>2787</v>
+      </c>
+      <c r="M60">
+        <v>496</v>
+      </c>
+      <c r="N60">
+        <v>3575</v>
+      </c>
+      <c r="O60">
+        <v>1329</v>
+      </c>
+      <c r="P60">
+        <f>SUM(C60:O60)</f>
+        <v>53191</v>
+      </c>
+      <c r="Q60" cm="1">
+        <f t="array" ref="Q60">SUM(ABS(C60:O60-C59:O59))</f>
+        <v>2603</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="686" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C5DAF290-22F8-4AD5-AE62-C07DA243B8A5}"/>
+  <xr:revisionPtr revIDLastSave="700" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8AE206CC-1188-4ABF-9D5B-0595BB6A1A0D}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
     <sheet name="writing" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -354,10 +354,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$60</c:f>
+              <c:f>writing!$A$2:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -534,16 +534,19 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>44226</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$Q$2:$Q$60</c:f>
+              <c:f>writing!$Q$2:$Q$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -720,6 +723,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>2603</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2190</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -831,10 +837,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$60</c:f>
+              <c:f>writing!$A$2:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -1011,16 +1017,19 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>44226</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$P$2:$P$60</c:f>
+              <c:f>writing!$P$2:$P$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>2614</c:v>
                 </c:pt>
@@ -1197,6 +1206,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>53191</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>55381</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2165,8 +2177,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:Q60" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:Q60" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:Q61" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:Q61" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -2496,7 +2508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
@@ -2509,10 +2521,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView topLeftCell="F35" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5831,6 +5843,61 @@
         <v>2603</v>
       </c>
     </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>44227</v>
+      </c>
+      <c r="B61">
+        <v>631</v>
+      </c>
+      <c r="C61">
+        <v>260</v>
+      </c>
+      <c r="D61">
+        <v>87</v>
+      </c>
+      <c r="E61">
+        <v>229</v>
+      </c>
+      <c r="F61">
+        <v>492</v>
+      </c>
+      <c r="G61">
+        <v>416</v>
+      </c>
+      <c r="H61">
+        <v>8656</v>
+      </c>
+      <c r="I61">
+        <v>19909</v>
+      </c>
+      <c r="J61">
+        <v>6457</v>
+      </c>
+      <c r="K61">
+        <v>8522</v>
+      </c>
+      <c r="L61">
+        <v>4953</v>
+      </c>
+      <c r="M61">
+        <v>496</v>
+      </c>
+      <c r="N61">
+        <v>3575</v>
+      </c>
+      <c r="O61">
+        <v>1329</v>
+      </c>
+      <c r="P61">
+        <f>SUM(C61:O61)</f>
+        <v>55381</v>
+      </c>
+      <c r="Q61" cm="1">
+        <f t="array" ref="Q61">SUM(ABS(C61:O61-C60:O60))</f>
+        <v>2190</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="669" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{61550F54-ED4F-4FA0-9D96-E26054E1C32F}"/>
+  <xr:revisionPtr revIDLastSave="700" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8AE206CC-1188-4ABF-9D5B-0595BB6A1A0D}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
@@ -354,10 +354,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$59</c:f>
+              <c:f>writing!$A$2:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -531,16 +531,22 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>44225</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44226</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$Q$2:$Q$59</c:f>
+              <c:f>writing!$Q$2:$Q$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -714,6 +720,12 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2603</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2190</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -825,10 +837,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$59</c:f>
+              <c:f>writing!$A$2:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -1002,16 +1014,22 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>44225</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44226</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$P$2:$P$59</c:f>
+              <c:f>writing!$P$2:$P$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>2614</c:v>
                 </c:pt>
@@ -1185,6 +1203,12 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>50588</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>53191</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>55381</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2153,8 +2177,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:Q59" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:Q59" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:Q61" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:Q61" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -2484,7 +2508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
@@ -2497,10 +2521,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F35" workbookViewId="0">
-      <selection activeCell="N56" sqref="N56"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5764,6 +5788,116 @@
         <v>134</v>
       </c>
     </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>44226</v>
+      </c>
+      <c r="B60">
+        <v>631</v>
+      </c>
+      <c r="C60">
+        <v>260</v>
+      </c>
+      <c r="D60">
+        <v>87</v>
+      </c>
+      <c r="E60">
+        <v>229</v>
+      </c>
+      <c r="F60">
+        <v>492</v>
+      </c>
+      <c r="G60">
+        <v>416</v>
+      </c>
+      <c r="H60">
+        <v>8656</v>
+      </c>
+      <c r="I60">
+        <v>19909</v>
+      </c>
+      <c r="J60">
+        <v>6457</v>
+      </c>
+      <c r="K60">
+        <v>8498</v>
+      </c>
+      <c r="L60">
+        <v>2787</v>
+      </c>
+      <c r="M60">
+        <v>496</v>
+      </c>
+      <c r="N60">
+        <v>3575</v>
+      </c>
+      <c r="O60">
+        <v>1329</v>
+      </c>
+      <c r="P60">
+        <f>SUM(C60:O60)</f>
+        <v>53191</v>
+      </c>
+      <c r="Q60" cm="1">
+        <f t="array" ref="Q60">SUM(ABS(C60:O60-C59:O59))</f>
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>44227</v>
+      </c>
+      <c r="B61">
+        <v>631</v>
+      </c>
+      <c r="C61">
+        <v>260</v>
+      </c>
+      <c r="D61">
+        <v>87</v>
+      </c>
+      <c r="E61">
+        <v>229</v>
+      </c>
+      <c r="F61">
+        <v>492</v>
+      </c>
+      <c r="G61">
+        <v>416</v>
+      </c>
+      <c r="H61">
+        <v>8656</v>
+      </c>
+      <c r="I61">
+        <v>19909</v>
+      </c>
+      <c r="J61">
+        <v>6457</v>
+      </c>
+      <c r="K61">
+        <v>8522</v>
+      </c>
+      <c r="L61">
+        <v>4953</v>
+      </c>
+      <c r="M61">
+        <v>496</v>
+      </c>
+      <c r="N61">
+        <v>3575</v>
+      </c>
+      <c r="O61">
+        <v>1329</v>
+      </c>
+      <c r="P61">
+        <f>SUM(C61:O61)</f>
+        <v>55381</v>
+      </c>
+      <c r="Q61" cm="1">
+        <f t="array" ref="Q61">SUM(ABS(C61:O61-C60:O60))</f>
+        <v>2190</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/thesis/progress.xlsx
+++ b/thesis/progress.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="700" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8AE206CC-1188-4ABF-9D5B-0595BB6A1A0D}"/>
+  <xr:revisionPtr revIDLastSave="719" documentId="8_{8233B9E9-5E46-417E-8631-6A32EFB57DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2C688690-7BEC-4D1F-AFD0-3DF7C2D8B0BA}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{90EBE93A-7825-427E-BCBE-4711C8076B47}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="dashboard" sheetId="3" r:id="rId1"/>
     <sheet name="writing" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -354,10 +354,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$61</c:f>
+              <c:f>writing!$A$2:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -537,16 +537,19 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$Q$2:$Q$61</c:f>
+              <c:f>writing!$Q$2:$Q$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
                   <c:v>1360</c:v>
                 </c:pt>
@@ -726,6 +729,9 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>2190</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -837,10 +843,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>writing!$A$2:$A$61</c:f>
+              <c:f>writing!$A$2:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
                   <c:v>44130</c:v>
                 </c:pt>
@@ -1020,16 +1026,19 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>writing!$P$2:$P$61</c:f>
+              <c:f>writing!$P$2:$P$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
                   <c:v>2614</c:v>
                 </c:pt>
@@ -1209,6 +1218,9 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>55381</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>56392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2177,8 +2189,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:Q61" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:Q61" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BC4CFE-CBD1-4A0C-ACAB-8E0C8A33A81F}" name="Table1" displayName="Table1" ref="A1:Q62" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:Q62" xr:uid="{5C2EF26B-8F7C-40DC-90B6-805AC60B672A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -2508,7 +2520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB7023-1E9A-48AE-8417-31A8A140F136}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
@@ -2521,7 +2533,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901F93A-6EBC-444E-BB8F-D0008D03E2AA}">
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="A61" sqref="A61"/>
@@ -5898,6 +5910,61 @@
         <v>2190</v>
       </c>
     </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>44229</v>
+      </c>
+      <c r="B62">
+        <v>631</v>
+      </c>
+      <c r="C62">
+        <v>513</v>
+      </c>
+      <c r="D62">
+        <v>778</v>
+      </c>
+      <c r="E62">
+        <v>229</v>
+      </c>
+      <c r="F62">
+        <v>529</v>
+      </c>
+      <c r="G62">
+        <v>416</v>
+      </c>
+      <c r="H62">
+        <v>8656</v>
+      </c>
+      <c r="I62">
+        <v>19909</v>
+      </c>
+      <c r="J62">
+        <v>6460</v>
+      </c>
+      <c r="K62">
+        <v>8464</v>
+      </c>
+      <c r="L62">
+        <v>5038</v>
+      </c>
+      <c r="M62">
+        <v>496</v>
+      </c>
+      <c r="N62">
+        <v>3575</v>
+      </c>
+      <c r="O62">
+        <v>1329</v>
+      </c>
+      <c r="P62">
+        <f>SUM(C62:O62)</f>
+        <v>56392</v>
+      </c>
+      <c r="Q62" cm="1">
+        <f t="array" ref="Q62">SUM(ABS(C62:O62-C61:O61))</f>
+        <v>1127</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
